--- a/media/Maps/xlsx/TestMap.xlsx
+++ b/media/Maps/xlsx/TestMap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roram\OneDrive - 学校法人新潟総合学院 学校法人国際総合学園 学校法人大彦学園\ドキュメント\wiz 授業ファイル\2024年度2年授業\後期\製作\media\Maps\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B3C0B62-3EB3-4C3E-AAE0-7CCC064FC72F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8520EE11-43C4-46DF-9707-8DC60D031F2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{A4E20948-4AF6-4F97-89F2-9813C3B26678}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t xml:space="preserve"> </t>
+    <t>null</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -683,7 +683,35 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="良い" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="5">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1021,63 +1049,87 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F214FFB-5FC5-4EEB-876D-9E283DF04469}">
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:O50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W12" sqref="W12"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="11" width="3.69921875" customWidth="1"/>
+    <col min="1" max="11" width="3.69921875" style="1" customWidth="1"/>
+    <col min="12" max="15" width="3.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B1"/>
+      <c r="C1"/>
+      <c r="D1"/>
+      <c r="E1"/>
+      <c r="F1"/>
+      <c r="G1"/>
+      <c r="H1"/>
+      <c r="I1"/>
+      <c r="J1"/>
+      <c r="K1"/>
+      <c r="L1"/>
+      <c r="M1"/>
+      <c r="N1"/>
+      <c r="O1"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D2" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E2" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F2" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G2" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H2" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J2" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K2" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+      <c r="M2" s="1">
+        <v>2</v>
+      </c>
+      <c r="N2" s="1">
+        <v>2</v>
+      </c>
+      <c r="O2" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1">
         <v>0</v>
@@ -1112,10 +1164,19 @@
       <c r="L3" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M3" s="1">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>0</v>
@@ -1150,10 +1211,19 @@
       <c r="L4" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M4" s="1">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B5" s="1">
         <v>0</v>
@@ -1188,10 +1258,19 @@
       <c r="L5" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B6" s="1">
         <v>0</v>
@@ -1226,10 +1305,19 @@
       <c r="L6" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M6" s="1">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B7" s="1">
         <v>0</v>
@@ -1264,10 +1352,19 @@
       <c r="L7" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M7" s="1">
+        <v>0</v>
+      </c>
+      <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B8" s="1">
         <v>0</v>
@@ -1302,10 +1399,19 @@
       <c r="L8" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M8" s="1">
+        <v>0</v>
+      </c>
+      <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B9" s="1">
         <v>0</v>
@@ -1340,10 +1446,19 @@
       <c r="L9" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M9" s="1">
+        <v>0</v>
+      </c>
+      <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B10" s="1">
         <v>0</v>
@@ -1378,10 +1493,19 @@
       <c r="L10" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M10" s="1">
+        <v>0</v>
+      </c>
+      <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B11" s="1">
         <v>0</v>
@@ -1416,10 +1540,19 @@
       <c r="L11" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M11" s="1">
+        <v>0</v>
+      </c>
+      <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B12" s="1">
         <v>0</v>
@@ -1454,10 +1587,19 @@
       <c r="L12" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M12" s="1">
+        <v>0</v>
+      </c>
+      <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B13" s="1">
         <v>0</v>
@@ -1492,10 +1634,19 @@
       <c r="L13" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M13" s="1">
+        <v>0</v>
+      </c>
+      <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B14" s="1">
         <v>0</v>
@@ -1530,10 +1681,19 @@
       <c r="L14" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M14" s="1">
+        <v>0</v>
+      </c>
+      <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B15" s="1">
         <v>0</v>
@@ -1568,10 +1728,19 @@
       <c r="L15" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M15" s="1">
+        <v>0</v>
+      </c>
+      <c r="N15" s="1">
+        <v>0</v>
+      </c>
+      <c r="O15" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B16" s="1">
         <v>0</v>
@@ -1606,10 +1775,19 @@
       <c r="L16" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M16" s="1">
+        <v>0</v>
+      </c>
+      <c r="N16" s="1">
+        <v>0</v>
+      </c>
+      <c r="O16" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B17" s="1">
         <v>0</v>
@@ -1644,10 +1822,19 @@
       <c r="L17" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M17" s="1">
+        <v>0</v>
+      </c>
+      <c r="N17" s="1">
+        <v>0</v>
+      </c>
+      <c r="O17" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B18" s="1">
         <v>0</v>
@@ -1682,10 +1869,19 @@
       <c r="L18" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M18" s="1">
+        <v>0</v>
+      </c>
+      <c r="N18" s="1">
+        <v>0</v>
+      </c>
+      <c r="O18" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B19" s="1">
         <v>0</v>
@@ -1720,10 +1916,19 @@
       <c r="L19" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M19" s="1">
+        <v>0</v>
+      </c>
+      <c r="N19" s="1">
+        <v>0</v>
+      </c>
+      <c r="O19" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B20" s="1">
         <v>0</v>
@@ -1758,10 +1963,19 @@
       <c r="L20" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M20" s="1">
+        <v>0</v>
+      </c>
+      <c r="N20" s="1">
+        <v>0</v>
+      </c>
+      <c r="O20" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B21" s="1">
         <v>0</v>
@@ -1796,10 +2010,19 @@
       <c r="L21" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M21" s="1">
+        <v>0</v>
+      </c>
+      <c r="N21" s="1">
+        <v>0</v>
+      </c>
+      <c r="O21" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B22" s="1">
         <v>0</v>
@@ -1833,13 +2056,1351 @@
       </c>
       <c r="L22" s="1">
         <v>0</v>
+      </c>
+      <c r="M22" s="1">
+        <v>0</v>
+      </c>
+      <c r="N22" s="1">
+        <v>0</v>
+      </c>
+      <c r="O22" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A23" s="1">
+        <v>2</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0</v>
+      </c>
+      <c r="J23" s="1">
+        <v>0</v>
+      </c>
+      <c r="K23" s="1">
+        <v>0</v>
+      </c>
+      <c r="L23" s="1">
+        <v>0</v>
+      </c>
+      <c r="M23" s="1">
+        <v>0</v>
+      </c>
+      <c r="N23" s="1">
+        <v>0</v>
+      </c>
+      <c r="O23" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A24" s="1">
+        <v>2</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0</v>
+      </c>
+      <c r="J24" s="1">
+        <v>0</v>
+      </c>
+      <c r="K24" s="1">
+        <v>0</v>
+      </c>
+      <c r="L24" s="1">
+        <v>0</v>
+      </c>
+      <c r="M24" s="1">
+        <v>0</v>
+      </c>
+      <c r="N24" s="1">
+        <v>0</v>
+      </c>
+      <c r="O24" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A25" s="1">
+        <v>2</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0</v>
+      </c>
+      <c r="K25" s="1">
+        <v>0</v>
+      </c>
+      <c r="L25" s="1">
+        <v>0</v>
+      </c>
+      <c r="M25" s="1">
+        <v>0</v>
+      </c>
+      <c r="N25" s="1">
+        <v>0</v>
+      </c>
+      <c r="O25" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A26" s="1">
+        <v>2</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0</v>
+      </c>
+      <c r="J26" s="1">
+        <v>0</v>
+      </c>
+      <c r="K26" s="1">
+        <v>0</v>
+      </c>
+      <c r="L26" s="1">
+        <v>0</v>
+      </c>
+      <c r="M26" s="1">
+        <v>0</v>
+      </c>
+      <c r="N26" s="1">
+        <v>0</v>
+      </c>
+      <c r="O26" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A27" s="1">
+        <v>2</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0</v>
+      </c>
+      <c r="I27" s="1">
+        <v>0</v>
+      </c>
+      <c r="J27" s="1">
+        <v>0</v>
+      </c>
+      <c r="K27" s="1">
+        <v>0</v>
+      </c>
+      <c r="L27" s="1">
+        <v>0</v>
+      </c>
+      <c r="M27" s="1">
+        <v>0</v>
+      </c>
+      <c r="N27" s="1">
+        <v>0</v>
+      </c>
+      <c r="O27" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A28" s="1">
+        <v>2</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0</v>
+      </c>
+      <c r="I28" s="1">
+        <v>0</v>
+      </c>
+      <c r="J28" s="1">
+        <v>0</v>
+      </c>
+      <c r="K28" s="1">
+        <v>0</v>
+      </c>
+      <c r="L28" s="1">
+        <v>0</v>
+      </c>
+      <c r="M28" s="1">
+        <v>0</v>
+      </c>
+      <c r="N28" s="1">
+        <v>0</v>
+      </c>
+      <c r="O28" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A29" s="1">
+        <v>2</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0</v>
+      </c>
+      <c r="I29" s="1">
+        <v>0</v>
+      </c>
+      <c r="J29" s="1">
+        <v>0</v>
+      </c>
+      <c r="K29" s="1">
+        <v>0</v>
+      </c>
+      <c r="L29" s="1">
+        <v>0</v>
+      </c>
+      <c r="M29" s="1">
+        <v>0</v>
+      </c>
+      <c r="N29" s="1">
+        <v>0</v>
+      </c>
+      <c r="O29" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A30" s="1">
+        <v>2</v>
+      </c>
+      <c r="B30" s="1">
+        <v>0</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0</v>
+      </c>
+      <c r="I30" s="1">
+        <v>0</v>
+      </c>
+      <c r="J30" s="1">
+        <v>0</v>
+      </c>
+      <c r="K30" s="1">
+        <v>0</v>
+      </c>
+      <c r="L30" s="1">
+        <v>0</v>
+      </c>
+      <c r="M30" s="1">
+        <v>0</v>
+      </c>
+      <c r="N30" s="1">
+        <v>0</v>
+      </c>
+      <c r="O30" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A31" s="1">
+        <v>2</v>
+      </c>
+      <c r="B31" s="1">
+        <v>0</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0</v>
+      </c>
+      <c r="H31" s="1">
+        <v>0</v>
+      </c>
+      <c r="I31" s="1">
+        <v>0</v>
+      </c>
+      <c r="J31" s="1">
+        <v>0</v>
+      </c>
+      <c r="K31" s="1">
+        <v>0</v>
+      </c>
+      <c r="L31" s="1">
+        <v>0</v>
+      </c>
+      <c r="M31" s="1">
+        <v>0</v>
+      </c>
+      <c r="N31" s="1">
+        <v>0</v>
+      </c>
+      <c r="O31" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A32" s="1">
+        <v>2</v>
+      </c>
+      <c r="B32" s="1">
+        <v>0</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0</v>
+      </c>
+      <c r="H32" s="1">
+        <v>0</v>
+      </c>
+      <c r="I32" s="1">
+        <v>0</v>
+      </c>
+      <c r="J32" s="1">
+        <v>0</v>
+      </c>
+      <c r="K32" s="1">
+        <v>0</v>
+      </c>
+      <c r="L32" s="1">
+        <v>0</v>
+      </c>
+      <c r="M32" s="1">
+        <v>0</v>
+      </c>
+      <c r="N32" s="1">
+        <v>0</v>
+      </c>
+      <c r="O32" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A33" s="1">
+        <v>2</v>
+      </c>
+      <c r="B33" s="1">
+        <v>0</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0</v>
+      </c>
+      <c r="I33" s="1">
+        <v>0</v>
+      </c>
+      <c r="J33" s="1">
+        <v>0</v>
+      </c>
+      <c r="K33" s="1">
+        <v>0</v>
+      </c>
+      <c r="L33" s="1">
+        <v>0</v>
+      </c>
+      <c r="M33" s="1">
+        <v>0</v>
+      </c>
+      <c r="N33" s="1">
+        <v>0</v>
+      </c>
+      <c r="O33" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A34" s="1">
+        <v>2</v>
+      </c>
+      <c r="B34" s="1">
+        <v>0</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0</v>
+      </c>
+      <c r="H34" s="1">
+        <v>0</v>
+      </c>
+      <c r="I34" s="1">
+        <v>0</v>
+      </c>
+      <c r="J34" s="1">
+        <v>0</v>
+      </c>
+      <c r="K34" s="1">
+        <v>0</v>
+      </c>
+      <c r="L34" s="1">
+        <v>0</v>
+      </c>
+      <c r="M34" s="1">
+        <v>0</v>
+      </c>
+      <c r="N34" s="1">
+        <v>0</v>
+      </c>
+      <c r="O34" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A35" s="1">
+        <v>2</v>
+      </c>
+      <c r="B35" s="1">
+        <v>0</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0</v>
+      </c>
+      <c r="H35" s="1">
+        <v>0</v>
+      </c>
+      <c r="I35" s="1">
+        <v>0</v>
+      </c>
+      <c r="J35" s="1">
+        <v>0</v>
+      </c>
+      <c r="K35" s="1">
+        <v>0</v>
+      </c>
+      <c r="L35" s="1">
+        <v>0</v>
+      </c>
+      <c r="M35" s="1">
+        <v>0</v>
+      </c>
+      <c r="N35" s="1">
+        <v>0</v>
+      </c>
+      <c r="O35" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A36" s="1">
+        <v>2</v>
+      </c>
+      <c r="B36" s="1">
+        <v>0</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0</v>
+      </c>
+      <c r="H36" s="1">
+        <v>0</v>
+      </c>
+      <c r="I36" s="1">
+        <v>0</v>
+      </c>
+      <c r="J36" s="1">
+        <v>0</v>
+      </c>
+      <c r="K36" s="1">
+        <v>0</v>
+      </c>
+      <c r="L36" s="1">
+        <v>0</v>
+      </c>
+      <c r="M36" s="1">
+        <v>0</v>
+      </c>
+      <c r="N36" s="1">
+        <v>0</v>
+      </c>
+      <c r="O36" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A37" s="1">
+        <v>2</v>
+      </c>
+      <c r="B37" s="1">
+        <v>0</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0</v>
+      </c>
+      <c r="F37" s="1">
+        <v>0</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0</v>
+      </c>
+      <c r="H37" s="1">
+        <v>0</v>
+      </c>
+      <c r="I37" s="1">
+        <v>0</v>
+      </c>
+      <c r="J37" s="1">
+        <v>0</v>
+      </c>
+      <c r="K37" s="1">
+        <v>0</v>
+      </c>
+      <c r="L37" s="1">
+        <v>0</v>
+      </c>
+      <c r="M37" s="1">
+        <v>0</v>
+      </c>
+      <c r="N37" s="1">
+        <v>0</v>
+      </c>
+      <c r="O37" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A38" s="1">
+        <v>2</v>
+      </c>
+      <c r="B38" s="1">
+        <v>0</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0</v>
+      </c>
+      <c r="F38" s="1">
+        <v>0</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0</v>
+      </c>
+      <c r="H38" s="1">
+        <v>0</v>
+      </c>
+      <c r="I38" s="1">
+        <v>0</v>
+      </c>
+      <c r="J38" s="1">
+        <v>0</v>
+      </c>
+      <c r="K38" s="1">
+        <v>0</v>
+      </c>
+      <c r="L38" s="1">
+        <v>0</v>
+      </c>
+      <c r="M38" s="1">
+        <v>0</v>
+      </c>
+      <c r="N38" s="1">
+        <v>0</v>
+      </c>
+      <c r="O38" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A39" s="1">
+        <v>2</v>
+      </c>
+      <c r="B39" s="1">
+        <v>0</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0</v>
+      </c>
+      <c r="F39" s="1">
+        <v>0</v>
+      </c>
+      <c r="G39" s="1">
+        <v>0</v>
+      </c>
+      <c r="H39" s="1">
+        <v>0</v>
+      </c>
+      <c r="I39" s="1">
+        <v>0</v>
+      </c>
+      <c r="J39" s="1">
+        <v>0</v>
+      </c>
+      <c r="K39" s="1">
+        <v>0</v>
+      </c>
+      <c r="L39" s="1">
+        <v>0</v>
+      </c>
+      <c r="M39" s="1">
+        <v>0</v>
+      </c>
+      <c r="N39" s="1">
+        <v>0</v>
+      </c>
+      <c r="O39" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A40" s="1">
+        <v>2</v>
+      </c>
+      <c r="B40" s="1">
+        <v>0</v>
+      </c>
+      <c r="C40" s="1">
+        <v>0</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0</v>
+      </c>
+      <c r="F40" s="1">
+        <v>0</v>
+      </c>
+      <c r="G40" s="1">
+        <v>0</v>
+      </c>
+      <c r="H40" s="1">
+        <v>0</v>
+      </c>
+      <c r="I40" s="1">
+        <v>0</v>
+      </c>
+      <c r="J40" s="1">
+        <v>0</v>
+      </c>
+      <c r="K40" s="1">
+        <v>0</v>
+      </c>
+      <c r="L40" s="1">
+        <v>0</v>
+      </c>
+      <c r="M40" s="1">
+        <v>0</v>
+      </c>
+      <c r="N40" s="1">
+        <v>0</v>
+      </c>
+      <c r="O40" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A41" s="1">
+        <v>2</v>
+      </c>
+      <c r="B41" s="1">
+        <v>0</v>
+      </c>
+      <c r="C41" s="1">
+        <v>0</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0</v>
+      </c>
+      <c r="E41" s="1">
+        <v>0</v>
+      </c>
+      <c r="F41" s="1">
+        <v>0</v>
+      </c>
+      <c r="G41" s="1">
+        <v>0</v>
+      </c>
+      <c r="H41" s="1">
+        <v>0</v>
+      </c>
+      <c r="I41" s="1">
+        <v>0</v>
+      </c>
+      <c r="J41" s="1">
+        <v>0</v>
+      </c>
+      <c r="K41" s="1">
+        <v>0</v>
+      </c>
+      <c r="L41" s="1">
+        <v>0</v>
+      </c>
+      <c r="M41" s="1">
+        <v>0</v>
+      </c>
+      <c r="N41" s="1">
+        <v>0</v>
+      </c>
+      <c r="O41" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A42" s="1">
+        <v>2</v>
+      </c>
+      <c r="B42" s="1">
+        <v>0</v>
+      </c>
+      <c r="C42" s="1">
+        <v>0</v>
+      </c>
+      <c r="D42" s="1">
+        <v>0</v>
+      </c>
+      <c r="E42" s="1">
+        <v>0</v>
+      </c>
+      <c r="F42" s="1">
+        <v>0</v>
+      </c>
+      <c r="G42" s="1">
+        <v>0</v>
+      </c>
+      <c r="H42" s="1">
+        <v>0</v>
+      </c>
+      <c r="I42" s="1">
+        <v>0</v>
+      </c>
+      <c r="J42" s="1">
+        <v>0</v>
+      </c>
+      <c r="K42" s="1">
+        <v>0</v>
+      </c>
+      <c r="L42" s="1">
+        <v>0</v>
+      </c>
+      <c r="M42" s="1">
+        <v>0</v>
+      </c>
+      <c r="N42" s="1">
+        <v>0</v>
+      </c>
+      <c r="O42" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>2</v>
+      </c>
+      <c r="B43" s="1">
+        <v>0</v>
+      </c>
+      <c r="C43" s="1">
+        <v>0</v>
+      </c>
+      <c r="D43" s="1">
+        <v>0</v>
+      </c>
+      <c r="E43" s="1">
+        <v>0</v>
+      </c>
+      <c r="F43" s="1">
+        <v>0</v>
+      </c>
+      <c r="G43" s="1">
+        <v>0</v>
+      </c>
+      <c r="H43" s="1">
+        <v>0</v>
+      </c>
+      <c r="I43" s="1">
+        <v>0</v>
+      </c>
+      <c r="J43" s="1">
+        <v>0</v>
+      </c>
+      <c r="K43" s="1">
+        <v>0</v>
+      </c>
+      <c r="L43" s="1">
+        <v>0</v>
+      </c>
+      <c r="M43" s="1">
+        <v>0</v>
+      </c>
+      <c r="N43" s="1">
+        <v>0</v>
+      </c>
+      <c r="O43" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>2</v>
+      </c>
+      <c r="B44" s="1">
+        <v>0</v>
+      </c>
+      <c r="C44" s="1">
+        <v>0</v>
+      </c>
+      <c r="D44" s="1">
+        <v>0</v>
+      </c>
+      <c r="E44" s="1">
+        <v>0</v>
+      </c>
+      <c r="F44" s="1">
+        <v>0</v>
+      </c>
+      <c r="G44" s="1">
+        <v>0</v>
+      </c>
+      <c r="H44" s="1">
+        <v>0</v>
+      </c>
+      <c r="I44" s="1">
+        <v>0</v>
+      </c>
+      <c r="J44" s="1">
+        <v>0</v>
+      </c>
+      <c r="K44" s="1">
+        <v>0</v>
+      </c>
+      <c r="L44" s="1">
+        <v>0</v>
+      </c>
+      <c r="M44" s="1">
+        <v>0</v>
+      </c>
+      <c r="N44" s="1">
+        <v>0</v>
+      </c>
+      <c r="O44" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>2</v>
+      </c>
+      <c r="B45" s="1">
+        <v>0</v>
+      </c>
+      <c r="C45" s="1">
+        <v>0</v>
+      </c>
+      <c r="D45" s="1">
+        <v>0</v>
+      </c>
+      <c r="E45" s="1">
+        <v>0</v>
+      </c>
+      <c r="F45" s="1">
+        <v>0</v>
+      </c>
+      <c r="G45" s="1">
+        <v>0</v>
+      </c>
+      <c r="H45" s="1">
+        <v>0</v>
+      </c>
+      <c r="I45" s="1">
+        <v>0</v>
+      </c>
+      <c r="J45" s="1">
+        <v>0</v>
+      </c>
+      <c r="K45" s="1">
+        <v>0</v>
+      </c>
+      <c r="L45" s="1">
+        <v>0</v>
+      </c>
+      <c r="M45" s="1">
+        <v>0</v>
+      </c>
+      <c r="N45" s="1">
+        <v>0</v>
+      </c>
+      <c r="O45" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>2</v>
+      </c>
+      <c r="B46" s="1">
+        <v>0</v>
+      </c>
+      <c r="C46" s="1">
+        <v>0</v>
+      </c>
+      <c r="D46" s="1">
+        <v>0</v>
+      </c>
+      <c r="E46" s="1">
+        <v>0</v>
+      </c>
+      <c r="F46" s="1">
+        <v>0</v>
+      </c>
+      <c r="G46" s="1">
+        <v>0</v>
+      </c>
+      <c r="H46" s="1">
+        <v>0</v>
+      </c>
+      <c r="I46" s="1">
+        <v>0</v>
+      </c>
+      <c r="J46" s="1">
+        <v>0</v>
+      </c>
+      <c r="K46" s="1">
+        <v>0</v>
+      </c>
+      <c r="L46" s="1">
+        <v>0</v>
+      </c>
+      <c r="M46" s="1">
+        <v>0</v>
+      </c>
+      <c r="N46" s="1">
+        <v>0</v>
+      </c>
+      <c r="O46" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>2</v>
+      </c>
+      <c r="B47" s="1">
+        <v>0</v>
+      </c>
+      <c r="C47" s="1">
+        <v>0</v>
+      </c>
+      <c r="D47" s="1">
+        <v>0</v>
+      </c>
+      <c r="E47" s="1">
+        <v>0</v>
+      </c>
+      <c r="F47" s="1">
+        <v>0</v>
+      </c>
+      <c r="G47" s="1">
+        <v>0</v>
+      </c>
+      <c r="H47" s="1">
+        <v>0</v>
+      </c>
+      <c r="I47" s="1">
+        <v>0</v>
+      </c>
+      <c r="J47" s="1">
+        <v>0</v>
+      </c>
+      <c r="K47" s="1">
+        <v>0</v>
+      </c>
+      <c r="L47" s="1">
+        <v>0</v>
+      </c>
+      <c r="M47" s="1">
+        <v>0</v>
+      </c>
+      <c r="N47" s="1">
+        <v>0</v>
+      </c>
+      <c r="O47" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>2</v>
+      </c>
+      <c r="B48" s="1">
+        <v>0</v>
+      </c>
+      <c r="C48" s="1">
+        <v>0</v>
+      </c>
+      <c r="D48" s="1">
+        <v>0</v>
+      </c>
+      <c r="E48" s="1">
+        <v>0</v>
+      </c>
+      <c r="F48" s="1">
+        <v>0</v>
+      </c>
+      <c r="G48" s="1">
+        <v>0</v>
+      </c>
+      <c r="H48" s="1">
+        <v>0</v>
+      </c>
+      <c r="I48" s="1">
+        <v>0</v>
+      </c>
+      <c r="J48" s="1">
+        <v>0</v>
+      </c>
+      <c r="K48" s="1">
+        <v>0</v>
+      </c>
+      <c r="L48" s="1">
+        <v>0</v>
+      </c>
+      <c r="M48" s="1">
+        <v>0</v>
+      </c>
+      <c r="N48" s="1">
+        <v>0</v>
+      </c>
+      <c r="O48" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>2</v>
+      </c>
+      <c r="B49" s="1">
+        <v>0</v>
+      </c>
+      <c r="C49" s="1">
+        <v>0</v>
+      </c>
+      <c r="D49" s="1">
+        <v>0</v>
+      </c>
+      <c r="E49" s="1">
+        <v>0</v>
+      </c>
+      <c r="F49" s="1">
+        <v>0</v>
+      </c>
+      <c r="G49" s="1">
+        <v>0</v>
+      </c>
+      <c r="H49" s="1">
+        <v>0</v>
+      </c>
+      <c r="I49" s="1">
+        <v>0</v>
+      </c>
+      <c r="J49" s="1">
+        <v>0</v>
+      </c>
+      <c r="K49" s="1">
+        <v>0</v>
+      </c>
+      <c r="L49" s="1">
+        <v>0</v>
+      </c>
+      <c r="M49" s="1">
+        <v>0</v>
+      </c>
+      <c r="N49" s="1">
+        <v>0</v>
+      </c>
+      <c r="O49" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>2</v>
+      </c>
+      <c r="B50" s="1">
+        <v>2</v>
+      </c>
+      <c r="C50" s="1">
+        <v>2</v>
+      </c>
+      <c r="D50" s="1">
+        <v>2</v>
+      </c>
+      <c r="E50" s="1">
+        <v>2</v>
+      </c>
+      <c r="F50" s="1">
+        <v>2</v>
+      </c>
+      <c r="G50" s="1">
+        <v>2</v>
+      </c>
+      <c r="H50" s="1">
+        <v>2</v>
+      </c>
+      <c r="I50" s="1">
+        <v>2</v>
+      </c>
+      <c r="J50" s="1">
+        <v>2</v>
+      </c>
+      <c r="K50" s="1">
+        <v>2</v>
+      </c>
+      <c r="L50" s="1">
+        <v>2</v>
+      </c>
+      <c r="M50" s="1">
+        <v>2</v>
+      </c>
+      <c r="N50" s="1">
+        <v>2</v>
+      </c>
+      <c r="O50" s="1">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18"/>
-  <conditionalFormatting sqref="A2:L22">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+  <conditionalFormatting sqref="A2:O50">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
       <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB6">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:O1048576 A1">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/media/Maps/xlsx/TestMap.xlsx
+++ b/media/Maps/xlsx/TestMap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roram\OneDrive - 学校法人新潟総合学院 学校法人国際総合学園 学校法人大彦学園\ドキュメント\wiz 授業ファイル\2024年度2年授業\後期\製作\media\Maps\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B3C0B62-3EB3-4C3E-AAE0-7CCC064FC72F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7857543A-EBE4-40B3-8956-F3274853CEC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{A4E20948-4AF6-4F97-89F2-9813C3B26678}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t xml:space="preserve"> </t>
+    <t>null</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -683,7 +683,35 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="良い" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="5">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1021,63 +1049,87 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F214FFB-5FC5-4EEB-876D-9E283DF04469}">
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:O50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W12" sqref="W12"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="R36" sqref="R36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="11" width="3.69921875" customWidth="1"/>
+    <col min="1" max="11" width="3.69921875" style="1" customWidth="1"/>
+    <col min="12" max="15" width="3.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B1"/>
+      <c r="C1"/>
+      <c r="D1"/>
+      <c r="E1"/>
+      <c r="F1"/>
+      <c r="G1"/>
+      <c r="H1"/>
+      <c r="I1"/>
+      <c r="J1"/>
+      <c r="K1"/>
+      <c r="L1"/>
+      <c r="M1"/>
+      <c r="N1"/>
+      <c r="O1"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D2" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E2" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F2" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G2" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H2" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J2" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K2" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+      <c r="M2" s="1">
+        <v>2</v>
+      </c>
+      <c r="N2" s="1">
+        <v>2</v>
+      </c>
+      <c r="O2" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1">
         <v>0</v>
@@ -1112,10 +1164,19 @@
       <c r="L3" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M3" s="1">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>0</v>
@@ -1150,10 +1211,19 @@
       <c r="L4" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M4" s="1">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B5" s="1">
         <v>0</v>
@@ -1188,10 +1258,19 @@
       <c r="L5" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B6" s="1">
         <v>0</v>
@@ -1226,10 +1305,19 @@
       <c r="L6" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M6" s="1">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B7" s="1">
         <v>0</v>
@@ -1264,10 +1352,19 @@
       <c r="L7" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M7" s="1">
+        <v>0</v>
+      </c>
+      <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B8" s="1">
         <v>0</v>
@@ -1302,10 +1399,19 @@
       <c r="L8" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M8" s="1">
+        <v>0</v>
+      </c>
+      <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B9" s="1">
         <v>0</v>
@@ -1340,10 +1446,19 @@
       <c r="L9" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M9" s="1">
+        <v>0</v>
+      </c>
+      <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B10" s="1">
         <v>0</v>
@@ -1378,10 +1493,19 @@
       <c r="L10" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M10" s="1">
+        <v>0</v>
+      </c>
+      <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B11" s="1">
         <v>0</v>
@@ -1416,10 +1540,19 @@
       <c r="L11" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M11" s="1">
+        <v>0</v>
+      </c>
+      <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B12" s="1">
         <v>0</v>
@@ -1454,10 +1587,19 @@
       <c r="L12" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M12" s="1">
+        <v>0</v>
+      </c>
+      <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B13" s="1">
         <v>0</v>
@@ -1492,10 +1634,19 @@
       <c r="L13" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M13" s="1">
+        <v>0</v>
+      </c>
+      <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B14" s="1">
         <v>0</v>
@@ -1530,10 +1681,19 @@
       <c r="L14" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M14" s="1">
+        <v>0</v>
+      </c>
+      <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B15" s="1">
         <v>0</v>
@@ -1568,10 +1728,19 @@
       <c r="L15" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M15" s="1">
+        <v>0</v>
+      </c>
+      <c r="N15" s="1">
+        <v>0</v>
+      </c>
+      <c r="O15" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B16" s="1">
         <v>0</v>
@@ -1606,10 +1775,19 @@
       <c r="L16" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M16" s="1">
+        <v>0</v>
+      </c>
+      <c r="N16" s="1">
+        <v>0</v>
+      </c>
+      <c r="O16" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B17" s="1">
         <v>0</v>
@@ -1644,10 +1822,19 @@
       <c r="L17" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M17" s="1">
+        <v>0</v>
+      </c>
+      <c r="N17" s="1">
+        <v>0</v>
+      </c>
+      <c r="O17" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B18" s="1">
         <v>0</v>
@@ -1682,10 +1869,19 @@
       <c r="L18" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M18" s="1">
+        <v>0</v>
+      </c>
+      <c r="N18" s="1">
+        <v>0</v>
+      </c>
+      <c r="O18" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B19" s="1">
         <v>0</v>
@@ -1720,10 +1916,19 @@
       <c r="L19" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M19" s="1">
+        <v>0</v>
+      </c>
+      <c r="N19" s="1">
+        <v>0</v>
+      </c>
+      <c r="O19" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B20" s="1">
         <v>0</v>
@@ -1758,10 +1963,19 @@
       <c r="L20" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M20" s="1">
+        <v>0</v>
+      </c>
+      <c r="N20" s="1">
+        <v>0</v>
+      </c>
+      <c r="O20" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B21" s="1">
         <v>0</v>
@@ -1796,10 +2010,19 @@
       <c r="L21" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M21" s="1">
+        <v>0</v>
+      </c>
+      <c r="N21" s="1">
+        <v>0</v>
+      </c>
+      <c r="O21" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B22" s="1">
         <v>0</v>
@@ -1833,13 +2056,1351 @@
       </c>
       <c r="L22" s="1">
         <v>0</v>
+      </c>
+      <c r="M22" s="1">
+        <v>0</v>
+      </c>
+      <c r="N22" s="1">
+        <v>0</v>
+      </c>
+      <c r="O22" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A23" s="1">
+        <v>2</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0</v>
+      </c>
+      <c r="J23" s="1">
+        <v>0</v>
+      </c>
+      <c r="K23" s="1">
+        <v>0</v>
+      </c>
+      <c r="L23" s="1">
+        <v>0</v>
+      </c>
+      <c r="M23" s="1">
+        <v>0</v>
+      </c>
+      <c r="N23" s="1">
+        <v>0</v>
+      </c>
+      <c r="O23" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A24" s="1">
+        <v>2</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0</v>
+      </c>
+      <c r="J24" s="1">
+        <v>0</v>
+      </c>
+      <c r="K24" s="1">
+        <v>0</v>
+      </c>
+      <c r="L24" s="1">
+        <v>0</v>
+      </c>
+      <c r="M24" s="1">
+        <v>0</v>
+      </c>
+      <c r="N24" s="1">
+        <v>0</v>
+      </c>
+      <c r="O24" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A25" s="1">
+        <v>2</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0</v>
+      </c>
+      <c r="K25" s="1">
+        <v>0</v>
+      </c>
+      <c r="L25" s="1">
+        <v>0</v>
+      </c>
+      <c r="M25" s="1">
+        <v>0</v>
+      </c>
+      <c r="N25" s="1">
+        <v>0</v>
+      </c>
+      <c r="O25" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A26" s="1">
+        <v>2</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0</v>
+      </c>
+      <c r="J26" s="1">
+        <v>0</v>
+      </c>
+      <c r="K26" s="1">
+        <v>0</v>
+      </c>
+      <c r="L26" s="1">
+        <v>0</v>
+      </c>
+      <c r="M26" s="1">
+        <v>0</v>
+      </c>
+      <c r="N26" s="1">
+        <v>0</v>
+      </c>
+      <c r="O26" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A27" s="1">
+        <v>2</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0</v>
+      </c>
+      <c r="I27" s="1">
+        <v>0</v>
+      </c>
+      <c r="J27" s="1">
+        <v>0</v>
+      </c>
+      <c r="K27" s="1">
+        <v>0</v>
+      </c>
+      <c r="L27" s="1">
+        <v>0</v>
+      </c>
+      <c r="M27" s="1">
+        <v>0</v>
+      </c>
+      <c r="N27" s="1">
+        <v>0</v>
+      </c>
+      <c r="O27" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A28" s="1">
+        <v>2</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0</v>
+      </c>
+      <c r="I28" s="1">
+        <v>0</v>
+      </c>
+      <c r="J28" s="1">
+        <v>0</v>
+      </c>
+      <c r="K28" s="1">
+        <v>0</v>
+      </c>
+      <c r="L28" s="1">
+        <v>0</v>
+      </c>
+      <c r="M28" s="1">
+        <v>0</v>
+      </c>
+      <c r="N28" s="1">
+        <v>0</v>
+      </c>
+      <c r="O28" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A29" s="1">
+        <v>2</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0</v>
+      </c>
+      <c r="I29" s="1">
+        <v>0</v>
+      </c>
+      <c r="J29" s="1">
+        <v>0</v>
+      </c>
+      <c r="K29" s="1">
+        <v>0</v>
+      </c>
+      <c r="L29" s="1">
+        <v>0</v>
+      </c>
+      <c r="M29" s="1">
+        <v>0</v>
+      </c>
+      <c r="N29" s="1">
+        <v>0</v>
+      </c>
+      <c r="O29" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A30" s="1">
+        <v>2</v>
+      </c>
+      <c r="B30" s="1">
+        <v>0</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0</v>
+      </c>
+      <c r="I30" s="1">
+        <v>0</v>
+      </c>
+      <c r="J30" s="1">
+        <v>0</v>
+      </c>
+      <c r="K30" s="1">
+        <v>0</v>
+      </c>
+      <c r="L30" s="1">
+        <v>0</v>
+      </c>
+      <c r="M30" s="1">
+        <v>0</v>
+      </c>
+      <c r="N30" s="1">
+        <v>0</v>
+      </c>
+      <c r="O30" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A31" s="1">
+        <v>2</v>
+      </c>
+      <c r="B31" s="1">
+        <v>0</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0</v>
+      </c>
+      <c r="H31" s="1">
+        <v>0</v>
+      </c>
+      <c r="I31" s="1">
+        <v>0</v>
+      </c>
+      <c r="J31" s="1">
+        <v>0</v>
+      </c>
+      <c r="K31" s="1">
+        <v>0</v>
+      </c>
+      <c r="L31" s="1">
+        <v>0</v>
+      </c>
+      <c r="M31" s="1">
+        <v>0</v>
+      </c>
+      <c r="N31" s="1">
+        <v>0</v>
+      </c>
+      <c r="O31" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A32" s="1">
+        <v>2</v>
+      </c>
+      <c r="B32" s="1">
+        <v>0</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0</v>
+      </c>
+      <c r="H32" s="1">
+        <v>0</v>
+      </c>
+      <c r="I32" s="1">
+        <v>0</v>
+      </c>
+      <c r="J32" s="1">
+        <v>0</v>
+      </c>
+      <c r="K32" s="1">
+        <v>0</v>
+      </c>
+      <c r="L32" s="1">
+        <v>0</v>
+      </c>
+      <c r="M32" s="1">
+        <v>0</v>
+      </c>
+      <c r="N32" s="1">
+        <v>0</v>
+      </c>
+      <c r="O32" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A33" s="1">
+        <v>2</v>
+      </c>
+      <c r="B33" s="1">
+        <v>0</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0</v>
+      </c>
+      <c r="I33" s="1">
+        <v>0</v>
+      </c>
+      <c r="J33" s="1">
+        <v>0</v>
+      </c>
+      <c r="K33" s="1">
+        <v>0</v>
+      </c>
+      <c r="L33" s="1">
+        <v>0</v>
+      </c>
+      <c r="M33" s="1">
+        <v>0</v>
+      </c>
+      <c r="N33" s="1">
+        <v>0</v>
+      </c>
+      <c r="O33" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A34" s="1">
+        <v>2</v>
+      </c>
+      <c r="B34" s="1">
+        <v>0</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0</v>
+      </c>
+      <c r="H34" s="1">
+        <v>0</v>
+      </c>
+      <c r="I34" s="1">
+        <v>0</v>
+      </c>
+      <c r="J34" s="1">
+        <v>0</v>
+      </c>
+      <c r="K34" s="1">
+        <v>0</v>
+      </c>
+      <c r="L34" s="1">
+        <v>0</v>
+      </c>
+      <c r="M34" s="1">
+        <v>0</v>
+      </c>
+      <c r="N34" s="1">
+        <v>0</v>
+      </c>
+      <c r="O34" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A35" s="1">
+        <v>2</v>
+      </c>
+      <c r="B35" s="1">
+        <v>0</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0</v>
+      </c>
+      <c r="H35" s="1">
+        <v>0</v>
+      </c>
+      <c r="I35" s="1">
+        <v>0</v>
+      </c>
+      <c r="J35" s="1">
+        <v>0</v>
+      </c>
+      <c r="K35" s="1">
+        <v>0</v>
+      </c>
+      <c r="L35" s="1">
+        <v>0</v>
+      </c>
+      <c r="M35" s="1">
+        <v>0</v>
+      </c>
+      <c r="N35" s="1">
+        <v>0</v>
+      </c>
+      <c r="O35" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A36" s="1">
+        <v>2</v>
+      </c>
+      <c r="B36" s="1">
+        <v>0</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0</v>
+      </c>
+      <c r="H36" s="1">
+        <v>0</v>
+      </c>
+      <c r="I36" s="1">
+        <v>0</v>
+      </c>
+      <c r="J36" s="1">
+        <v>0</v>
+      </c>
+      <c r="K36" s="1">
+        <v>0</v>
+      </c>
+      <c r="L36" s="1">
+        <v>0</v>
+      </c>
+      <c r="M36" s="1">
+        <v>0</v>
+      </c>
+      <c r="N36" s="1">
+        <v>0</v>
+      </c>
+      <c r="O36" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A37" s="1">
+        <v>2</v>
+      </c>
+      <c r="B37" s="1">
+        <v>0</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0</v>
+      </c>
+      <c r="F37" s="1">
+        <v>0</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0</v>
+      </c>
+      <c r="H37" s="1">
+        <v>0</v>
+      </c>
+      <c r="I37" s="1">
+        <v>0</v>
+      </c>
+      <c r="J37" s="1">
+        <v>0</v>
+      </c>
+      <c r="K37" s="1">
+        <v>0</v>
+      </c>
+      <c r="L37" s="1">
+        <v>0</v>
+      </c>
+      <c r="M37" s="1">
+        <v>0</v>
+      </c>
+      <c r="N37" s="1">
+        <v>0</v>
+      </c>
+      <c r="O37" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A38" s="1">
+        <v>2</v>
+      </c>
+      <c r="B38" s="1">
+        <v>0</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0</v>
+      </c>
+      <c r="F38" s="1">
+        <v>0</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0</v>
+      </c>
+      <c r="H38" s="1">
+        <v>0</v>
+      </c>
+      <c r="I38" s="1">
+        <v>0</v>
+      </c>
+      <c r="J38" s="1">
+        <v>0</v>
+      </c>
+      <c r="K38" s="1">
+        <v>0</v>
+      </c>
+      <c r="L38" s="1">
+        <v>0</v>
+      </c>
+      <c r="M38" s="1">
+        <v>0</v>
+      </c>
+      <c r="N38" s="1">
+        <v>0</v>
+      </c>
+      <c r="O38" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A39" s="1">
+        <v>2</v>
+      </c>
+      <c r="B39" s="1">
+        <v>0</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0</v>
+      </c>
+      <c r="F39" s="1">
+        <v>0</v>
+      </c>
+      <c r="G39" s="1">
+        <v>0</v>
+      </c>
+      <c r="H39" s="1">
+        <v>0</v>
+      </c>
+      <c r="I39" s="1">
+        <v>0</v>
+      </c>
+      <c r="J39" s="1">
+        <v>0</v>
+      </c>
+      <c r="K39" s="1">
+        <v>0</v>
+      </c>
+      <c r="L39" s="1">
+        <v>0</v>
+      </c>
+      <c r="M39" s="1">
+        <v>0</v>
+      </c>
+      <c r="N39" s="1">
+        <v>0</v>
+      </c>
+      <c r="O39" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A40" s="1">
+        <v>2</v>
+      </c>
+      <c r="B40" s="1">
+        <v>0</v>
+      </c>
+      <c r="C40" s="1">
+        <v>0</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0</v>
+      </c>
+      <c r="F40" s="1">
+        <v>0</v>
+      </c>
+      <c r="G40" s="1">
+        <v>0</v>
+      </c>
+      <c r="H40" s="1">
+        <v>0</v>
+      </c>
+      <c r="I40" s="1">
+        <v>0</v>
+      </c>
+      <c r="J40" s="1">
+        <v>0</v>
+      </c>
+      <c r="K40" s="1">
+        <v>0</v>
+      </c>
+      <c r="L40" s="1">
+        <v>0</v>
+      </c>
+      <c r="M40" s="1">
+        <v>0</v>
+      </c>
+      <c r="N40" s="1">
+        <v>0</v>
+      </c>
+      <c r="O40" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A41" s="1">
+        <v>2</v>
+      </c>
+      <c r="B41" s="1">
+        <v>0</v>
+      </c>
+      <c r="C41" s="1">
+        <v>0</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0</v>
+      </c>
+      <c r="E41" s="1">
+        <v>0</v>
+      </c>
+      <c r="F41" s="1">
+        <v>0</v>
+      </c>
+      <c r="G41" s="1">
+        <v>0</v>
+      </c>
+      <c r="H41" s="1">
+        <v>0</v>
+      </c>
+      <c r="I41" s="1">
+        <v>0</v>
+      </c>
+      <c r="J41" s="1">
+        <v>0</v>
+      </c>
+      <c r="K41" s="1">
+        <v>0</v>
+      </c>
+      <c r="L41" s="1">
+        <v>0</v>
+      </c>
+      <c r="M41" s="1">
+        <v>0</v>
+      </c>
+      <c r="N41" s="1">
+        <v>0</v>
+      </c>
+      <c r="O41" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A42" s="1">
+        <v>2</v>
+      </c>
+      <c r="B42" s="1">
+        <v>0</v>
+      </c>
+      <c r="C42" s="1">
+        <v>0</v>
+      </c>
+      <c r="D42" s="1">
+        <v>0</v>
+      </c>
+      <c r="E42" s="1">
+        <v>0</v>
+      </c>
+      <c r="F42" s="1">
+        <v>0</v>
+      </c>
+      <c r="G42" s="1">
+        <v>0</v>
+      </c>
+      <c r="H42" s="1">
+        <v>0</v>
+      </c>
+      <c r="I42" s="1">
+        <v>0</v>
+      </c>
+      <c r="J42" s="1">
+        <v>0</v>
+      </c>
+      <c r="K42" s="1">
+        <v>0</v>
+      </c>
+      <c r="L42" s="1">
+        <v>0</v>
+      </c>
+      <c r="M42" s="1">
+        <v>0</v>
+      </c>
+      <c r="N42" s="1">
+        <v>0</v>
+      </c>
+      <c r="O42" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>2</v>
+      </c>
+      <c r="B43" s="1">
+        <v>0</v>
+      </c>
+      <c r="C43" s="1">
+        <v>0</v>
+      </c>
+      <c r="D43" s="1">
+        <v>0</v>
+      </c>
+      <c r="E43" s="1">
+        <v>0</v>
+      </c>
+      <c r="F43" s="1">
+        <v>0</v>
+      </c>
+      <c r="G43" s="1">
+        <v>0</v>
+      </c>
+      <c r="H43" s="1">
+        <v>0</v>
+      </c>
+      <c r="I43" s="1">
+        <v>0</v>
+      </c>
+      <c r="J43" s="1">
+        <v>0</v>
+      </c>
+      <c r="K43" s="1">
+        <v>0</v>
+      </c>
+      <c r="L43" s="1">
+        <v>0</v>
+      </c>
+      <c r="M43" s="1">
+        <v>0</v>
+      </c>
+      <c r="N43" s="1">
+        <v>0</v>
+      </c>
+      <c r="O43" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>2</v>
+      </c>
+      <c r="B44" s="1">
+        <v>0</v>
+      </c>
+      <c r="C44" s="1">
+        <v>0</v>
+      </c>
+      <c r="D44" s="1">
+        <v>0</v>
+      </c>
+      <c r="E44" s="1">
+        <v>0</v>
+      </c>
+      <c r="F44" s="1">
+        <v>0</v>
+      </c>
+      <c r="G44" s="1">
+        <v>0</v>
+      </c>
+      <c r="H44" s="1">
+        <v>0</v>
+      </c>
+      <c r="I44" s="1">
+        <v>0</v>
+      </c>
+      <c r="J44" s="1">
+        <v>0</v>
+      </c>
+      <c r="K44" s="1">
+        <v>0</v>
+      </c>
+      <c r="L44" s="1">
+        <v>0</v>
+      </c>
+      <c r="M44" s="1">
+        <v>0</v>
+      </c>
+      <c r="N44" s="1">
+        <v>0</v>
+      </c>
+      <c r="O44" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>2</v>
+      </c>
+      <c r="B45" s="1">
+        <v>0</v>
+      </c>
+      <c r="C45" s="1">
+        <v>0</v>
+      </c>
+      <c r="D45" s="1">
+        <v>0</v>
+      </c>
+      <c r="E45" s="1">
+        <v>0</v>
+      </c>
+      <c r="F45" s="1">
+        <v>0</v>
+      </c>
+      <c r="G45" s="1">
+        <v>0</v>
+      </c>
+      <c r="H45" s="1">
+        <v>0</v>
+      </c>
+      <c r="I45" s="1">
+        <v>0</v>
+      </c>
+      <c r="J45" s="1">
+        <v>0</v>
+      </c>
+      <c r="K45" s="1">
+        <v>0</v>
+      </c>
+      <c r="L45" s="1">
+        <v>0</v>
+      </c>
+      <c r="M45" s="1">
+        <v>0</v>
+      </c>
+      <c r="N45" s="1">
+        <v>0</v>
+      </c>
+      <c r="O45" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>2</v>
+      </c>
+      <c r="B46" s="1">
+        <v>0</v>
+      </c>
+      <c r="C46" s="1">
+        <v>0</v>
+      </c>
+      <c r="D46" s="1">
+        <v>0</v>
+      </c>
+      <c r="E46" s="1">
+        <v>0</v>
+      </c>
+      <c r="F46" s="1">
+        <v>0</v>
+      </c>
+      <c r="G46" s="1">
+        <v>0</v>
+      </c>
+      <c r="H46" s="1">
+        <v>0</v>
+      </c>
+      <c r="I46" s="1">
+        <v>0</v>
+      </c>
+      <c r="J46" s="1">
+        <v>0</v>
+      </c>
+      <c r="K46" s="1">
+        <v>0</v>
+      </c>
+      <c r="L46" s="1">
+        <v>0</v>
+      </c>
+      <c r="M46" s="1">
+        <v>0</v>
+      </c>
+      <c r="N46" s="1">
+        <v>0</v>
+      </c>
+      <c r="O46" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>2</v>
+      </c>
+      <c r="B47" s="1">
+        <v>0</v>
+      </c>
+      <c r="C47" s="1">
+        <v>0</v>
+      </c>
+      <c r="D47" s="1">
+        <v>0</v>
+      </c>
+      <c r="E47" s="1">
+        <v>0</v>
+      </c>
+      <c r="F47" s="1">
+        <v>0</v>
+      </c>
+      <c r="G47" s="1">
+        <v>0</v>
+      </c>
+      <c r="H47" s="1">
+        <v>0</v>
+      </c>
+      <c r="I47" s="1">
+        <v>0</v>
+      </c>
+      <c r="J47" s="1">
+        <v>0</v>
+      </c>
+      <c r="K47" s="1">
+        <v>0</v>
+      </c>
+      <c r="L47" s="1">
+        <v>0</v>
+      </c>
+      <c r="M47" s="1">
+        <v>0</v>
+      </c>
+      <c r="N47" s="1">
+        <v>0</v>
+      </c>
+      <c r="O47" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>2</v>
+      </c>
+      <c r="B48" s="1">
+        <v>0</v>
+      </c>
+      <c r="C48" s="1">
+        <v>0</v>
+      </c>
+      <c r="D48" s="1">
+        <v>0</v>
+      </c>
+      <c r="E48" s="1">
+        <v>0</v>
+      </c>
+      <c r="F48" s="1">
+        <v>0</v>
+      </c>
+      <c r="G48" s="1">
+        <v>0</v>
+      </c>
+      <c r="H48" s="1">
+        <v>0</v>
+      </c>
+      <c r="I48" s="1">
+        <v>0</v>
+      </c>
+      <c r="J48" s="1">
+        <v>0</v>
+      </c>
+      <c r="K48" s="1">
+        <v>0</v>
+      </c>
+      <c r="L48" s="1">
+        <v>0</v>
+      </c>
+      <c r="M48" s="1">
+        <v>0</v>
+      </c>
+      <c r="N48" s="1">
+        <v>0</v>
+      </c>
+      <c r="O48" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>2</v>
+      </c>
+      <c r="B49" s="1">
+        <v>0</v>
+      </c>
+      <c r="C49" s="1">
+        <v>0</v>
+      </c>
+      <c r="D49" s="1">
+        <v>0</v>
+      </c>
+      <c r="E49" s="1">
+        <v>0</v>
+      </c>
+      <c r="F49" s="1">
+        <v>0</v>
+      </c>
+      <c r="G49" s="1">
+        <v>0</v>
+      </c>
+      <c r="H49" s="1">
+        <v>0</v>
+      </c>
+      <c r="I49" s="1">
+        <v>0</v>
+      </c>
+      <c r="J49" s="1">
+        <v>0</v>
+      </c>
+      <c r="K49" s="1">
+        <v>0</v>
+      </c>
+      <c r="L49" s="1">
+        <v>0</v>
+      </c>
+      <c r="M49" s="1">
+        <v>0</v>
+      </c>
+      <c r="N49" s="1">
+        <v>0</v>
+      </c>
+      <c r="O49" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>2</v>
+      </c>
+      <c r="B50" s="1">
+        <v>2</v>
+      </c>
+      <c r="C50" s="1">
+        <v>2</v>
+      </c>
+      <c r="D50" s="1">
+        <v>2</v>
+      </c>
+      <c r="E50" s="1">
+        <v>2</v>
+      </c>
+      <c r="F50" s="1">
+        <v>2</v>
+      </c>
+      <c r="G50" s="1">
+        <v>2</v>
+      </c>
+      <c r="H50" s="1">
+        <v>2</v>
+      </c>
+      <c r="I50" s="1">
+        <v>2</v>
+      </c>
+      <c r="J50" s="1">
+        <v>2</v>
+      </c>
+      <c r="K50" s="1">
+        <v>2</v>
+      </c>
+      <c r="L50" s="1">
+        <v>2</v>
+      </c>
+      <c r="M50" s="1">
+        <v>2</v>
+      </c>
+      <c r="N50" s="1">
+        <v>2</v>
+      </c>
+      <c r="O50" s="1">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18"/>
-  <conditionalFormatting sqref="A2:L22">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+  <conditionalFormatting sqref="A2:O50">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
       <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB6">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:O1048576 A1">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/media/Maps/xlsx/TestMap.xlsx
+++ b/media/Maps/xlsx/TestMap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roram\OneDrive - 学校法人新潟総合学院 学校法人国際総合学園 学校法人大彦学園\ドキュメント\wiz 授業ファイル\2024年度2年授業\後期\製作\media\Maps\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8520EE11-43C4-46DF-9707-8DC60D031F2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C110250-1A58-42DA-BF78-C864B303DAA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{A4E20948-4AF6-4F97-89F2-9813C3B26678}"/>
   </bookViews>
@@ -1051,8 +1051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F214FFB-5FC5-4EEB-876D-9E283DF04469}">
   <dimension ref="A1:O50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="W32" sqref="W32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>

--- a/media/Maps/xlsx/TestMap.xlsx
+++ b/media/Maps/xlsx/TestMap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roram\OneDrive - 学校法人新潟総合学院 学校法人国際総合学園 学校法人大彦学園\ドキュメント\wiz 授業ファイル\2024年度2年授業\後期\製作\media\Maps\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C110250-1A58-42DA-BF78-C864B303DAA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE85DCD7-1146-443F-995F-9022F4FD9EE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{A4E20948-4AF6-4F97-89F2-9813C3B26678}"/>
   </bookViews>
@@ -1051,8 +1051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F214FFB-5FC5-4EEB-876D-9E283DF04469}">
   <dimension ref="A1:O50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="W32" sqref="W32"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1617,13 +1617,13 @@
         <v>0</v>
       </c>
       <c r="G13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
         <v>0</v>
@@ -1908,10 +1908,10 @@
         <v>0</v>
       </c>
       <c r="J19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19" s="1">
         <v>0</v>
@@ -2181,13 +2181,13 @@
         <v>0</v>
       </c>
       <c r="G25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" s="1">
         <v>0</v>
@@ -2428,13 +2428,13 @@
         <v>0</v>
       </c>
       <c r="K30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N30" s="1">
         <v>0</v>
@@ -2560,7 +2560,7 @@
         <v>0</v>
       </c>
       <c r="H33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" s="1">
         <v>0</v>
@@ -2607,7 +2607,7 @@
         <v>0</v>
       </c>
       <c r="H34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" s="1">
         <v>0</v>
@@ -2654,7 +2654,7 @@
         <v>0</v>
       </c>
       <c r="H35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" s="1">
         <v>0</v>
@@ -2701,7 +2701,7 @@
         <v>0</v>
       </c>
       <c r="H36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" s="1">
         <v>0</v>
@@ -2804,13 +2804,13 @@
         <v>0</v>
       </c>
       <c r="K38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N38" s="1">
         <v>0</v>
@@ -2983,13 +2983,13 @@
         <v>0</v>
       </c>
       <c r="H42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K42" s="1">
         <v>0</v>
@@ -3159,13 +3159,13 @@
         <v>0</v>
       </c>
       <c r="D46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G46" s="1">
         <v>0</v>

--- a/media/Maps/xlsx/TestMap.xlsx
+++ b/media/Maps/xlsx/TestMap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roram\OneDrive - 学校法人新潟総合学院 学校法人国際総合学園 学校法人大彦学園\ドキュメント\wiz 授業ファイル\2024年度2年授業\後期\製作\media\Maps\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE85DCD7-1146-443F-995F-9022F4FD9EE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FDA465A-3FD5-4BEC-8630-6F7CE614B544}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{A4E20948-4AF6-4F97-89F2-9813C3B26678}"/>
   </bookViews>
@@ -683,7 +683,7 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="良い" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="4">
     <dxf>
       <fill>
         <patternFill>
@@ -694,7 +694,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -708,14 +708,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1051,8 +1044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F214FFB-5FC5-4EEB-876D-9E283DF04469}">
   <dimension ref="A1:O50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1285,31 +1278,31 @@
         <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M6" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N6" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O6" s="1">
         <v>2</v>
@@ -1338,7 +1331,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
@@ -1385,7 +1378,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
@@ -1414,10 +1407,10 @@
         <v>2</v>
       </c>
       <c r="B9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
@@ -1432,10 +1425,10 @@
         <v>0</v>
       </c>
       <c r="H9" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" s="1">
         <v>0</v>
@@ -1467,10 +1460,10 @@
         <v>0</v>
       </c>
       <c r="D10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -1479,7 +1472,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
@@ -1526,7 +1519,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
@@ -1573,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
@@ -1620,13 +1613,13 @@
         <v>0</v>
       </c>
       <c r="H13" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" s="1">
         <v>0</v>
@@ -1655,10 +1648,10 @@
         <v>0</v>
       </c>
       <c r="D14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -1667,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
@@ -1714,7 +1707,7 @@
         <v>0</v>
       </c>
       <c r="H15" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" s="1">
         <v>0</v>
@@ -1746,13 +1739,13 @@
         <v>0</v>
       </c>
       <c r="C16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -1761,7 +1754,7 @@
         <v>0</v>
       </c>
       <c r="H16" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" s="1">
         <v>0</v>
@@ -1808,7 +1801,7 @@
         <v>0</v>
       </c>
       <c r="H17" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" s="1">
         <v>0</v>
@@ -1837,7 +1830,7 @@
         <v>2</v>
       </c>
       <c r="B18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" s="1">
         <v>0</v>
@@ -1855,7 +1848,7 @@
         <v>0</v>
       </c>
       <c r="H18" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" s="1">
         <v>0</v>
@@ -1887,7 +1880,7 @@
         <v>0</v>
       </c>
       <c r="C19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" s="1">
         <v>0</v>
@@ -1902,19 +1895,19 @@
         <v>0</v>
       </c>
       <c r="H19" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" s="1">
         <v>0</v>
       </c>
       <c r="J19" s="1">
+        <v>0</v>
+      </c>
+      <c r="K19" s="1">
+        <v>0</v>
+      </c>
+      <c r="L19" s="1">
         <v>1</v>
-      </c>
-      <c r="K19" s="1">
-        <v>1</v>
-      </c>
-      <c r="L19" s="1">
-        <v>0</v>
       </c>
       <c r="M19" s="1">
         <v>0</v>
@@ -1937,10 +1930,10 @@
         <v>0</v>
       </c>
       <c r="D20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>
@@ -1949,7 +1942,7 @@
         <v>0</v>
       </c>
       <c r="H20" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" s="1">
         <v>0</v>
@@ -1996,7 +1989,7 @@
         <v>0</v>
       </c>
       <c r="H21" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" s="1">
         <v>0</v>
@@ -2181,13 +2174,13 @@
         <v>0</v>
       </c>
       <c r="G25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" s="1">
         <v>0</v>
@@ -2225,19 +2218,19 @@
         <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26" s="1">
         <v>0</v>
@@ -2495,22 +2488,22 @@
         <v>2</v>
       </c>
       <c r="B32" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C32" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D32" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E32" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F32" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G32" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H32" s="1">
         <v>0</v>
@@ -2542,25 +2535,25 @@
         <v>2</v>
       </c>
       <c r="B33" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C33" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D33" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E33" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F33" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G33" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" s="1">
         <v>0</v>
@@ -2589,25 +2582,25 @@
         <v>2</v>
       </c>
       <c r="B34" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C34" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D34" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E34" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F34" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G34" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" s="1">
         <v>0</v>
@@ -2636,25 +2629,25 @@
         <v>2</v>
       </c>
       <c r="B35" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C35" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D35" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E35" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F35" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G35" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" s="1">
         <v>0</v>
@@ -2683,25 +2676,25 @@
         <v>2</v>
       </c>
       <c r="B36" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C36" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D36" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E36" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F36" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G36" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" s="1">
         <v>0</v>
@@ -2730,28 +2723,28 @@
         <v>2</v>
       </c>
       <c r="B37" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C37" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D37" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E37" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F37" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G37" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" s="1">
         <v>0</v>
@@ -2777,22 +2770,22 @@
         <v>2</v>
       </c>
       <c r="B38" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C38" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D38" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E38" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F38" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G38" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H38" s="1">
         <v>0</v>
@@ -2804,13 +2797,13 @@
         <v>0</v>
       </c>
       <c r="K38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N38" s="1">
         <v>0</v>
@@ -2983,13 +2976,13 @@
         <v>0</v>
       </c>
       <c r="H42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K42" s="1">
         <v>0</v>
@@ -3039,16 +3032,16 @@
         <v>0</v>
       </c>
       <c r="K43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O43" s="1">
         <v>2</v>
@@ -3159,13 +3152,13 @@
         <v>0</v>
       </c>
       <c r="D46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G46" s="1">
         <v>0</v>
@@ -3200,16 +3193,16 @@
         <v>2</v>
       </c>
       <c r="B47" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C47" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D47" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E47" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F47" s="1">
         <v>0</v>
@@ -3247,16 +3240,16 @@
         <v>2</v>
       </c>
       <c r="B48" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C48" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D48" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E48" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F48" s="1">
         <v>0</v>
@@ -3294,16 +3287,16 @@
         <v>2</v>
       </c>
       <c r="B49" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C49" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D49" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E49" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F49" s="1">
         <v>0</v>
@@ -3353,31 +3346,31 @@
         <v>2</v>
       </c>
       <c r="F50" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G50" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H50" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J50" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K50" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L50" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M50" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N50" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O50" s="1">
         <v>2</v>
@@ -3385,22 +3378,22 @@
     </row>
   </sheetData>
   <phoneticPr fontId="18"/>
+  <conditionalFormatting sqref="A1 A2:O1048576">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="A2:O50">
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB6">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2:O1048576 A1">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
-      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/media/Maps/xlsx/TestMap.xlsx
+++ b/media/Maps/xlsx/TestMap.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roram\OneDrive - 学校法人新潟総合学院 学校法人国際総合学園 学校法人大彦学園\ドキュメント\wiz 授業ファイル\2024年度2年授業\後期\製作\media\Maps\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FDA465A-3FD5-4BEC-8630-6F7CE614B544}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E214D804-888C-4923-9164-B40EDB5B94AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{A4E20948-4AF6-4F97-89F2-9813C3B26678}"/>
   </bookViews>
@@ -1044,8 +1044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F214FFB-5FC5-4EEB-876D-9E283DF04469}">
   <dimension ref="A1:O50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="W37" sqref="W37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1249,7 +1249,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -1278,10 +1278,10 @@
         <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" s="1">
         <v>0</v>
@@ -1293,16 +1293,16 @@
         <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L6" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M6" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O6" s="1">
         <v>2</v>
@@ -1331,7 +1331,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
@@ -1340,16 +1340,16 @@
         <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M7" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N7" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O7" s="1">
         <v>2</v>
@@ -1378,7 +1378,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
@@ -1407,10 +1407,10 @@
         <v>2</v>
       </c>
       <c r="B9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
@@ -1425,10 +1425,10 @@
         <v>0</v>
       </c>
       <c r="H9" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
         <v>0</v>
@@ -1472,7 +1472,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
@@ -1519,7 +1519,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
@@ -1613,13 +1613,13 @@
         <v>0</v>
       </c>
       <c r="H13" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
         <v>0</v>
@@ -1648,10 +1648,10 @@
         <v>0</v>
       </c>
       <c r="D14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
@@ -1707,7 +1707,7 @@
         <v>0</v>
       </c>
       <c r="H15" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" s="1">
         <v>0</v>
@@ -1754,7 +1754,7 @@
         <v>0</v>
       </c>
       <c r="H16" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" s="1">
         <v>0</v>
@@ -1801,7 +1801,7 @@
         <v>0</v>
       </c>
       <c r="H17" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" s="1">
         <v>0</v>
@@ -1830,7 +1830,7 @@
         <v>2</v>
       </c>
       <c r="B18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" s="1">
         <v>0</v>
@@ -1848,7 +1848,7 @@
         <v>0</v>
       </c>
       <c r="H18" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" s="1">
         <v>0</v>
@@ -1880,7 +1880,7 @@
         <v>0</v>
       </c>
       <c r="C19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" s="1">
         <v>0</v>
@@ -1895,7 +1895,7 @@
         <v>0</v>
       </c>
       <c r="H19" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" s="1">
         <v>0</v>
@@ -1907,7 +1907,7 @@
         <v>0</v>
       </c>
       <c r="L19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M19" s="1">
         <v>0</v>
@@ -1930,10 +1930,10 @@
         <v>0</v>
       </c>
       <c r="D20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>
@@ -1942,7 +1942,7 @@
         <v>0</v>
       </c>
       <c r="H20" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" s="1">
         <v>0</v>
@@ -1989,7 +1989,7 @@
         <v>0</v>
       </c>
       <c r="H21" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" s="1">
         <v>0</v>
@@ -2218,19 +2218,19 @@
         <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
         <v>0</v>
@@ -2421,13 +2421,13 @@
         <v>0</v>
       </c>
       <c r="K30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N30" s="1">
         <v>0</v>
@@ -2488,22 +2488,22 @@
         <v>2</v>
       </c>
       <c r="B32" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C32" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D32" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E32" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F32" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G32" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H32" s="1">
         <v>0</v>
@@ -2535,22 +2535,22 @@
         <v>2</v>
       </c>
       <c r="B33" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C33" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D33" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E33" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F33" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G33" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H33" s="1">
         <v>0</v>
@@ -2582,22 +2582,22 @@
         <v>2</v>
       </c>
       <c r="B34" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C34" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D34" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E34" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F34" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G34" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H34" s="1">
         <v>0</v>
@@ -2609,7 +2609,7 @@
         <v>0</v>
       </c>
       <c r="K34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L34" s="1">
         <v>0</v>
@@ -2629,22 +2629,22 @@
         <v>2</v>
       </c>
       <c r="B35" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C35" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D35" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E35" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F35" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G35" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H35" s="1">
         <v>0</v>
@@ -2656,7 +2656,7 @@
         <v>0</v>
       </c>
       <c r="K35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L35" s="1">
         <v>0</v>
@@ -2676,22 +2676,22 @@
         <v>2</v>
       </c>
       <c r="B36" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C36" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D36" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E36" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F36" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G36" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H36" s="1">
         <v>0</v>
@@ -2703,7 +2703,7 @@
         <v>0</v>
       </c>
       <c r="K36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L36" s="1">
         <v>0</v>
@@ -2723,34 +2723,34 @@
         <v>2</v>
       </c>
       <c r="B37" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C37" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D37" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E37" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F37" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G37" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H37" s="1">
+        <v>0</v>
+      </c>
+      <c r="I37" s="1">
+        <v>0</v>
+      </c>
+      <c r="J37" s="1">
+        <v>0</v>
+      </c>
+      <c r="K37" s="1">
         <v>1</v>
-      </c>
-      <c r="I37" s="1">
-        <v>1</v>
-      </c>
-      <c r="J37" s="1">
-        <v>0</v>
-      </c>
-      <c r="K37" s="1">
-        <v>0</v>
       </c>
       <c r="L37" s="1">
         <v>0</v>
@@ -2770,22 +2770,22 @@
         <v>2</v>
       </c>
       <c r="B38" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C38" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D38" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E38" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F38" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G38" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H38" s="1">
         <v>0</v>
@@ -2879,13 +2879,13 @@
         <v>0</v>
       </c>
       <c r="G40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" s="1">
         <v>0</v>
@@ -3032,16 +3032,16 @@
         <v>0</v>
       </c>
       <c r="K43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O43" s="1">
         <v>2</v>
@@ -3105,13 +3105,13 @@
         <v>0</v>
       </c>
       <c r="D45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G45" s="1">
         <v>0</v>
@@ -3123,13 +3123,13 @@
         <v>0</v>
       </c>
       <c r="J45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M45" s="1">
         <v>0</v>
@@ -3193,16 +3193,16 @@
         <v>2</v>
       </c>
       <c r="B47" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C47" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D47" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E47" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F47" s="1">
         <v>0</v>
@@ -3240,16 +3240,16 @@
         <v>2</v>
       </c>
       <c r="B48" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C48" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D48" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E48" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F48" s="1">
         <v>0</v>
@@ -3287,16 +3287,16 @@
         <v>2</v>
       </c>
       <c r="B49" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C49" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D49" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E49" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F49" s="1">
         <v>0</v>
@@ -3346,31 +3346,31 @@
         <v>2</v>
       </c>
       <c r="F50" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G50" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H50" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J50" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K50" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L50" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M50" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N50" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O50" s="1">
         <v>2</v>

--- a/media/Maps/xlsx/TestMap.xlsx
+++ b/media/Maps/xlsx/TestMap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roram\OneDrive - 学校法人新潟総合学院 学校法人国際総合学園 学校法人大彦学園\ドキュメント\wiz 授業ファイル\2024年度2年授業\後期\製作\media\Maps\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12E72D3A-282D-4A84-BE53-FE7BBD381443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3778EAB3-0D45-4974-A8A8-DF8AD0B74F90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{A4E20948-4AF6-4F97-89F2-9813C3B26678}"/>
   </bookViews>
@@ -20,16 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>null</t>
   </si>
   <si>
     <t>s</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>1&gt;hp:32</t>
     <phoneticPr fontId="18"/>
   </si>
   <si>
@@ -1069,8 +1065,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F214FFB-5FC5-4EEB-876D-9E283DF04469}">
   <dimension ref="A1:AA50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="L38" sqref="L38"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="S30" sqref="S30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -3081,67 +3077,67 @@
         <v>2</v>
       </c>
       <c r="B26" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C26" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D26" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E26" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F26" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G26" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H26" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J26" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K26" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L26" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M26" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N26" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O26" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P26" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q26" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R26" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S26" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T26" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U26" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V26" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W26" s="1">
         <v>0</v>
@@ -3191,7 +3187,7 @@
         <v>0</v>
       </c>
       <c r="K27" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L27" s="1">
         <v>0</v>
@@ -3209,7 +3205,7 @@
         <v>0</v>
       </c>
       <c r="Q27" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R27" s="1">
         <v>0</v>
@@ -3274,7 +3270,7 @@
         <v>0</v>
       </c>
       <c r="K28" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L28" s="1">
         <v>0</v>
@@ -3292,7 +3288,7 @@
         <v>0</v>
       </c>
       <c r="Q28" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R28" s="1">
         <v>0</v>
@@ -3357,7 +3353,7 @@
         <v>0</v>
       </c>
       <c r="K29" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L29" s="1">
         <v>0</v>
@@ -3375,7 +3371,7 @@
         <v>0</v>
       </c>
       <c r="Q29" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R29" s="1">
         <v>0</v>
@@ -3399,10 +3395,10 @@
         <v>0</v>
       </c>
       <c r="Y29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA29" s="1">
         <v>2</v>
@@ -3458,7 +3454,7 @@
         <v>0</v>
       </c>
       <c r="Q30" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R30" s="1">
         <v>0</v>
@@ -3639,7 +3635,7 @@
         <v>0</v>
       </c>
       <c r="V32" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W32" s="1">
         <v>0</v>
@@ -3689,7 +3685,7 @@
         <v>0</v>
       </c>
       <c r="K33" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L33" s="1">
         <v>0</v>
@@ -3707,7 +3703,7 @@
         <v>0</v>
       </c>
       <c r="Q33" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R33" s="1">
         <v>0</v>
@@ -3722,7 +3718,7 @@
         <v>0</v>
       </c>
       <c r="V33" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W33" s="1">
         <v>0</v>
@@ -3772,7 +3768,7 @@
         <v>0</v>
       </c>
       <c r="K34" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L34" s="1">
         <v>0</v>
@@ -3790,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="Q34" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R34" s="1">
         <v>0</v>
@@ -3805,7 +3801,7 @@
         <v>0</v>
       </c>
       <c r="V34" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W34" s="1">
         <v>0</v>
@@ -3837,70 +3833,70 @@
         <v>0</v>
       </c>
       <c r="E35" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F35" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G35" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H35" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J35" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K35" s="1">
         <v>2</v>
       </c>
       <c r="L35" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M35" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N35" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O35" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P35" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q35" s="1">
         <v>2</v>
       </c>
       <c r="R35" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S35" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T35" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U35" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V35" s="1">
         <v>2</v>
       </c>
       <c r="W35" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X35" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y35" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z35" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA35" s="1">
         <v>2</v>
@@ -3920,70 +3916,70 @@
         <v>0</v>
       </c>
       <c r="E36" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F36" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G36" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H36" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J36" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K36" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L36" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M36" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N36" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O36" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P36" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q36" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R36" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S36" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T36" s="1">
-        <v>0</v>
-      </c>
-      <c r="U36" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="U36" s="1">
         <v>2</v>
       </c>
       <c r="V36" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W36" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X36" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y36" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z36" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA36" s="1">
         <v>2</v>
@@ -4051,7 +4047,7 @@
         <v>0</v>
       </c>
       <c r="U37" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V37" s="1">
         <v>0</v>
@@ -4134,7 +4130,7 @@
         <v>0</v>
       </c>
       <c r="U38" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V38" s="1">
         <v>0</v>
@@ -4169,7 +4165,7 @@
         <v>2</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F39" s="1">
         <v>1</v>
@@ -4690,8 +4686,8 @@
       <c r="L45" s="1">
         <v>0</v>
       </c>
-      <c r="M45" s="1" t="s">
-        <v>6</v>
+      <c r="M45" s="1">
+        <v>0</v>
       </c>
       <c r="N45" s="1">
         <v>0</v>
@@ -4711,8 +4707,8 @@
       <c r="S45" s="1">
         <v>0</v>
       </c>
-      <c r="T45" s="1" t="s">
-        <v>5</v>
+      <c r="T45" s="1">
+        <v>0</v>
       </c>
       <c r="U45" s="1">
         <v>0</v>
@@ -4773,8 +4769,8 @@
       <c r="L46" s="1">
         <v>0</v>
       </c>
-      <c r="M46" s="1">
-        <v>0</v>
+      <c r="M46" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="N46" s="1">
         <v>0</v>
@@ -4794,8 +4790,8 @@
       <c r="S46" s="1">
         <v>0</v>
       </c>
-      <c r="T46" s="1">
-        <v>0</v>
+      <c r="T46" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="U46" s="1">
         <v>0</v>
@@ -5153,7 +5149,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="18"/>
-  <conditionalFormatting sqref="A1 A50:O1048576 I50:T50 U2:AA50 A2:T49 O39:U39 F35:Z35">
+  <conditionalFormatting sqref="A1 I50:T50 A50:O1048576 A46:T49 U46:AA50 A2:AA45">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>

--- a/media/Maps/xlsx/TestMap.xlsx
+++ b/media/Maps/xlsx/TestMap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roram\OneDrive - 学校法人新潟総合学院 学校法人国際総合学園 学校法人大彦学園\ドキュメント\wiz 授業ファイル\2024年度2年授業\後期\製作\media\Maps\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{58152E7B-FFC1-4CD0-B1E3-78C0AEF7323E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EA80858-4556-4E81-837E-E71873045B4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{A4E20948-4AF6-4F97-89F2-9813C3B26678}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="8">
   <si>
     <t>null</t>
   </si>
@@ -29,7 +29,25 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>8&gt;speed:1/range:2^0^0</t>
+    <t>5&gt;add:4</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>1&gt;hp:50</t>
+  </si>
+  <si>
+    <t>1&gt;hp:50</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>3&gt;range:2/power:10</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>3&gt;range:2/power:11</t>
+  </si>
+  <si>
+    <t>8&gt;speed:1.5/start:0^0^0/end:7^0^0</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -638,12 +656,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" textRotation="45"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -690,7 +711,21 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="良い" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -715,28 +750,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1070,24 +1084,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F214FFB-5FC5-4EEB-876D-9E283DF04469}">
-  <dimension ref="A1:P50"/>
+  <dimension ref="A1:X50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="L41" sqref="L41"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="11" width="3.69921875" style="1" customWidth="1"/>
     <col min="12" max="15" width="3.69921875" style="1"/>
+    <col min="23" max="23" width="3.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>2</v>
       </c>
@@ -1137,7 +1152,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1187,7 +1202,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1237,7 +1252,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -1287,7 +1302,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -1337,7 +1352,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -1387,7 +1402,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>2</v>
       </c>
@@ -1437,7 +1452,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>2</v>
       </c>
@@ -1487,7 +1502,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>2</v>
       </c>
@@ -1537,7 +1552,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>2</v>
       </c>
@@ -1587,7 +1602,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>2</v>
       </c>
@@ -1637,7 +1652,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>2</v>
       </c>
@@ -1687,7 +1702,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>2</v>
       </c>
@@ -1736,8 +1751,10 @@
       <c r="P14" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="W14" s="2"/>
+      <c r="X14" s="2"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>2</v>
       </c>
@@ -1786,8 +1803,10 @@
       <c r="P15" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="W15" s="2"/>
+      <c r="X15" s="2"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>2</v>
       </c>
@@ -1836,8 +1855,10 @@
       <c r="P16" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="W16" s="2"/>
+      <c r="X16" s="2"/>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>2</v>
       </c>
@@ -1886,8 +1907,10 @@
       <c r="P17" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>2</v>
       </c>
@@ -1936,8 +1959,10 @@
       <c r="P18" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="W18" s="2"/>
+      <c r="X18" s="2"/>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>2</v>
       </c>
@@ -1986,8 +2011,10 @@
       <c r="P19" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>2</v>
       </c>
@@ -2037,7 +2064,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>2</v>
       </c>
@@ -2087,7 +2114,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>2</v>
       </c>
@@ -2137,7 +2164,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>2</v>
       </c>
@@ -2187,7 +2214,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>2</v>
       </c>
@@ -2237,7 +2264,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>2</v>
       </c>
@@ -2287,7 +2314,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>2</v>
       </c>
@@ -2337,42 +2364,42 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>2</v>
       </c>
       <c r="B27" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C27" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D27" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E27" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F27" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G27" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H27" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J27" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K27" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L27" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M27" s="1">
         <v>0</v>
@@ -2387,7 +2414,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>2</v>
       </c>
@@ -2421,8 +2448,8 @@
       <c r="K28" s="1">
         <v>0</v>
       </c>
-      <c r="L28" s="1">
-        <v>0</v>
+      <c r="L28" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="M28" s="1">
         <v>0</v>
@@ -2437,7 +2464,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>2</v>
       </c>
@@ -2471,8 +2498,8 @@
       <c r="K29" s="1">
         <v>0</v>
       </c>
-      <c r="L29" s="1">
-        <v>0</v>
+      <c r="L29" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="M29" s="1">
         <v>0</v>
@@ -2487,7 +2514,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>2</v>
       </c>
@@ -2521,8 +2548,8 @@
       <c r="K30" s="1">
         <v>0</v>
       </c>
-      <c r="L30" s="1">
-        <v>0</v>
+      <c r="L30" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="M30" s="1">
         <v>0</v>
@@ -2537,7 +2564,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
         <v>2</v>
       </c>
@@ -2557,37 +2584,37 @@
         <v>0</v>
       </c>
       <c r="G31" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H31" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" s="1">
-        <v>0</v>
-      </c>
-      <c r="J31" s="1">
-        <v>0</v>
-      </c>
-      <c r="K31" s="1">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="L31" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M31" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N31" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O31" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P31" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
         <v>2</v>
       </c>
@@ -2692,13 +2719,13 @@
         <v>2</v>
       </c>
       <c r="B34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" s="1">
         <v>0</v>
@@ -2777,8 +2804,8 @@
       <c r="M35" s="1">
         <v>0</v>
       </c>
-      <c r="N35" s="1">
-        <v>0</v>
+      <c r="N35" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="O35" s="1">
         <v>0</v>
@@ -2856,11 +2883,11 @@
       <c r="F37" s="1">
         <v>0</v>
       </c>
-      <c r="G37" s="1">
-        <v>0</v>
-      </c>
-      <c r="H37" s="1">
-        <v>0</v>
+      <c r="G37" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="I37" s="1">
         <v>0</v>
@@ -2897,8 +2924,8 @@
       <c r="C38" s="1">
         <v>0</v>
       </c>
-      <c r="D38" s="1">
-        <v>0</v>
+      <c r="D38" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="E38" s="1">
         <v>0</v>
@@ -2947,8 +2974,8 @@
       <c r="C39" s="1">
         <v>0</v>
       </c>
-      <c r="D39" s="1">
-        <v>0</v>
+      <c r="D39" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="E39" s="1">
         <v>0</v>
@@ -2959,8 +2986,8 @@
       <c r="G39" s="1">
         <v>0</v>
       </c>
-      <c r="H39" s="1">
-        <v>0</v>
+      <c r="H39" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="I39" s="1">
         <v>0</v>
@@ -2997,8 +3024,8 @@
       <c r="C40" s="1">
         <v>0</v>
       </c>
-      <c r="D40" s="1">
-        <v>0</v>
+      <c r="D40" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="E40" s="1">
         <v>0</v>
@@ -3009,8 +3036,8 @@
       <c r="G40" s="1">
         <v>0</v>
       </c>
-      <c r="H40" s="1">
-        <v>0</v>
+      <c r="H40" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="I40" s="1">
         <v>0</v>
@@ -3048,7 +3075,7 @@
         <v>0</v>
       </c>
       <c r="D41" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E41" s="1">
         <v>0</v>
@@ -3060,10 +3087,10 @@
         <v>0</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="I41" s="1">
+        <v>0</v>
       </c>
       <c r="J41" s="1">
         <v>0</v>
@@ -3110,7 +3137,7 @@
         <v>0</v>
       </c>
       <c r="H42" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" s="1">
         <v>0</v>
@@ -3118,11 +3145,11 @@
       <c r="J42" s="1">
         <v>0</v>
       </c>
-      <c r="K42" s="1">
-        <v>0</v>
+      <c r="K42" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="L42" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M42" s="1">
         <v>0</v>
@@ -3168,11 +3195,11 @@
       <c r="J43" s="1">
         <v>0</v>
       </c>
-      <c r="K43" s="1">
-        <v>0</v>
+      <c r="K43" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="L43" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M43" s="1">
         <v>0</v>
@@ -3218,11 +3245,11 @@
       <c r="J44" s="1">
         <v>0</v>
       </c>
-      <c r="K44" s="1">
-        <v>0</v>
+      <c r="K44" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="L44" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M44" s="1">
         <v>0</v>
@@ -3269,10 +3296,10 @@
         <v>0</v>
       </c>
       <c r="K45" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L45" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M45" s="1">
         <v>0</v>
@@ -3539,7 +3566,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="18"/>
-  <conditionalFormatting sqref="A1 A46:T49 I50:T50 U46:Z50 P46:P50 A50:O1048576 A2:Z40 A43:Z45 B43:O49 A41:G42 J41:Z42 B22:O41 H42:I42">
+  <conditionalFormatting sqref="A1 A2:Z40 A41:G42 J41:Z42 A43:Z45 B43:O49 A46:T49 P46:P50 U46:Z50 I50:T50 A50:O1048576 B42:L45 B22:O41">
     <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -3547,22 +3574,22 @@
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="AB1:XFD1048576 A1:Z1048576">
+    <cfRule type="beginsWith" dxfId="3" priority="1" operator="beginsWith" text="1&gt;">
+      <formula>LEFT(A1,LEN("1&gt;"))="1&gt;"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="2" operator="beginsWith" text="3&gt;">
+      <formula>LEFT(A1,LEN("3&gt;"))="3&gt;"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="A2:Z50">
-    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB6">
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
       <formula>2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB1:XFD1048576 A1:Z1048576">
-    <cfRule type="beginsWith" dxfId="1" priority="1" operator="beginsWith" text="1&gt;">
-      <formula>LEFT(A1,LEN("1&gt;"))="1&gt;"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="2" operator="beginsWith" text="3&gt;">
-      <formula>LEFT(A1,LEN("3&gt;"))="3&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/media/Maps/xlsx/TestMap.xlsx
+++ b/media/Maps/xlsx/TestMap.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roram\OneDrive - 学校法人新潟総合学院 学校法人国際総合学園 学校法人大彦学園\ドキュメント\wiz 授業ファイル\2024年度2年授業\後期\製作\media\Maps\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EA80858-4556-4E81-837E-E71873045B4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30E085CB-49F0-4F2B-A036-FD331C34A4C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{A4E20948-4AF6-4F97-89F2-9813C3B26678}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="4">
   <si>
     <t>null</t>
   </si>
@@ -29,25 +29,11 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>5&gt;add:4</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>1&gt;hp:50</t>
-  </si>
-  <si>
-    <t>1&gt;hp:50</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>3&gt;range:2/power:10</t>
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>3&gt;range:2/power:11</t>
-  </si>
-  <si>
-    <t>8&gt;speed:1.5/start:0^0^0/end:7^0^0</t>
+    <t>1&gt;hp:20</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -1084,10 +1070,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F214FFB-5FC5-4EEB-876D-9E283DF04469}">
-  <dimension ref="A1:X50"/>
+  <dimension ref="A1:X31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1183,8 +1169,8 @@
       <c r="J3" s="1">
         <v>0</v>
       </c>
-      <c r="K3" s="1">
-        <v>0</v>
+      <c r="K3" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="L3" s="1">
         <v>0</v>
@@ -1290,7 +1276,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N5" s="1">
         <v>0</v>
@@ -1330,23 +1316,23 @@
       <c r="I6" s="1">
         <v>0</v>
       </c>
-      <c r="J6" s="1">
-        <v>0</v>
+      <c r="J6" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M6" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N6" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O6" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P6" s="1">
         <v>2</v>
@@ -1418,8 +1404,8 @@
       <c r="E8" s="1">
         <v>0</v>
       </c>
-      <c r="F8" s="1">
-        <v>0</v>
+      <c r="F8" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="G8" s="1">
         <v>0</v>
@@ -1557,19 +1543,19 @@
         <v>2</v>
       </c>
       <c r="B11" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C11" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D11" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E11" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F11" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G11" s="1">
         <v>0</v>
@@ -1584,19 +1570,19 @@
         <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M11" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N11" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O11" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P11" s="1">
         <v>2</v>
@@ -1616,7 +1602,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -1637,7 +1623,7 @@
         <v>0</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -1666,7 +1652,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -1687,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -1715,8 +1701,8 @@
       <c r="D14" s="1">
         <v>0</v>
       </c>
-      <c r="E14" s="1">
-        <v>0</v>
+      <c r="E14" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -1736,8 +1722,8 @@
       <c r="K14" s="1">
         <v>0</v>
       </c>
-      <c r="L14" s="1">
-        <v>0</v>
+      <c r="L14" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -1768,28 +1754,28 @@
         <v>0</v>
       </c>
       <c r="E15" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F15" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G15" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H15" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J15" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K15" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L15" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M15" s="1">
         <v>0</v>
@@ -1820,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -1841,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="L16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" s="1">
         <v>0</v>
@@ -1872,7 +1858,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -1893,7 +1879,7 @@
         <v>0</v>
       </c>
       <c r="L17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17" s="1">
         <v>0</v>
@@ -1915,19 +1901,19 @@
         <v>2</v>
       </c>
       <c r="B18" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C18" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D18" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E18" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F18" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G18" s="1">
         <v>0</v>
@@ -1942,19 +1928,19 @@
         <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L18" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M18" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N18" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O18" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P18" s="1">
         <v>2</v>
@@ -2134,16 +2120,16 @@
         <v>0</v>
       </c>
       <c r="G22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" s="1">
         <v>0</v>
@@ -2219,10 +2205,10 @@
         <v>2</v>
       </c>
       <c r="B24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" s="1">
         <v>0</v>
@@ -2255,10 +2241,10 @@
         <v>0</v>
       </c>
       <c r="N24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P24" s="1">
         <v>2</v>
@@ -2369,46 +2355,46 @@
         <v>2</v>
       </c>
       <c r="B27" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C27" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E27" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F27" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G27" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H27" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J27" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K27" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L27" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P27" s="1">
         <v>2</v>
@@ -2448,8 +2434,8 @@
       <c r="K28" s="1">
         <v>0</v>
       </c>
-      <c r="L28" s="1" t="s">
-        <v>4</v>
+      <c r="L28" s="1">
+        <v>0</v>
       </c>
       <c r="M28" s="1">
         <v>0</v>
@@ -2498,8 +2484,8 @@
       <c r="K29" s="1">
         <v>0</v>
       </c>
-      <c r="L29" s="1" t="s">
-        <v>4</v>
+      <c r="L29" s="1">
+        <v>0</v>
       </c>
       <c r="M29" s="1">
         <v>0</v>
@@ -2539,8 +2525,8 @@
       <c r="H30" s="1">
         <v>0</v>
       </c>
-      <c r="I30" s="1">
-        <v>0</v>
+      <c r="I30" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="J30" s="1">
         <v>0</v>
@@ -2548,8 +2534,8 @@
       <c r="K30" s="1">
         <v>0</v>
       </c>
-      <c r="L30" s="1" t="s">
-        <v>4</v>
+      <c r="L30" s="1">
+        <v>0</v>
       </c>
       <c r="M30" s="1">
         <v>0</v>
@@ -2569,19 +2555,19 @@
         <v>2</v>
       </c>
       <c r="B31" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C31" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D31" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E31" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F31" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G31" s="1">
         <v>2</v>
@@ -2592,11 +2578,11 @@
       <c r="I31" s="1">
         <v>2</v>
       </c>
-      <c r="J31" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>6</v>
+      <c r="J31" s="1">
+        <v>2</v>
+      </c>
+      <c r="K31" s="1">
+        <v>2</v>
       </c>
       <c r="L31" s="1">
         <v>2</v>
@@ -2611,962 +2597,12 @@
         <v>2</v>
       </c>
       <c r="P31" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A32" s="1">
-        <v>2</v>
-      </c>
-      <c r="B32" s="1">
-        <v>0</v>
-      </c>
-      <c r="C32" s="1">
-        <v>0</v>
-      </c>
-      <c r="D32" s="1">
-        <v>0</v>
-      </c>
-      <c r="E32" s="1">
-        <v>0</v>
-      </c>
-      <c r="F32" s="1">
-        <v>0</v>
-      </c>
-      <c r="G32" s="1">
-        <v>0</v>
-      </c>
-      <c r="H32" s="1">
-        <v>0</v>
-      </c>
-      <c r="I32" s="1">
-        <v>0</v>
-      </c>
-      <c r="J32" s="1">
-        <v>0</v>
-      </c>
-      <c r="K32" s="1">
-        <v>0</v>
-      </c>
-      <c r="L32" s="1">
-        <v>0</v>
-      </c>
-      <c r="M32" s="1">
-        <v>0</v>
-      </c>
-      <c r="N32" s="1">
-        <v>0</v>
-      </c>
-      <c r="O32" s="1">
-        <v>0</v>
-      </c>
-      <c r="P32" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A33" s="1">
-        <v>2</v>
-      </c>
-      <c r="B33" s="1">
-        <v>0</v>
-      </c>
-      <c r="C33" s="1">
-        <v>0</v>
-      </c>
-      <c r="D33" s="1">
-        <v>0</v>
-      </c>
-      <c r="E33" s="1">
-        <v>0</v>
-      </c>
-      <c r="F33" s="1">
-        <v>0</v>
-      </c>
-      <c r="G33" s="1">
-        <v>0</v>
-      </c>
-      <c r="H33" s="1">
-        <v>0</v>
-      </c>
-      <c r="I33" s="1">
-        <v>0</v>
-      </c>
-      <c r="J33" s="1">
-        <v>0</v>
-      </c>
-      <c r="K33" s="1">
-        <v>0</v>
-      </c>
-      <c r="L33" s="1">
-        <v>0</v>
-      </c>
-      <c r="M33" s="1">
-        <v>0</v>
-      </c>
-      <c r="N33" s="1">
-        <v>0</v>
-      </c>
-      <c r="O33" s="1">
-        <v>0</v>
-      </c>
-      <c r="P33" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A34" s="1">
-        <v>2</v>
-      </c>
-      <c r="B34" s="1">
-        <v>1</v>
-      </c>
-      <c r="C34" s="1">
-        <v>1</v>
-      </c>
-      <c r="D34" s="1">
-        <v>1</v>
-      </c>
-      <c r="E34" s="1">
-        <v>0</v>
-      </c>
-      <c r="F34" s="1">
-        <v>0</v>
-      </c>
-      <c r="G34" s="1">
-        <v>0</v>
-      </c>
-      <c r="H34" s="1">
-        <v>0</v>
-      </c>
-      <c r="I34" s="1">
-        <v>0</v>
-      </c>
-      <c r="J34" s="1">
-        <v>0</v>
-      </c>
-      <c r="K34" s="1">
-        <v>0</v>
-      </c>
-      <c r="L34" s="1">
-        <v>0</v>
-      </c>
-      <c r="M34" s="1">
-        <v>0</v>
-      </c>
-      <c r="N34" s="1">
-        <v>0</v>
-      </c>
-      <c r="O34" s="1">
-        <v>0</v>
-      </c>
-      <c r="P34" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A35" s="1">
-        <v>2</v>
-      </c>
-      <c r="B35" s="1">
-        <v>0</v>
-      </c>
-      <c r="C35" s="1">
-        <v>0</v>
-      </c>
-      <c r="D35" s="1">
-        <v>0</v>
-      </c>
-      <c r="E35" s="1">
-        <v>0</v>
-      </c>
-      <c r="F35" s="1">
-        <v>0</v>
-      </c>
-      <c r="G35" s="1">
-        <v>0</v>
-      </c>
-      <c r="H35" s="1">
-        <v>0</v>
-      </c>
-      <c r="I35" s="1">
-        <v>0</v>
-      </c>
-      <c r="J35" s="1">
-        <v>0</v>
-      </c>
-      <c r="K35" s="1">
-        <v>0</v>
-      </c>
-      <c r="L35" s="1">
-        <v>0</v>
-      </c>
-      <c r="M35" s="1">
-        <v>0</v>
-      </c>
-      <c r="N35" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="O35" s="1">
-        <v>0</v>
-      </c>
-      <c r="P35" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A36" s="1">
-        <v>2</v>
-      </c>
-      <c r="B36" s="1">
-        <v>0</v>
-      </c>
-      <c r="C36" s="1">
-        <v>0</v>
-      </c>
-      <c r="D36" s="1">
-        <v>0</v>
-      </c>
-      <c r="E36" s="1">
-        <v>0</v>
-      </c>
-      <c r="F36" s="1">
-        <v>0</v>
-      </c>
-      <c r="G36" s="1">
-        <v>0</v>
-      </c>
-      <c r="H36" s="1">
-        <v>0</v>
-      </c>
-      <c r="I36" s="1">
-        <v>0</v>
-      </c>
-      <c r="J36" s="1">
-        <v>0</v>
-      </c>
-      <c r="K36" s="1">
-        <v>0</v>
-      </c>
-      <c r="L36" s="1">
-        <v>0</v>
-      </c>
-      <c r="M36" s="1">
-        <v>0</v>
-      </c>
-      <c r="N36" s="1">
-        <v>0</v>
-      </c>
-      <c r="O36" s="1">
-        <v>0</v>
-      </c>
-      <c r="P36" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A37" s="1">
-        <v>2</v>
-      </c>
-      <c r="B37" s="1">
-        <v>0</v>
-      </c>
-      <c r="C37" s="1">
-        <v>0</v>
-      </c>
-      <c r="D37" s="1">
-        <v>0</v>
-      </c>
-      <c r="E37" s="1">
-        <v>0</v>
-      </c>
-      <c r="F37" s="1">
-        <v>0</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I37" s="1">
-        <v>0</v>
-      </c>
-      <c r="J37" s="1">
-        <v>0</v>
-      </c>
-      <c r="K37" s="1">
-        <v>0</v>
-      </c>
-      <c r="L37" s="1">
-        <v>0</v>
-      </c>
-      <c r="M37" s="1">
-        <v>0</v>
-      </c>
-      <c r="N37" s="1">
-        <v>0</v>
-      </c>
-      <c r="O37" s="1">
-        <v>0</v>
-      </c>
-      <c r="P37" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A38" s="1">
-        <v>2</v>
-      </c>
-      <c r="B38" s="1">
-        <v>0</v>
-      </c>
-      <c r="C38" s="1">
-        <v>0</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E38" s="1">
-        <v>0</v>
-      </c>
-      <c r="F38" s="1">
-        <v>0</v>
-      </c>
-      <c r="G38" s="1">
-        <v>0</v>
-      </c>
-      <c r="H38" s="1">
-        <v>0</v>
-      </c>
-      <c r="I38" s="1">
-        <v>0</v>
-      </c>
-      <c r="J38" s="1">
-        <v>0</v>
-      </c>
-      <c r="K38" s="1">
-        <v>0</v>
-      </c>
-      <c r="L38" s="1">
-        <v>0</v>
-      </c>
-      <c r="M38" s="1">
-        <v>0</v>
-      </c>
-      <c r="N38" s="1">
-        <v>0</v>
-      </c>
-      <c r="O38" s="1">
-        <v>0</v>
-      </c>
-      <c r="P38" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A39" s="1">
-        <v>2</v>
-      </c>
-      <c r="B39" s="1">
-        <v>0</v>
-      </c>
-      <c r="C39" s="1">
-        <v>0</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E39" s="1">
-        <v>0</v>
-      </c>
-      <c r="F39" s="1">
-        <v>0</v>
-      </c>
-      <c r="G39" s="1">
-        <v>0</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I39" s="1">
-        <v>0</v>
-      </c>
-      <c r="J39" s="1">
-        <v>0</v>
-      </c>
-      <c r="K39" s="1">
-        <v>0</v>
-      </c>
-      <c r="L39" s="1">
-        <v>0</v>
-      </c>
-      <c r="M39" s="1">
-        <v>0</v>
-      </c>
-      <c r="N39" s="1">
-        <v>0</v>
-      </c>
-      <c r="O39" s="1">
-        <v>0</v>
-      </c>
-      <c r="P39" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A40" s="1">
-        <v>2</v>
-      </c>
-      <c r="B40" s="1">
-        <v>0</v>
-      </c>
-      <c r="C40" s="1">
-        <v>0</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E40" s="1">
-        <v>0</v>
-      </c>
-      <c r="F40" s="1">
-        <v>0</v>
-      </c>
-      <c r="G40" s="1">
-        <v>0</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I40" s="1">
-        <v>0</v>
-      </c>
-      <c r="J40" s="1">
-        <v>0</v>
-      </c>
-      <c r="K40" s="1">
-        <v>0</v>
-      </c>
-      <c r="L40" s="1">
-        <v>0</v>
-      </c>
-      <c r="M40" s="1">
-        <v>0</v>
-      </c>
-      <c r="N40" s="1">
-        <v>0</v>
-      </c>
-      <c r="O40" s="1">
-        <v>0</v>
-      </c>
-      <c r="P40" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A41" s="1">
-        <v>2</v>
-      </c>
-      <c r="B41" s="1">
-        <v>0</v>
-      </c>
-      <c r="C41" s="1">
-        <v>0</v>
-      </c>
-      <c r="D41" s="1">
-        <v>2</v>
-      </c>
-      <c r="E41" s="1">
-        <v>0</v>
-      </c>
-      <c r="F41" s="1">
-        <v>0</v>
-      </c>
-      <c r="G41" s="1">
-        <v>0</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I41" s="1">
-        <v>0</v>
-      </c>
-      <c r="J41" s="1">
-        <v>0</v>
-      </c>
-      <c r="K41" s="1">
-        <v>0</v>
-      </c>
-      <c r="L41" s="1">
-        <v>0</v>
-      </c>
-      <c r="M41" s="1">
-        <v>0</v>
-      </c>
-      <c r="N41" s="1">
-        <v>0</v>
-      </c>
-      <c r="O41" s="1">
-        <v>0</v>
-      </c>
-      <c r="P41" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A42" s="1">
-        <v>2</v>
-      </c>
-      <c r="B42" s="1">
-        <v>0</v>
-      </c>
-      <c r="C42" s="1">
-        <v>0</v>
-      </c>
-      <c r="D42" s="1">
-        <v>0</v>
-      </c>
-      <c r="E42" s="1">
-        <v>0</v>
-      </c>
-      <c r="F42" s="1">
-        <v>0</v>
-      </c>
-      <c r="G42" s="1">
-        <v>0</v>
-      </c>
-      <c r="H42" s="1">
-        <v>2</v>
-      </c>
-      <c r="I42" s="1">
-        <v>0</v>
-      </c>
-      <c r="J42" s="1">
-        <v>0</v>
-      </c>
-      <c r="K42" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="L42" s="1">
-        <v>0</v>
-      </c>
-      <c r="M42" s="1">
-        <v>0</v>
-      </c>
-      <c r="N42" s="1">
-        <v>0</v>
-      </c>
-      <c r="O42" s="1">
-        <v>0</v>
-      </c>
-      <c r="P42" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A43" s="1">
-        <v>2</v>
-      </c>
-      <c r="B43" s="1">
-        <v>0</v>
-      </c>
-      <c r="C43" s="1">
-        <v>0</v>
-      </c>
-      <c r="D43" s="1">
-        <v>0</v>
-      </c>
-      <c r="E43" s="1">
-        <v>0</v>
-      </c>
-      <c r="F43" s="1">
-        <v>0</v>
-      </c>
-      <c r="G43" s="1">
-        <v>0</v>
-      </c>
-      <c r="H43" s="1">
-        <v>0</v>
-      </c>
-      <c r="I43" s="1">
-        <v>0</v>
-      </c>
-      <c r="J43" s="1">
-        <v>0</v>
-      </c>
-      <c r="K43" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="L43" s="1">
-        <v>0</v>
-      </c>
-      <c r="M43" s="1">
-        <v>0</v>
-      </c>
-      <c r="N43" s="1">
-        <v>0</v>
-      </c>
-      <c r="O43" s="1">
-        <v>0</v>
-      </c>
-      <c r="P43" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A44" s="1">
-        <v>2</v>
-      </c>
-      <c r="B44" s="1">
-        <v>0</v>
-      </c>
-      <c r="C44" s="1">
-        <v>0</v>
-      </c>
-      <c r="D44" s="1">
-        <v>0</v>
-      </c>
-      <c r="E44" s="1">
-        <v>0</v>
-      </c>
-      <c r="F44" s="1">
-        <v>0</v>
-      </c>
-      <c r="G44" s="1">
-        <v>0</v>
-      </c>
-      <c r="H44" s="1">
-        <v>0</v>
-      </c>
-      <c r="I44" s="1">
-        <v>0</v>
-      </c>
-      <c r="J44" s="1">
-        <v>0</v>
-      </c>
-      <c r="K44" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="L44" s="1">
-        <v>0</v>
-      </c>
-      <c r="M44" s="1">
-        <v>0</v>
-      </c>
-      <c r="N44" s="1">
-        <v>0</v>
-      </c>
-      <c r="O44" s="1">
-        <v>0</v>
-      </c>
-      <c r="P44" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A45" s="1">
-        <v>2</v>
-      </c>
-      <c r="B45" s="1">
-        <v>0</v>
-      </c>
-      <c r="C45" s="1">
-        <v>0</v>
-      </c>
-      <c r="D45" s="1">
-        <v>0</v>
-      </c>
-      <c r="E45" s="1">
-        <v>0</v>
-      </c>
-      <c r="F45" s="1">
-        <v>0</v>
-      </c>
-      <c r="G45" s="1">
-        <v>0</v>
-      </c>
-      <c r="H45" s="1">
-        <v>0</v>
-      </c>
-      <c r="I45" s="1">
-        <v>0</v>
-      </c>
-      <c r="J45" s="1">
-        <v>0</v>
-      </c>
-      <c r="K45" s="1">
-        <v>2</v>
-      </c>
-      <c r="L45" s="1">
-        <v>0</v>
-      </c>
-      <c r="M45" s="1">
-        <v>0</v>
-      </c>
-      <c r="N45" s="1">
-        <v>0</v>
-      </c>
-      <c r="O45" s="1">
-        <v>0</v>
-      </c>
-      <c r="P45" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A46" s="1">
-        <v>2</v>
-      </c>
-      <c r="B46" s="1">
-        <v>2</v>
-      </c>
-      <c r="C46" s="1">
-        <v>2</v>
-      </c>
-      <c r="D46" s="1">
-        <v>2</v>
-      </c>
-      <c r="E46" s="1">
-        <v>2</v>
-      </c>
-      <c r="F46" s="1">
-        <v>2</v>
-      </c>
-      <c r="G46" s="1">
-        <v>2</v>
-      </c>
-      <c r="H46" s="1">
-        <v>2</v>
-      </c>
-      <c r="I46" s="1">
-        <v>2</v>
-      </c>
-      <c r="J46" s="1">
-        <v>2</v>
-      </c>
-      <c r="K46" s="1">
-        <v>2</v>
-      </c>
-      <c r="L46" s="1">
-        <v>2</v>
-      </c>
-      <c r="M46" s="1">
-        <v>0</v>
-      </c>
-      <c r="N46" s="1">
-        <v>0</v>
-      </c>
-      <c r="O46" s="1">
-        <v>0</v>
-      </c>
-      <c r="P46" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A47" s="1">
-        <v>2</v>
-      </c>
-      <c r="B47" s="1">
-        <v>0</v>
-      </c>
-      <c r="C47" s="1">
-        <v>0</v>
-      </c>
-      <c r="D47" s="1">
-        <v>0</v>
-      </c>
-      <c r="E47" s="1">
-        <v>0</v>
-      </c>
-      <c r="F47" s="1">
-        <v>0</v>
-      </c>
-      <c r="G47" s="1">
-        <v>0</v>
-      </c>
-      <c r="H47" s="1">
-        <v>1</v>
-      </c>
-      <c r="I47" s="1">
-        <v>0</v>
-      </c>
-      <c r="J47" s="1">
-        <v>0</v>
-      </c>
-      <c r="K47" s="1">
-        <v>0</v>
-      </c>
-      <c r="L47" s="1">
-        <v>0</v>
-      </c>
-      <c r="M47" s="1">
-        <v>0</v>
-      </c>
-      <c r="N47" s="1">
-        <v>0</v>
-      </c>
-      <c r="O47" s="1">
-        <v>0</v>
-      </c>
-      <c r="P47" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A48" s="1">
-        <v>2</v>
-      </c>
-      <c r="B48" s="1">
-        <v>0</v>
-      </c>
-      <c r="C48" s="1">
-        <v>0</v>
-      </c>
-      <c r="D48" s="1">
-        <v>0</v>
-      </c>
-      <c r="E48" s="1">
-        <v>0</v>
-      </c>
-      <c r="F48" s="1">
-        <v>0</v>
-      </c>
-      <c r="G48" s="1">
-        <v>0</v>
-      </c>
-      <c r="H48" s="1">
-        <v>1</v>
-      </c>
-      <c r="I48" s="1">
-        <v>0</v>
-      </c>
-      <c r="J48" s="1">
-        <v>0</v>
-      </c>
-      <c r="K48" s="1">
-        <v>0</v>
-      </c>
-      <c r="L48" s="1">
-        <v>0</v>
-      </c>
-      <c r="M48" s="1">
-        <v>0</v>
-      </c>
-      <c r="N48" s="1">
-        <v>0</v>
-      </c>
-      <c r="O48" s="1">
-        <v>0</v>
-      </c>
-      <c r="P48" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A49" s="1">
-        <v>2</v>
-      </c>
-      <c r="B49" s="1">
-        <v>0</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D49" s="1">
-        <v>0</v>
-      </c>
-      <c r="E49" s="1">
-        <v>0</v>
-      </c>
-      <c r="F49" s="1">
-        <v>0</v>
-      </c>
-      <c r="G49" s="1">
-        <v>0</v>
-      </c>
-      <c r="H49" s="1">
-        <v>1</v>
-      </c>
-      <c r="I49" s="1">
-        <v>0</v>
-      </c>
-      <c r="J49" s="1">
-        <v>0</v>
-      </c>
-      <c r="K49" s="1">
-        <v>0</v>
-      </c>
-      <c r="L49" s="1">
-        <v>0</v>
-      </c>
-      <c r="M49" s="1">
-        <v>0</v>
-      </c>
-      <c r="N49" s="1">
-        <v>0</v>
-      </c>
-      <c r="O49" s="1">
-        <v>0</v>
-      </c>
-      <c r="P49" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A50" s="1">
-        <v>2</v>
-      </c>
-      <c r="B50" s="1">
-        <v>2</v>
-      </c>
-      <c r="C50" s="1">
-        <v>2</v>
-      </c>
-      <c r="D50" s="1">
-        <v>2</v>
-      </c>
-      <c r="E50" s="1">
-        <v>2</v>
-      </c>
-      <c r="F50" s="1">
-        <v>2</v>
-      </c>
-      <c r="G50" s="1">
-        <v>2</v>
-      </c>
-      <c r="H50" s="1">
-        <v>2</v>
-      </c>
-      <c r="I50" s="1">
-        <v>2</v>
-      </c>
-      <c r="J50" s="1">
-        <v>2</v>
-      </c>
-      <c r="K50" s="1">
-        <v>2</v>
-      </c>
-      <c r="L50" s="1">
-        <v>2</v>
-      </c>
-      <c r="M50" s="1">
-        <v>2</v>
-      </c>
-      <c r="N50" s="1">
-        <v>2</v>
-      </c>
-      <c r="O50" s="1">
-        <v>2</v>
-      </c>
-      <c r="P50" s="1">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18"/>
-  <conditionalFormatting sqref="A1 A2:Z40 A41:G42 J41:Z42 A43:Z45 B43:O49 A46:T49 P46:P50 U46:Z50 I50:T50 A50:O1048576 B42:L45 B22:O41">
+  <conditionalFormatting sqref="A1 A2:Z2 A3:P21 Q3:Z50 A22:G23 J22:P23 A24:P31 A51:O1048576 B3:O30">
     <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -3574,7 +2610,7 @@
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB1:XFD1048576 A1:Z1048576">
+  <conditionalFormatting sqref="A1:Z2 AB1:XFD1048576 Q3:Z50 A51:Z1048576 A3:P31">
     <cfRule type="beginsWith" dxfId="3" priority="1" operator="beginsWith" text="1&gt;">
       <formula>LEFT(A1,LEN("1&gt;"))="1&gt;"</formula>
     </cfRule>
@@ -3582,7 +2618,7 @@
       <formula>LEFT(A1,LEN("3&gt;"))="3&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:Z50">
+  <conditionalFormatting sqref="A2:Z2 Q3:Z50 A3:P31">
     <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>

--- a/media/Maps/xlsx/TestMap.xlsx
+++ b/media/Maps/xlsx/TestMap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roram\OneDrive - 学校法人新潟総合学院 学校法人国際総合学園 学校法人大彦学園\ドキュメント\wiz 授業ファイル\2024年度2年授業\後期\製作\media\Maps\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9363C41-9460-4F67-B722-87AD8F45C6D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{464BF184-A23E-4067-82F4-0BA8DB52B1D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{A4E20948-4AF6-4F97-89F2-9813C3B26678}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
   <si>
     <t>null</t>
   </si>
@@ -80,15 +80,14 @@
     <t>1&gt;hp:32</t>
   </si>
   <si>
-    <t>8&gt;speed:1.5/start:0^0^0/end:-4^3^0</t>
+    <t>1&gt;hp:50</t>
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>8&gt;speed:1.5/start:0^0^0/end:4^0^0</t>
-    <phoneticPr fontId="18"/>
+    <t>1&gt;hp:51</t>
   </si>
   <si>
-    <t>8&gt;speed:1.5/start:0^0^0/end:0^3^0</t>
+    <t>s</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -749,7 +748,21 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="良い" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="62">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -760,6 +773,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -774,6 +801,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="5"/>
         </patternFill>
       </fill>
@@ -788,7 +822,364 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1122,10 +1513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F214FFB-5FC5-4EEB-876D-9E283DF04469}">
-  <dimension ref="A1:P42"/>
+  <dimension ref="A1:P43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1475,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="L8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -1575,16 +1966,16 @@
         <v>2</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O10" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P10" s="1">
         <v>2</v>
@@ -1709,8 +2100,8 @@
       <c r="F13" s="1">
         <v>0</v>
       </c>
-      <c r="G13" s="1">
-        <v>1</v>
+      <c r="G13" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="H13" s="1">
         <v>0</v>
@@ -1718,8 +2109,8 @@
       <c r="I13" s="1">
         <v>0</v>
       </c>
-      <c r="J13" s="1">
-        <v>0</v>
+      <c r="J13" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="K13" s="1">
         <v>0</v>
@@ -1730,11 +2121,11 @@
       <c r="M13" s="1">
         <v>0</v>
       </c>
-      <c r="N13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>20</v>
+      <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>0</v>
       </c>
       <c r="P13" s="1">
         <v>2</v>
@@ -1744,47 +2135,47 @@
       <c r="A14" s="1">
         <v>2</v>
       </c>
-      <c r="B14" s="1">
-        <v>0</v>
-      </c>
-      <c r="C14" s="1">
-        <v>0</v>
-      </c>
-      <c r="D14" s="1">
-        <v>0</v>
+      <c r="B14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F14" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G14" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J14" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M14" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N14" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O14" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P14" s="1">
         <v>2</v>
@@ -1809,11 +2200,11 @@
       <c r="F15" s="1">
         <v>0</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>19</v>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0</v>
       </c>
       <c r="I15" s="1">
         <v>0</v>
@@ -1895,7 +2286,7 @@
         <v>2</v>
       </c>
       <c r="B17" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C17" s="1">
         <v>0</v>
@@ -1994,11 +2385,11 @@
       <c r="A19" s="1">
         <v>2</v>
       </c>
-      <c r="B19" s="1">
-        <v>0</v>
-      </c>
-      <c r="C19" s="1">
-        <v>0</v>
+      <c r="B19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="D19" s="1">
         <v>0</v>
@@ -2021,11 +2412,11 @@
       <c r="J19" s="1">
         <v>0</v>
       </c>
-      <c r="K19" s="1">
-        <v>0</v>
-      </c>
-      <c r="L19" s="1">
-        <v>0</v>
+      <c r="K19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="M19" s="1">
         <v>0</v>
@@ -2062,11 +2453,11 @@
       <c r="G20" s="1">
         <v>0</v>
       </c>
-      <c r="H20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>18</v>
+      <c r="H20" s="1">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0</v>
       </c>
       <c r="J20" s="1">
         <v>0</v>
@@ -2128,7 +2519,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N21" s="1">
         <v>0</v>
@@ -2195,46 +2586,46 @@
         <v>2</v>
       </c>
       <c r="B23" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C23" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D23" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E23" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G23" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H23" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J23" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N23" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O23" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
         <v>2</v>
@@ -2244,38 +2635,38 @@
       <c r="A24" s="1">
         <v>2</v>
       </c>
-      <c r="B24" s="1">
-        <v>0</v>
-      </c>
-      <c r="C24" s="1">
-        <v>0</v>
-      </c>
-      <c r="D24" s="1">
-        <v>0</v>
-      </c>
-      <c r="E24" s="1">
-        <v>0</v>
-      </c>
-      <c r="F24" s="1">
-        <v>0</v>
-      </c>
-      <c r="G24" s="1">
-        <v>0</v>
-      </c>
-      <c r="H24" s="1">
-        <v>0</v>
-      </c>
-      <c r="I24" s="1">
-        <v>0</v>
-      </c>
-      <c r="J24" s="1">
-        <v>0</v>
-      </c>
-      <c r="K24" s="1">
-        <v>0</v>
-      </c>
-      <c r="L24" s="1">
-        <v>0</v>
+      <c r="B24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="M24" s="1">
         <v>0</v>
@@ -2295,37 +2686,37 @@
         <v>2</v>
       </c>
       <c r="B25" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C25" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D25" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E25" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F25" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G25" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H25" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J25" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K25" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L25" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M25" s="1">
         <v>0</v>
@@ -2359,8 +2750,8 @@
       <c r="F26" s="1">
         <v>0</v>
       </c>
-      <c r="G26" s="1" t="s">
-        <v>2</v>
+      <c r="G26" s="1">
+        <v>0</v>
       </c>
       <c r="H26" s="1">
         <v>0</v>
@@ -2368,8 +2759,8 @@
       <c r="I26" s="1">
         <v>0</v>
       </c>
-      <c r="J26" s="1" t="s">
-        <v>2</v>
+      <c r="J26" s="1">
+        <v>0</v>
       </c>
       <c r="K26" s="1">
         <v>0</v>
@@ -2384,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="O26" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P26" s="1">
         <v>2</v>
@@ -2394,47 +2785,47 @@
       <c r="A27" s="1">
         <v>2</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>17</v>
+      <c r="B27" s="1">
+        <v>0</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0</v>
       </c>
       <c r="E27" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F27" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G27" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H27" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J27" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K27" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L27" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M27" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N27" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O27" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P27" s="1">
         <v>2</v>
@@ -2456,8 +2847,8 @@
       <c r="E28" s="1">
         <v>0</v>
       </c>
-      <c r="F28" s="1">
-        <v>0</v>
+      <c r="F28" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="G28" s="1">
         <v>0</v>
@@ -2468,8 +2859,8 @@
       <c r="I28" s="1">
         <v>0</v>
       </c>
-      <c r="J28" s="1">
-        <v>0</v>
+      <c r="J28" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="K28" s="1">
         <v>0</v>
@@ -2501,40 +2892,40 @@
         <v>0</v>
       </c>
       <c r="D29" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E29" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F29" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G29" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H29" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J29" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K29" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L29" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M29" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N29" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O29" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P29" s="1">
         <v>2</v>
@@ -2545,7 +2936,7 @@
         <v>2</v>
       </c>
       <c r="B30" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C30" s="1">
         <v>0</v>
@@ -2645,13 +3036,13 @@
         <v>2</v>
       </c>
       <c r="B32" s="1">
-        <v>0</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>14</v>
+        <v>2</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0</v>
       </c>
       <c r="E32" s="1">
         <v>0</v>
@@ -2662,8 +3053,8 @@
       <c r="G32" s="1">
         <v>0</v>
       </c>
-      <c r="H32" s="1">
-        <v>0</v>
+      <c r="H32" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="I32" s="1">
         <v>0</v>
@@ -2671,11 +3062,11 @@
       <c r="J32" s="1">
         <v>0</v>
       </c>
-      <c r="K32" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L32" s="1" t="s">
-        <v>13</v>
+      <c r="K32" s="1">
+        <v>0</v>
+      </c>
+      <c r="L32" s="1">
+        <v>0</v>
       </c>
       <c r="M32" s="1">
         <v>0</v>
@@ -2747,11 +3138,11 @@
       <c r="B34" s="1">
         <v>0</v>
       </c>
-      <c r="C34" s="1">
-        <v>0</v>
-      </c>
-      <c r="D34" s="1">
-        <v>0</v>
+      <c r="C34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="E34" s="1">
         <v>0</v>
@@ -2774,11 +3165,11 @@
       <c r="K34" s="1">
         <v>0</v>
       </c>
-      <c r="L34" s="1">
-        <v>0</v>
-      </c>
-      <c r="M34" s="1">
-        <v>2</v>
+      <c r="L34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="N34" s="1">
         <v>0</v>
@@ -2894,38 +3285,38 @@
       <c r="A37" s="1">
         <v>2</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K37" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L37" s="1" t="s">
-        <v>12</v>
+      <c r="B37" s="1">
+        <v>0</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0</v>
+      </c>
+      <c r="F37" s="1">
+        <v>0</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0</v>
+      </c>
+      <c r="H37" s="1">
+        <v>0</v>
+      </c>
+      <c r="I37" s="1">
+        <v>0</v>
+      </c>
+      <c r="J37" s="1">
+        <v>0</v>
+      </c>
+      <c r="K37" s="1">
+        <v>0</v>
+      </c>
+      <c r="L37" s="1">
+        <v>0</v>
       </c>
       <c r="M37" s="1">
         <v>0</v>
@@ -2945,46 +3336,46 @@
         <v>2</v>
       </c>
       <c r="B38" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C38" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D38" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E38" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F38" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G38" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H38" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J38" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K38" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L38" s="1">
         <v>2</v>
       </c>
       <c r="M38" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N38" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O38" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P38" s="1">
         <v>2</v>
@@ -3015,23 +3406,23 @@
       <c r="H39" s="1">
         <v>0</v>
       </c>
-      <c r="I39" s="1">
-        <v>0</v>
-      </c>
-      <c r="J39" s="1">
-        <v>0</v>
+      <c r="I39" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="K39" s="1">
         <v>0</v>
       </c>
       <c r="L39" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M39" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N39" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O39" s="1">
         <v>2</v>
@@ -3075,16 +3466,16 @@
         <v>0</v>
       </c>
       <c r="L40" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M40" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N40" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O40" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P40" s="1">
         <v>2</v>
@@ -3106,8 +3497,8 @@
       <c r="E41" s="1">
         <v>0</v>
       </c>
-      <c r="F41" s="1" t="s">
-        <v>2</v>
+      <c r="F41" s="1">
+        <v>0</v>
       </c>
       <c r="G41" s="1">
         <v>0</v>
@@ -3116,25 +3507,25 @@
         <v>0</v>
       </c>
       <c r="I41" s="1">
-        <v>0</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="J41" s="1">
+        <v>1</v>
       </c>
       <c r="K41" s="1">
         <v>0</v>
       </c>
       <c r="L41" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M41" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N41" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O41" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P41" s="1">
         <v>2</v>
@@ -3145,34 +3536,34 @@
         <v>2</v>
       </c>
       <c r="B42" s="1">
-        <v>2</v>
-      </c>
-      <c r="C42" s="1">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="D42" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E42" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F42" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G42" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H42" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J42" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K42" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L42" s="1">
         <v>2</v>
@@ -3187,12 +3578,303 @@
         <v>2</v>
       </c>
       <c r="P42" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>2</v>
+      </c>
+      <c r="B43" s="1">
+        <v>2</v>
+      </c>
+      <c r="C43" s="1">
+        <v>2</v>
+      </c>
+      <c r="D43" s="1">
+        <v>2</v>
+      </c>
+      <c r="E43" s="1">
+        <v>2</v>
+      </c>
+      <c r="F43" s="1">
+        <v>2</v>
+      </c>
+      <c r="G43" s="1">
+        <v>2</v>
+      </c>
+      <c r="H43" s="1">
+        <v>2</v>
+      </c>
+      <c r="I43" s="1">
+        <v>2</v>
+      </c>
+      <c r="J43" s="1">
+        <v>2</v>
+      </c>
+      <c r="K43" s="1">
+        <v>2</v>
+      </c>
+      <c r="L43" s="1">
+        <v>2</v>
+      </c>
+      <c r="M43" s="1">
+        <v>2</v>
+      </c>
+      <c r="N43" s="1">
+        <v>2</v>
+      </c>
+      <c r="O43" s="1">
+        <v>2</v>
+      </c>
+      <c r="P43" s="1">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18"/>
-  <conditionalFormatting sqref="A1 A33:G34 J33:P34 A35:P42 A51:O1048576 B33:O41 A2:P32">
+  <conditionalFormatting sqref="A1 A51:O1048576 A2:P9 D29:O29 B10:O28 A43:P43 B32 O37 L38:O42 P10:P35 P37:P42 A10:A42 O36:P36">
+    <cfRule type="cellIs" dxfId="61" priority="59" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="60" priority="60" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:P9 D29:O29 B10:O28 A43:P43 B32 O37 L38:O42 P10:P35 P37:P42 A10:A42 O36:P36">
+    <cfRule type="cellIs" dxfId="59" priority="62" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:Z1 AB1:XFD1048576 Q2:Z50 A51:Z1048576 A2:P9 D29:O29 B10:O28 A43:P43 B32 O37 L38:O42 P10:P35 P37:P42 A10:A42 O36:P36">
+    <cfRule type="beginsWith" dxfId="58" priority="57" operator="beginsWith" text="1&gt;">
+      <formula>LEFT(A1,LEN("1&gt;"))="1&gt;"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="57" priority="58" operator="beginsWith" text="3&gt;">
+      <formula>LEFT(A1,LEN("3&gt;"))="3&gt;"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB6">
+    <cfRule type="cellIs" dxfId="56" priority="61" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:XFD1048576">
+    <cfRule type="cellIs" dxfId="55" priority="56" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J39">
+    <cfRule type="cellIs" dxfId="54" priority="53" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="53" priority="54" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J39">
+    <cfRule type="cellIs" dxfId="52" priority="55" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J39">
+    <cfRule type="beginsWith" dxfId="51" priority="51" operator="beginsWith" text="1&gt;">
+      <formula>LEFT(J39,LEN("1&gt;"))="1&gt;"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="50" priority="52" operator="beginsWith" text="3&gt;">
+      <formula>LEFT(J39,LEN("3&gt;"))="3&gt;"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E39">
+    <cfRule type="cellIs" dxfId="49" priority="48" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="49" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E39">
+    <cfRule type="cellIs" dxfId="47" priority="50" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E39">
+    <cfRule type="beginsWith" dxfId="46" priority="46" operator="beginsWith" text="1&gt;">
+      <formula>LEFT(E39,LEN("1&gt;"))="1&gt;"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="45" priority="47" operator="beginsWith" text="3&gt;">
+      <formula>LEFT(E39,LEN("3&gt;"))="3&gt;"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G41">
+    <cfRule type="cellIs" dxfId="44" priority="43" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="43" priority="44" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G41">
+    <cfRule type="cellIs" dxfId="42" priority="45" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G41">
+    <cfRule type="beginsWith" dxfId="41" priority="41" operator="beginsWith" text="1&gt;">
+      <formula>LEFT(G41,LEN("1&gt;"))="1&gt;"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="40" priority="42" operator="beginsWith" text="3&gt;">
+      <formula>LEFT(G41,LEN("3&gt;"))="3&gt;"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H41">
+    <cfRule type="cellIs" dxfId="39" priority="38" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="39" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H41">
+    <cfRule type="cellIs" dxfId="37" priority="40" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H41">
+    <cfRule type="beginsWith" dxfId="36" priority="36" operator="beginsWith" text="1&gt;">
+      <formula>LEFT(H41,LEN("1&gt;"))="1&gt;"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="35" priority="37" operator="beginsWith" text="3&gt;">
+      <formula>LEFT(H41,LEN("3&gt;"))="3&gt;"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I36:I40 B41:O41 J39">
+    <cfRule type="cellIs" dxfId="34" priority="33" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="34" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I36:I40 B41:O41 J39">
+    <cfRule type="cellIs" dxfId="32" priority="35" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I36:I40 B41:O41 J39">
+    <cfRule type="beginsWith" dxfId="31" priority="31" operator="beginsWith" text="1&gt;">
+      <formula>LEFT(B36,LEN("1&gt;"))="1&gt;"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="30" priority="32" operator="beginsWith" text="3&gt;">
+      <formula>LEFT(B36,LEN("3&gt;"))="3&gt;"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C41">
+    <cfRule type="cellIs" dxfId="29" priority="28" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="29" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C41">
+    <cfRule type="cellIs" dxfId="27" priority="30" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C41">
+    <cfRule type="beginsWith" dxfId="26" priority="26" operator="beginsWith" text="1&gt;">
+      <formula>LEFT(C41,LEN("1&gt;"))="1&gt;"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="25" priority="27" operator="beginsWith" text="3&gt;">
+      <formula>LEFT(C41,LEN("3&gt;"))="3&gt;"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B36:B37">
+    <cfRule type="cellIs" dxfId="24" priority="23" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="23" priority="24" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B36:B37">
+    <cfRule type="cellIs" dxfId="22" priority="25" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B36:B37">
+    <cfRule type="beginsWith" dxfId="21" priority="21" operator="beginsWith" text="1&gt;">
+      <formula>LEFT(B36,LEN("1&gt;"))="1&gt;"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="20" priority="22" operator="beginsWith" text="3&gt;">
+      <formula>LEFT(B36,LEN("3&gt;"))="3&gt;"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H32">
+    <cfRule type="cellIs" dxfId="19" priority="18" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="19" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H32">
+    <cfRule type="cellIs" dxfId="17" priority="20" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H32">
+    <cfRule type="beginsWith" dxfId="16" priority="16" operator="beginsWith" text="1&gt;">
+      <formula>LEFT(H32,LEN("1&gt;"))="1&gt;"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="15" priority="17" operator="beginsWith" text="3&gt;">
+      <formula>LEFT(H32,LEN("3&gt;"))="3&gt;"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L34:M34">
+    <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L34:M34">
+    <cfRule type="cellIs" dxfId="12" priority="15" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L34:M34">
+    <cfRule type="beginsWith" dxfId="11" priority="11" operator="beginsWith" text="1&gt;">
+      <formula>LEFT(L34,LEN("1&gt;"))="1&gt;"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="10" priority="12" operator="beginsWith" text="3&gt;">
+      <formula>LEFT(L34,LEN("3&gt;"))="3&gt;"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C34:E34">
+    <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C34:E34">
+    <cfRule type="cellIs" dxfId="7" priority="10" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C34:E34">
+    <cfRule type="beginsWith" dxfId="6" priority="6" operator="beginsWith" text="1&gt;">
+      <formula>LEFT(C34,LEN("1&gt;"))="1&gt;"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="5" priority="7" operator="beginsWith" text="3&gt;">
+      <formula>LEFT(C34,LEN("3&gt;"))="3&gt;"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J39">
     <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -3200,22 +3882,17 @@
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:Z1 AB1:XFD1048576 A51:Z1048576 Q2:Z50 A2:P42">
-    <cfRule type="beginsWith" dxfId="2" priority="1" operator="beginsWith" text="1&gt;">
-      <formula>LEFT(A1,LEN("1&gt;"))="1&gt;"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="2" operator="beginsWith" text="3&gt;">
-      <formula>LEFT(A1,LEN("3&gt;"))="3&gt;"</formula>
+  <conditionalFormatting sqref="J39">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
+      <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:P42">
-    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB6">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
-      <formula>2</formula>
+  <conditionalFormatting sqref="J39">
+    <cfRule type="beginsWith" dxfId="1" priority="1" operator="beginsWith" text="1&gt;">
+      <formula>LEFT(J39,LEN("1&gt;"))="1&gt;"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="2" operator="beginsWith" text="3&gt;">
+      <formula>LEFT(J39,LEN("3&gt;"))="3&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/media/Maps/xlsx/TestMap.xlsx
+++ b/media/Maps/xlsx/TestMap.xlsx
@@ -8,86 +8,42 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roram\OneDrive - 学校法人新潟総合学院 学校法人国際総合学園 学校法人大彦学園\ドキュメント\wiz 授業ファイル\2024年度2年授業\後期\製作\media\Maps\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{464BF184-A23E-4067-82F4-0BA8DB52B1D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06C6EA09-F3D6-416F-BFE0-A99478384380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{A4E20948-4AF6-4F97-89F2-9813C3B26678}"/>
   </bookViews>
   <sheets>
     <sheet name="Stage02" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="3">
   <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>3&gt;range:2/power:11</t>
-  </si>
-  <si>
-    <t>3&gt;range:2/power:11</t>
+    <t>3&gt;power:11/range:3</t>
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>3&gt;range:2/power:12</t>
-  </si>
-  <si>
-    <t>3&gt;range:2/power:13</t>
-  </si>
-  <si>
-    <t>3&gt;range:2/power:14</t>
-  </si>
-  <si>
-    <t>3&gt;range:2/power:15</t>
-  </si>
-  <si>
-    <t>3&gt;range:2/power:16</t>
-  </si>
-  <si>
-    <t>3&gt;range:2/power:17</t>
-  </si>
-  <si>
-    <t>3&gt;range:2/power:18</t>
-  </si>
-  <si>
-    <t>3&gt;range:2/power:19</t>
-  </si>
-  <si>
-    <t>3&gt;range:2/power:20</t>
-  </si>
-  <si>
-    <t>3&gt;range:2/power:21</t>
-  </si>
-  <si>
-    <t>8&gt;speed:1.5/start:0^0^0/end:-3^0^0</t>
+    <t>s</t>
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>8&gt;speed:1.5/start:0^0^0/end:3^0^0</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>1&gt;hp:30</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>1&gt;hp:31</t>
-  </si>
-  <si>
-    <t>1&gt;hp:32</t>
-  </si>
-  <si>
-    <t>1&gt;hp:50</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>1&gt;hp:51</t>
-  </si>
-  <si>
-    <t>s</t>
+    <t>8&gt;speed:1.0/start:0^0^0/end:-3^0^0</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -748,7 +704,35 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="良い" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="62">
+  <dxfs count="58">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -864,6 +848,34 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="1" tint="0.499984740745262"/>
         </patternFill>
       </fill>
@@ -1011,6 +1023,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="1" tint="4.9989318521683403E-2"/>
         </patternFill>
       </fill>
@@ -1046,6 +1065,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="1" tint="4.9989318521683403E-2"/>
         </patternFill>
       </fill>
@@ -1067,119 +1107,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1513,10 +1441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F214FFB-5FC5-4EEB-876D-9E283DF04469}">
-  <dimension ref="A1:P43"/>
+  <dimension ref="A1:P102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView tabSelected="1" topLeftCell="A90" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57:P102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1527,8 +1455,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
+      <c r="A1" s="1">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1">
+        <v>2</v>
+      </c>
+      <c r="H1" s="1">
+        <v>2</v>
+      </c>
+      <c r="I1" s="1">
+        <v>2</v>
+      </c>
+      <c r="J1" s="1">
+        <v>2</v>
+      </c>
+      <c r="K1" s="1">
+        <v>2</v>
+      </c>
+      <c r="L1" s="1">
+        <v>2</v>
+      </c>
+      <c r="M1" s="1">
+        <v>2</v>
+      </c>
+      <c r="N1" s="1">
+        <v>2</v>
+      </c>
+      <c r="O1" s="1">
+        <v>2</v>
+      </c>
+      <c r="P1" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.45">
@@ -1536,46 +1509,46 @@
         <v>2</v>
       </c>
       <c r="B2" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C2" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E2" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H2" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L2" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M2" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O2" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
         <v>2</v>
@@ -1719,7 +1692,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
         <v>0</v>
@@ -1736,7 +1709,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
@@ -1748,34 +1721,34 @@
         <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H6" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L6" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M6" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O6" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
         <v>2</v>
@@ -1936,46 +1909,46 @@
         <v>2</v>
       </c>
       <c r="B10" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C10" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D10" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E10" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G10" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H10" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
         <v>2</v>
@@ -2100,8 +2073,8 @@
       <c r="F13" s="1">
         <v>0</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>2</v>
+      <c r="G13" s="1">
+        <v>0</v>
       </c>
       <c r="H13" s="1">
         <v>0</v>
@@ -2109,8 +2082,8 @@
       <c r="I13" s="1">
         <v>0</v>
       </c>
-      <c r="J13" s="1" t="s">
-        <v>2</v>
+      <c r="J13" s="1">
+        <v>0</v>
       </c>
       <c r="K13" s="1">
         <v>0</v>
@@ -2135,47 +2108,47 @@
       <c r="A14" s="1">
         <v>2</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>17</v>
+      <c r="B14" s="1">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
       </c>
       <c r="E14" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G14" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L14" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M14" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
         <v>2</v>
@@ -2286,7 +2259,7 @@
         <v>2</v>
       </c>
       <c r="B17" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C17" s="1">
         <v>0</v>
@@ -2385,11 +2358,11 @@
       <c r="A19" s="1">
         <v>2</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>14</v>
+      <c r="B19" s="1">
+        <v>0</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0</v>
       </c>
       <c r="D19" s="1">
         <v>0</v>
@@ -2412,11 +2385,11 @@
       <c r="J19" s="1">
         <v>0</v>
       </c>
-      <c r="K19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>13</v>
+      <c r="K19" s="1">
+        <v>0</v>
+      </c>
+      <c r="L19" s="1">
+        <v>0</v>
       </c>
       <c r="M19" s="1">
         <v>0</v>
@@ -2519,7 +2492,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N21" s="1">
         <v>0</v>
@@ -2635,38 +2608,38 @@
       <c r="A24" s="1">
         <v>2</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>12</v>
+      <c r="B24" s="1">
+        <v>0</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0</v>
+      </c>
+      <c r="J24" s="1">
+        <v>0</v>
+      </c>
+      <c r="K24" s="1">
+        <v>0</v>
+      </c>
+      <c r="L24" s="1">
+        <v>0</v>
       </c>
       <c r="M24" s="1">
         <v>0</v>
@@ -2686,37 +2659,37 @@
         <v>2</v>
       </c>
       <c r="B25" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C25" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D25" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E25" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G25" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H25" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J25" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L25" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M25" s="1">
         <v>0</v>
@@ -2775,7 +2748,7 @@
         <v>0</v>
       </c>
       <c r="O26" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
         <v>2</v>
@@ -2847,8 +2820,8 @@
       <c r="E28" s="1">
         <v>0</v>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>2</v>
+      <c r="F28" s="1">
+        <v>0</v>
       </c>
       <c r="G28" s="1">
         <v>0</v>
@@ -2859,8 +2832,8 @@
       <c r="I28" s="1">
         <v>0</v>
       </c>
-      <c r="J28" s="1" t="s">
-        <v>2</v>
+      <c r="J28" s="1">
+        <v>0</v>
       </c>
       <c r="K28" s="1">
         <v>0</v>
@@ -2892,40 +2865,40 @@
         <v>0</v>
       </c>
       <c r="D29" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E29" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F29" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G29" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H29" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J29" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K29" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L29" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M29" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N29" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O29" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P29" s="1">
         <v>2</v>
@@ -3036,7 +3009,7 @@
         <v>2</v>
       </c>
       <c r="B32" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C32" s="1">
         <v>0</v>
@@ -3053,8 +3026,8 @@
       <c r="G32" s="1">
         <v>0</v>
       </c>
-      <c r="H32" s="1" t="s">
-        <v>2</v>
+      <c r="H32" s="1">
+        <v>0</v>
       </c>
       <c r="I32" s="1">
         <v>0</v>
@@ -3138,11 +3111,11 @@
       <c r="B34" s="1">
         <v>0</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>14</v>
+      <c r="C34" s="1">
+        <v>0</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0</v>
       </c>
       <c r="E34" s="1">
         <v>0</v>
@@ -3165,11 +3138,11 @@
       <c r="K34" s="1">
         <v>0</v>
       </c>
-      <c r="L34" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M34" s="1" t="s">
-        <v>13</v>
+      <c r="L34" s="1">
+        <v>0</v>
+      </c>
+      <c r="M34" s="1">
+        <v>0</v>
       </c>
       <c r="N34" s="1">
         <v>0</v>
@@ -3366,16 +3339,16 @@
         <v>0</v>
       </c>
       <c r="L38" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M38" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N38" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O38" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P38" s="1">
         <v>2</v>
@@ -3395,25 +3368,25 @@
         <v>0</v>
       </c>
       <c r="E39" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F39" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G39" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H39" s="1">
-        <v>0</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>19</v>
+        <v>2</v>
+      </c>
+      <c r="I39" s="1">
+        <v>2</v>
+      </c>
+      <c r="J39" s="1">
+        <v>2</v>
       </c>
       <c r="K39" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L39" s="1">
         <v>2</v>
@@ -3445,25 +3418,25 @@
         <v>0</v>
       </c>
       <c r="E40" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F40" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G40" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H40" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" s="1">
-        <v>0</v>
-      </c>
-      <c r="J40" s="1">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="K40" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L40" s="1">
         <v>2</v>
@@ -3495,37 +3468,37 @@
         <v>0</v>
       </c>
       <c r="E41" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F41" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G41" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H41" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J41" s="1">
-        <v>1</v>
-      </c>
-      <c r="K41" s="1">
+        <v>2</v>
+      </c>
+      <c r="K41" s="1" t="s">
         <v>0</v>
       </c>
       <c r="L41" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M41" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N41" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O41" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P41" s="1">
         <v>2</v>
@@ -3538,8 +3511,8 @@
       <c r="B42" s="1">
         <v>0</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>20</v>
+      <c r="C42" s="1">
+        <v>0</v>
       </c>
       <c r="D42" s="1">
         <v>0</v>
@@ -3566,16 +3539,16 @@
         <v>0</v>
       </c>
       <c r="L42" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M42" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N42" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O42" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P42" s="1">
         <v>2</v>
@@ -3586,313 +3559,1689 @@
         <v>2</v>
       </c>
       <c r="B43" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C43" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D43" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E43" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F43" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G43" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H43" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J43" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K43" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L43" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M43" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N43" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O43" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P43" s="1">
         <v>2</v>
       </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>2</v>
+      </c>
+      <c r="B44" s="1">
+        <v>2</v>
+      </c>
+      <c r="C44" s="1">
+        <v>2</v>
+      </c>
+      <c r="D44" s="1">
+        <v>2</v>
+      </c>
+      <c r="E44" s="1">
+        <v>2</v>
+      </c>
+      <c r="F44" s="1">
+        <v>2</v>
+      </c>
+      <c r="G44" s="1">
+        <v>2</v>
+      </c>
+      <c r="H44" s="1">
+        <v>2</v>
+      </c>
+      <c r="I44" s="1">
+        <v>2</v>
+      </c>
+      <c r="J44" s="1">
+        <v>2</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M44" s="1">
+        <v>0</v>
+      </c>
+      <c r="N44" s="1">
+        <v>0</v>
+      </c>
+      <c r="O44" s="1">
+        <v>0</v>
+      </c>
+      <c r="P44" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>2</v>
+      </c>
+      <c r="B45" s="1">
+        <v>0</v>
+      </c>
+      <c r="C45" s="1">
+        <v>0</v>
+      </c>
+      <c r="D45" s="1">
+        <v>0</v>
+      </c>
+      <c r="E45" s="1">
+        <v>0</v>
+      </c>
+      <c r="F45" s="1">
+        <v>0</v>
+      </c>
+      <c r="G45" s="1">
+        <v>0</v>
+      </c>
+      <c r="H45" s="1">
+        <v>0</v>
+      </c>
+      <c r="I45" s="1">
+        <v>0</v>
+      </c>
+      <c r="J45" s="1">
+        <v>0</v>
+      </c>
+      <c r="K45" s="1">
+        <v>0</v>
+      </c>
+      <c r="L45" s="1">
+        <v>0</v>
+      </c>
+      <c r="M45" s="1">
+        <v>0</v>
+      </c>
+      <c r="N45" s="1">
+        <v>0</v>
+      </c>
+      <c r="O45" s="1">
+        <v>0</v>
+      </c>
+      <c r="P45" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>2</v>
+      </c>
+      <c r="B46" s="1">
+        <v>0</v>
+      </c>
+      <c r="C46" s="1">
+        <v>0</v>
+      </c>
+      <c r="D46" s="1">
+        <v>0</v>
+      </c>
+      <c r="E46" s="1">
+        <v>0</v>
+      </c>
+      <c r="F46" s="1">
+        <v>0</v>
+      </c>
+      <c r="G46" s="1">
+        <v>0</v>
+      </c>
+      <c r="H46" s="1">
+        <v>0</v>
+      </c>
+      <c r="I46" s="1">
+        <v>0</v>
+      </c>
+      <c r="J46" s="1">
+        <v>0</v>
+      </c>
+      <c r="K46" s="1">
+        <v>0</v>
+      </c>
+      <c r="L46" s="1">
+        <v>0</v>
+      </c>
+      <c r="M46" s="1">
+        <v>0</v>
+      </c>
+      <c r="N46" s="1">
+        <v>0</v>
+      </c>
+      <c r="O46" s="1">
+        <v>0</v>
+      </c>
+      <c r="P46" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>2</v>
+      </c>
+      <c r="B47" s="1">
+        <v>0</v>
+      </c>
+      <c r="C47" s="1">
+        <v>0</v>
+      </c>
+      <c r="D47" s="1">
+        <v>0</v>
+      </c>
+      <c r="E47" s="1">
+        <v>0</v>
+      </c>
+      <c r="F47" s="1">
+        <v>0</v>
+      </c>
+      <c r="G47" s="1">
+        <v>0</v>
+      </c>
+      <c r="H47" s="1">
+        <v>0</v>
+      </c>
+      <c r="I47" s="1">
+        <v>0</v>
+      </c>
+      <c r="J47" s="1">
+        <v>0</v>
+      </c>
+      <c r="K47" s="1">
+        <v>0</v>
+      </c>
+      <c r="L47" s="1">
+        <v>0</v>
+      </c>
+      <c r="M47" s="1">
+        <v>0</v>
+      </c>
+      <c r="N47" s="1">
+        <v>0</v>
+      </c>
+      <c r="O47" s="1">
+        <v>0</v>
+      </c>
+      <c r="P47" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>2</v>
+      </c>
+      <c r="B48" s="1">
+        <v>0</v>
+      </c>
+      <c r="C48" s="1">
+        <v>0</v>
+      </c>
+      <c r="D48" s="1">
+        <v>0</v>
+      </c>
+      <c r="E48" s="1">
+        <v>0</v>
+      </c>
+      <c r="F48" s="1">
+        <v>0</v>
+      </c>
+      <c r="G48" s="1">
+        <v>0</v>
+      </c>
+      <c r="H48" s="1">
+        <v>0</v>
+      </c>
+      <c r="I48" s="1">
+        <v>0</v>
+      </c>
+      <c r="J48" s="1">
+        <v>0</v>
+      </c>
+      <c r="K48" s="1">
+        <v>0</v>
+      </c>
+      <c r="L48" s="1">
+        <v>0</v>
+      </c>
+      <c r="M48" s="1">
+        <v>0</v>
+      </c>
+      <c r="N48" s="1">
+        <v>0</v>
+      </c>
+      <c r="O48" s="1">
+        <v>0</v>
+      </c>
+      <c r="P48" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>2</v>
+      </c>
+      <c r="B49" s="1">
+        <v>0</v>
+      </c>
+      <c r="C49" s="1">
+        <v>0</v>
+      </c>
+      <c r="D49" s="1">
+        <v>0</v>
+      </c>
+      <c r="E49" s="1">
+        <v>0</v>
+      </c>
+      <c r="F49" s="1">
+        <v>0</v>
+      </c>
+      <c r="G49" s="1">
+        <v>0</v>
+      </c>
+      <c r="H49" s="1">
+        <v>0</v>
+      </c>
+      <c r="I49" s="1">
+        <v>0</v>
+      </c>
+      <c r="J49" s="1">
+        <v>0</v>
+      </c>
+      <c r="K49" s="1">
+        <v>0</v>
+      </c>
+      <c r="L49" s="1">
+        <v>0</v>
+      </c>
+      <c r="M49" s="1">
+        <v>0</v>
+      </c>
+      <c r="N49" s="1">
+        <v>0</v>
+      </c>
+      <c r="O49" s="1">
+        <v>0</v>
+      </c>
+      <c r="P49" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>2</v>
+      </c>
+      <c r="B50" s="1">
+        <v>0</v>
+      </c>
+      <c r="C50" s="1">
+        <v>0</v>
+      </c>
+      <c r="D50" s="1">
+        <v>0</v>
+      </c>
+      <c r="E50" s="1">
+        <v>0</v>
+      </c>
+      <c r="F50" s="1">
+        <v>0</v>
+      </c>
+      <c r="G50" s="1">
+        <v>0</v>
+      </c>
+      <c r="H50" s="1">
+        <v>0</v>
+      </c>
+      <c r="I50" s="1">
+        <v>0</v>
+      </c>
+      <c r="J50" s="1">
+        <v>0</v>
+      </c>
+      <c r="K50" s="1">
+        <v>0</v>
+      </c>
+      <c r="L50" s="1">
+        <v>2</v>
+      </c>
+      <c r="M50" s="1">
+        <v>2</v>
+      </c>
+      <c r="N50" s="1">
+        <v>2</v>
+      </c>
+      <c r="O50" s="1">
+        <v>2</v>
+      </c>
+      <c r="P50" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>2</v>
+      </c>
+      <c r="B51" s="1">
+        <v>0</v>
+      </c>
+      <c r="C51" s="1">
+        <v>0</v>
+      </c>
+      <c r="D51" s="1">
+        <v>0</v>
+      </c>
+      <c r="E51" s="1">
+        <v>0</v>
+      </c>
+      <c r="F51" s="1">
+        <v>0</v>
+      </c>
+      <c r="G51" s="1">
+        <v>0</v>
+      </c>
+      <c r="H51" s="1">
+        <v>0</v>
+      </c>
+      <c r="I51" s="1">
+        <v>0</v>
+      </c>
+      <c r="J51" s="1">
+        <v>0</v>
+      </c>
+      <c r="K51" s="1">
+        <v>0</v>
+      </c>
+      <c r="L51" s="1">
+        <v>0</v>
+      </c>
+      <c r="M51" s="1">
+        <v>0</v>
+      </c>
+      <c r="N51" s="1">
+        <v>0</v>
+      </c>
+      <c r="O51" s="1">
+        <v>0</v>
+      </c>
+      <c r="P51" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>2</v>
+      </c>
+      <c r="B52" s="1">
+        <v>0</v>
+      </c>
+      <c r="C52" s="1">
+        <v>0</v>
+      </c>
+      <c r="D52" s="1">
+        <v>0</v>
+      </c>
+      <c r="E52" s="1">
+        <v>0</v>
+      </c>
+      <c r="F52" s="1">
+        <v>0</v>
+      </c>
+      <c r="G52" s="1">
+        <v>0</v>
+      </c>
+      <c r="H52" s="1">
+        <v>0</v>
+      </c>
+      <c r="I52" s="1">
+        <v>0</v>
+      </c>
+      <c r="J52" s="1">
+        <v>0</v>
+      </c>
+      <c r="K52" s="1">
+        <v>0</v>
+      </c>
+      <c r="L52" s="1">
+        <v>0</v>
+      </c>
+      <c r="M52" s="1">
+        <v>0</v>
+      </c>
+      <c r="N52" s="1">
+        <v>0</v>
+      </c>
+      <c r="O52" s="1">
+        <v>0</v>
+      </c>
+      <c r="P52" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>2</v>
+      </c>
+      <c r="B53" s="1">
+        <v>0</v>
+      </c>
+      <c r="C53" s="1">
+        <v>0</v>
+      </c>
+      <c r="D53" s="1">
+        <v>0</v>
+      </c>
+      <c r="E53" s="1">
+        <v>0</v>
+      </c>
+      <c r="F53" s="1">
+        <v>0</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L53" s="1">
+        <v>0</v>
+      </c>
+      <c r="M53" s="1">
+        <v>0</v>
+      </c>
+      <c r="N53" s="1">
+        <v>0</v>
+      </c>
+      <c r="O53" s="1">
+        <v>0</v>
+      </c>
+      <c r="P53" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>2</v>
+      </c>
+      <c r="B54" s="1">
+        <v>0</v>
+      </c>
+      <c r="C54" s="1">
+        <v>0</v>
+      </c>
+      <c r="D54" s="1">
+        <v>0</v>
+      </c>
+      <c r="E54" s="1">
+        <v>0</v>
+      </c>
+      <c r="F54" s="1">
+        <v>0</v>
+      </c>
+      <c r="G54" s="1">
+        <v>0</v>
+      </c>
+      <c r="H54" s="1">
+        <v>0</v>
+      </c>
+      <c r="I54" s="1">
+        <v>0</v>
+      </c>
+      <c r="J54" s="1">
+        <v>0</v>
+      </c>
+      <c r="K54" s="1">
+        <v>0</v>
+      </c>
+      <c r="L54" s="1">
+        <v>0</v>
+      </c>
+      <c r="M54" s="1">
+        <v>0</v>
+      </c>
+      <c r="N54" s="1">
+        <v>0</v>
+      </c>
+      <c r="O54" s="1">
+        <v>0</v>
+      </c>
+      <c r="P54" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>2</v>
+      </c>
+      <c r="B55" s="1">
+        <v>0</v>
+      </c>
+      <c r="C55" s="1">
+        <v>0</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E55" s="1">
+        <v>0</v>
+      </c>
+      <c r="F55" s="1">
+        <v>0</v>
+      </c>
+      <c r="G55" s="1">
+        <v>0</v>
+      </c>
+      <c r="H55" s="1">
+        <v>0</v>
+      </c>
+      <c r="I55" s="1">
+        <v>0</v>
+      </c>
+      <c r="J55" s="1">
+        <v>0</v>
+      </c>
+      <c r="K55" s="1">
+        <v>0</v>
+      </c>
+      <c r="L55" s="1">
+        <v>0</v>
+      </c>
+      <c r="M55" s="1">
+        <v>0</v>
+      </c>
+      <c r="N55" s="1">
+        <v>0</v>
+      </c>
+      <c r="O55" s="1">
+        <v>0</v>
+      </c>
+      <c r="P55" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>2</v>
+      </c>
+      <c r="B56" s="1">
+        <v>2</v>
+      </c>
+      <c r="C56" s="1">
+        <v>2</v>
+      </c>
+      <c r="D56" s="1">
+        <v>2</v>
+      </c>
+      <c r="E56" s="1">
+        <v>2</v>
+      </c>
+      <c r="F56" s="1">
+        <v>2</v>
+      </c>
+      <c r="G56" s="1">
+        <v>2</v>
+      </c>
+      <c r="H56" s="1">
+        <v>2</v>
+      </c>
+      <c r="I56" s="1">
+        <v>2</v>
+      </c>
+      <c r="J56" s="1">
+        <v>2</v>
+      </c>
+      <c r="K56" s="1">
+        <v>2</v>
+      </c>
+      <c r="L56" s="1">
+        <v>2</v>
+      </c>
+      <c r="M56" s="1">
+        <v>2</v>
+      </c>
+      <c r="N56" s="1">
+        <v>2</v>
+      </c>
+      <c r="O56" s="1">
+        <v>2</v>
+      </c>
+      <c r="P56" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A57"/>
+      <c r="B57"/>
+      <c r="C57"/>
+      <c r="D57"/>
+      <c r="E57"/>
+      <c r="F57"/>
+      <c r="G57"/>
+      <c r="H57"/>
+      <c r="I57"/>
+      <c r="J57"/>
+      <c r="K57"/>
+      <c r="L57"/>
+      <c r="M57"/>
+      <c r="N57"/>
+      <c r="O57"/>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A58"/>
+      <c r="B58"/>
+      <c r="C58"/>
+      <c r="D58"/>
+      <c r="E58"/>
+      <c r="F58"/>
+      <c r="G58"/>
+      <c r="H58"/>
+      <c r="I58"/>
+      <c r="J58"/>
+      <c r="K58"/>
+      <c r="L58"/>
+      <c r="M58"/>
+      <c r="N58"/>
+      <c r="O58"/>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A59"/>
+      <c r="B59"/>
+      <c r="C59"/>
+      <c r="D59"/>
+      <c r="E59"/>
+      <c r="F59"/>
+      <c r="G59"/>
+      <c r="H59"/>
+      <c r="I59"/>
+      <c r="J59"/>
+      <c r="K59"/>
+      <c r="L59"/>
+      <c r="M59"/>
+      <c r="N59"/>
+      <c r="O59"/>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A60"/>
+      <c r="B60"/>
+      <c r="C60"/>
+      <c r="D60"/>
+      <c r="E60"/>
+      <c r="F60"/>
+      <c r="G60"/>
+      <c r="H60"/>
+      <c r="I60"/>
+      <c r="J60"/>
+      <c r="K60"/>
+      <c r="L60"/>
+      <c r="M60"/>
+      <c r="N60"/>
+      <c r="O60"/>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A61"/>
+      <c r="B61"/>
+      <c r="C61"/>
+      <c r="D61"/>
+      <c r="E61"/>
+      <c r="F61"/>
+      <c r="G61"/>
+      <c r="H61"/>
+      <c r="I61"/>
+      <c r="J61"/>
+      <c r="K61"/>
+      <c r="L61"/>
+      <c r="M61"/>
+      <c r="N61"/>
+      <c r="O61"/>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A62"/>
+      <c r="B62"/>
+      <c r="C62"/>
+      <c r="D62"/>
+      <c r="E62"/>
+      <c r="F62"/>
+      <c r="G62"/>
+      <c r="H62"/>
+      <c r="I62"/>
+      <c r="J62"/>
+      <c r="K62"/>
+      <c r="L62"/>
+      <c r="M62"/>
+      <c r="N62"/>
+      <c r="O62"/>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A63"/>
+      <c r="B63"/>
+      <c r="C63"/>
+      <c r="D63"/>
+      <c r="E63"/>
+      <c r="F63"/>
+      <c r="G63"/>
+      <c r="H63"/>
+      <c r="I63"/>
+      <c r="J63"/>
+      <c r="K63"/>
+      <c r="L63"/>
+      <c r="M63"/>
+      <c r="N63"/>
+      <c r="O63"/>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A64"/>
+      <c r="B64"/>
+      <c r="C64"/>
+      <c r="D64"/>
+      <c r="E64"/>
+      <c r="F64"/>
+      <c r="G64"/>
+      <c r="H64"/>
+      <c r="I64"/>
+      <c r="J64"/>
+      <c r="K64"/>
+      <c r="L64"/>
+      <c r="M64"/>
+      <c r="N64"/>
+      <c r="O64"/>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A65"/>
+      <c r="B65"/>
+      <c r="C65"/>
+      <c r="D65"/>
+      <c r="E65"/>
+      <c r="F65"/>
+      <c r="G65"/>
+      <c r="H65"/>
+      <c r="I65"/>
+      <c r="J65"/>
+      <c r="K65"/>
+      <c r="L65"/>
+      <c r="M65"/>
+      <c r="N65"/>
+      <c r="O65"/>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A66"/>
+      <c r="B66"/>
+      <c r="C66"/>
+      <c r="D66"/>
+      <c r="E66"/>
+      <c r="F66"/>
+      <c r="G66"/>
+      <c r="H66"/>
+      <c r="I66"/>
+      <c r="J66"/>
+      <c r="K66"/>
+      <c r="L66"/>
+      <c r="M66"/>
+      <c r="N66"/>
+      <c r="O66"/>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A67"/>
+      <c r="B67"/>
+      <c r="C67"/>
+      <c r="D67"/>
+      <c r="E67"/>
+      <c r="F67"/>
+      <c r="G67"/>
+      <c r="H67"/>
+      <c r="I67"/>
+      <c r="J67"/>
+      <c r="K67"/>
+      <c r="L67"/>
+      <c r="M67"/>
+      <c r="N67"/>
+      <c r="O67"/>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A68"/>
+      <c r="B68"/>
+      <c r="C68"/>
+      <c r="D68"/>
+      <c r="E68"/>
+      <c r="F68"/>
+      <c r="G68"/>
+      <c r="H68"/>
+      <c r="I68"/>
+      <c r="J68"/>
+      <c r="K68"/>
+      <c r="L68"/>
+      <c r="M68"/>
+      <c r="N68"/>
+      <c r="O68"/>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A69"/>
+      <c r="B69"/>
+      <c r="C69"/>
+      <c r="D69"/>
+      <c r="E69"/>
+      <c r="F69"/>
+      <c r="G69"/>
+      <c r="H69"/>
+      <c r="I69"/>
+      <c r="J69"/>
+      <c r="K69"/>
+      <c r="L69"/>
+      <c r="M69"/>
+      <c r="N69"/>
+      <c r="O69"/>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A70"/>
+      <c r="B70"/>
+      <c r="C70"/>
+      <c r="D70"/>
+      <c r="E70"/>
+      <c r="F70"/>
+      <c r="G70"/>
+      <c r="H70"/>
+      <c r="I70"/>
+      <c r="J70"/>
+      <c r="K70"/>
+      <c r="L70"/>
+      <c r="M70"/>
+      <c r="N70"/>
+      <c r="O70"/>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A71"/>
+      <c r="B71"/>
+      <c r="C71"/>
+      <c r="D71"/>
+      <c r="E71"/>
+      <c r="F71"/>
+      <c r="G71"/>
+      <c r="H71"/>
+      <c r="I71"/>
+      <c r="J71"/>
+      <c r="K71"/>
+      <c r="L71"/>
+      <c r="M71"/>
+      <c r="N71"/>
+      <c r="O71"/>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A72"/>
+      <c r="B72"/>
+      <c r="C72"/>
+      <c r="D72"/>
+      <c r="E72"/>
+      <c r="F72"/>
+      <c r="G72"/>
+      <c r="H72"/>
+      <c r="I72"/>
+      <c r="J72"/>
+      <c r="K72"/>
+      <c r="L72"/>
+      <c r="M72"/>
+      <c r="N72"/>
+      <c r="O72"/>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A73"/>
+      <c r="B73"/>
+      <c r="C73"/>
+      <c r="D73"/>
+      <c r="E73"/>
+      <c r="F73"/>
+      <c r="G73"/>
+      <c r="H73"/>
+      <c r="I73"/>
+      <c r="J73"/>
+      <c r="K73"/>
+      <c r="L73"/>
+      <c r="M73"/>
+      <c r="N73"/>
+      <c r="O73"/>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A74"/>
+      <c r="B74"/>
+      <c r="C74"/>
+      <c r="D74"/>
+      <c r="E74"/>
+      <c r="F74"/>
+      <c r="G74"/>
+      <c r="H74"/>
+      <c r="I74"/>
+      <c r="J74"/>
+      <c r="K74"/>
+      <c r="L74"/>
+      <c r="M74"/>
+      <c r="N74"/>
+      <c r="O74"/>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A75"/>
+      <c r="B75"/>
+      <c r="C75"/>
+      <c r="D75"/>
+      <c r="E75"/>
+      <c r="F75"/>
+      <c r="G75"/>
+      <c r="H75"/>
+      <c r="I75"/>
+      <c r="J75"/>
+      <c r="K75"/>
+      <c r="L75"/>
+      <c r="M75"/>
+      <c r="N75"/>
+      <c r="O75"/>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A76"/>
+      <c r="B76"/>
+      <c r="C76"/>
+      <c r="D76"/>
+      <c r="E76"/>
+      <c r="F76"/>
+      <c r="G76"/>
+      <c r="H76"/>
+      <c r="I76"/>
+      <c r="J76"/>
+      <c r="K76"/>
+      <c r="L76"/>
+      <c r="M76"/>
+      <c r="N76"/>
+      <c r="O76"/>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A77"/>
+      <c r="B77"/>
+      <c r="C77"/>
+      <c r="D77"/>
+      <c r="E77"/>
+      <c r="F77"/>
+      <c r="G77"/>
+      <c r="H77"/>
+      <c r="I77"/>
+      <c r="J77"/>
+      <c r="K77"/>
+      <c r="L77"/>
+      <c r="M77"/>
+      <c r="N77"/>
+      <c r="O77"/>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A78"/>
+      <c r="B78"/>
+      <c r="C78"/>
+      <c r="D78"/>
+      <c r="E78"/>
+      <c r="F78"/>
+      <c r="G78"/>
+      <c r="H78"/>
+      <c r="I78"/>
+      <c r="J78"/>
+      <c r="K78"/>
+      <c r="L78"/>
+      <c r="M78"/>
+      <c r="N78"/>
+      <c r="O78"/>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A79"/>
+      <c r="B79"/>
+      <c r="C79"/>
+      <c r="D79"/>
+      <c r="E79"/>
+      <c r="F79"/>
+      <c r="G79"/>
+      <c r="H79"/>
+      <c r="I79"/>
+      <c r="J79"/>
+      <c r="K79"/>
+      <c r="L79"/>
+      <c r="M79"/>
+      <c r="N79"/>
+      <c r="O79"/>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A80"/>
+      <c r="B80"/>
+      <c r="C80"/>
+      <c r="D80"/>
+      <c r="E80"/>
+      <c r="F80"/>
+      <c r="G80"/>
+      <c r="H80"/>
+      <c r="I80"/>
+      <c r="J80"/>
+      <c r="K80"/>
+      <c r="L80"/>
+      <c r="M80"/>
+      <c r="N80"/>
+      <c r="O80"/>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A81"/>
+      <c r="B81"/>
+      <c r="C81"/>
+      <c r="D81"/>
+      <c r="E81"/>
+      <c r="F81"/>
+      <c r="G81"/>
+      <c r="H81"/>
+      <c r="I81"/>
+      <c r="J81"/>
+      <c r="K81"/>
+      <c r="L81"/>
+      <c r="M81"/>
+      <c r="N81"/>
+      <c r="O81"/>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A82"/>
+      <c r="B82"/>
+      <c r="C82"/>
+      <c r="D82"/>
+      <c r="E82"/>
+      <c r="F82"/>
+      <c r="G82"/>
+      <c r="H82"/>
+      <c r="I82"/>
+      <c r="J82"/>
+      <c r="K82"/>
+      <c r="L82"/>
+      <c r="M82"/>
+      <c r="N82"/>
+      <c r="O82"/>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A83"/>
+      <c r="B83"/>
+      <c r="C83"/>
+      <c r="D83"/>
+      <c r="E83"/>
+      <c r="F83"/>
+      <c r="G83"/>
+      <c r="H83"/>
+      <c r="I83"/>
+      <c r="J83"/>
+      <c r="K83"/>
+      <c r="L83"/>
+      <c r="M83"/>
+      <c r="N83"/>
+      <c r="O83"/>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A84"/>
+      <c r="B84"/>
+      <c r="C84"/>
+      <c r="D84"/>
+      <c r="E84"/>
+      <c r="F84"/>
+      <c r="G84"/>
+      <c r="H84"/>
+      <c r="I84"/>
+      <c r="J84"/>
+      <c r="K84"/>
+      <c r="L84"/>
+      <c r="M84"/>
+      <c r="N84"/>
+      <c r="O84"/>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A85"/>
+      <c r="B85"/>
+      <c r="C85"/>
+      <c r="D85"/>
+      <c r="E85"/>
+      <c r="F85"/>
+      <c r="G85"/>
+      <c r="H85"/>
+      <c r="I85"/>
+      <c r="J85"/>
+      <c r="K85"/>
+      <c r="L85"/>
+      <c r="M85"/>
+      <c r="N85"/>
+      <c r="O85"/>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A86"/>
+      <c r="B86"/>
+      <c r="C86"/>
+      <c r="D86"/>
+      <c r="E86"/>
+      <c r="F86"/>
+      <c r="G86"/>
+      <c r="H86"/>
+      <c r="I86"/>
+      <c r="J86"/>
+      <c r="K86"/>
+      <c r="L86"/>
+      <c r="M86"/>
+      <c r="N86"/>
+      <c r="O86"/>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A87"/>
+      <c r="B87"/>
+      <c r="C87"/>
+      <c r="D87"/>
+      <c r="E87"/>
+      <c r="F87"/>
+      <c r="G87"/>
+      <c r="H87"/>
+      <c r="I87"/>
+      <c r="J87"/>
+      <c r="K87"/>
+      <c r="L87"/>
+      <c r="M87"/>
+      <c r="N87"/>
+      <c r="O87"/>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A88"/>
+      <c r="B88"/>
+      <c r="C88"/>
+      <c r="D88"/>
+      <c r="E88"/>
+      <c r="F88"/>
+      <c r="G88"/>
+      <c r="H88"/>
+      <c r="I88"/>
+      <c r="J88"/>
+      <c r="K88"/>
+      <c r="L88"/>
+      <c r="M88"/>
+      <c r="N88"/>
+      <c r="O88"/>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A89"/>
+      <c r="B89"/>
+      <c r="C89"/>
+      <c r="D89"/>
+      <c r="E89"/>
+      <c r="F89"/>
+      <c r="G89"/>
+      <c r="H89"/>
+      <c r="I89"/>
+      <c r="J89"/>
+      <c r="K89"/>
+      <c r="L89"/>
+      <c r="M89"/>
+      <c r="N89"/>
+      <c r="O89"/>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A90"/>
+      <c r="B90"/>
+      <c r="C90"/>
+      <c r="D90"/>
+      <c r="E90"/>
+      <c r="F90"/>
+      <c r="G90"/>
+      <c r="H90"/>
+      <c r="I90"/>
+      <c r="J90"/>
+      <c r="K90"/>
+      <c r="L90"/>
+      <c r="M90"/>
+      <c r="N90"/>
+      <c r="O90"/>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A91"/>
+      <c r="B91"/>
+      <c r="C91"/>
+      <c r="D91"/>
+      <c r="E91"/>
+      <c r="F91"/>
+      <c r="G91"/>
+      <c r="H91"/>
+      <c r="I91"/>
+      <c r="J91"/>
+      <c r="K91"/>
+      <c r="L91"/>
+      <c r="M91"/>
+      <c r="N91"/>
+      <c r="O91"/>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A92"/>
+      <c r="B92"/>
+      <c r="C92"/>
+      <c r="D92"/>
+      <c r="E92"/>
+      <c r="F92"/>
+      <c r="G92"/>
+      <c r="H92"/>
+      <c r="I92"/>
+      <c r="J92"/>
+      <c r="K92"/>
+      <c r="L92"/>
+      <c r="M92"/>
+      <c r="N92"/>
+      <c r="O92"/>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A93"/>
+      <c r="B93"/>
+      <c r="C93"/>
+      <c r="D93"/>
+      <c r="E93"/>
+      <c r="F93"/>
+      <c r="G93"/>
+      <c r="H93"/>
+      <c r="I93"/>
+      <c r="J93"/>
+      <c r="K93"/>
+      <c r="L93"/>
+      <c r="M93"/>
+      <c r="N93"/>
+      <c r="O93"/>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A94"/>
+      <c r="B94"/>
+      <c r="C94"/>
+      <c r="D94"/>
+      <c r="E94"/>
+      <c r="F94"/>
+      <c r="G94"/>
+      <c r="H94"/>
+      <c r="I94"/>
+      <c r="J94"/>
+      <c r="K94"/>
+      <c r="L94"/>
+      <c r="M94"/>
+      <c r="N94"/>
+      <c r="O94"/>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A95"/>
+      <c r="B95"/>
+      <c r="C95"/>
+      <c r="D95"/>
+      <c r="E95"/>
+      <c r="F95"/>
+      <c r="G95"/>
+      <c r="H95"/>
+      <c r="I95"/>
+      <c r="J95"/>
+      <c r="K95"/>
+      <c r="L95"/>
+      <c r="M95"/>
+      <c r="N95"/>
+      <c r="O95"/>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A96"/>
+      <c r="B96"/>
+      <c r="C96"/>
+      <c r="D96"/>
+      <c r="E96"/>
+      <c r="F96"/>
+      <c r="G96"/>
+      <c r="H96"/>
+      <c r="I96"/>
+      <c r="J96"/>
+      <c r="K96"/>
+      <c r="L96"/>
+      <c r="M96"/>
+      <c r="N96"/>
+      <c r="O96"/>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A97"/>
+      <c r="B97"/>
+      <c r="C97"/>
+      <c r="D97"/>
+      <c r="E97"/>
+      <c r="F97"/>
+      <c r="G97"/>
+      <c r="H97"/>
+      <c r="I97"/>
+      <c r="J97"/>
+      <c r="K97"/>
+      <c r="L97"/>
+      <c r="M97"/>
+      <c r="N97"/>
+      <c r="O97"/>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A98"/>
+      <c r="B98"/>
+      <c r="C98"/>
+      <c r="D98"/>
+      <c r="E98"/>
+      <c r="F98"/>
+      <c r="G98"/>
+      <c r="H98"/>
+      <c r="I98"/>
+      <c r="J98"/>
+      <c r="K98"/>
+      <c r="L98"/>
+      <c r="M98"/>
+      <c r="N98"/>
+      <c r="O98"/>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A99"/>
+      <c r="B99"/>
+      <c r="C99"/>
+      <c r="D99"/>
+      <c r="E99"/>
+      <c r="F99"/>
+      <c r="G99"/>
+      <c r="H99"/>
+      <c r="I99"/>
+      <c r="J99"/>
+      <c r="K99"/>
+      <c r="L99"/>
+      <c r="M99"/>
+      <c r="N99"/>
+      <c r="O99"/>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A100"/>
+      <c r="B100"/>
+      <c r="C100"/>
+      <c r="D100"/>
+      <c r="E100"/>
+      <c r="F100"/>
+      <c r="G100"/>
+      <c r="H100"/>
+      <c r="I100"/>
+      <c r="J100"/>
+      <c r="K100"/>
+      <c r="L100"/>
+      <c r="M100"/>
+      <c r="N100"/>
+      <c r="O100"/>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A101"/>
+      <c r="B101"/>
+      <c r="C101"/>
+      <c r="D101"/>
+      <c r="E101"/>
+      <c r="F101"/>
+      <c r="G101"/>
+      <c r="H101"/>
+      <c r="I101"/>
+      <c r="J101"/>
+      <c r="K101"/>
+      <c r="L101"/>
+      <c r="M101"/>
+      <c r="N101"/>
+      <c r="O101"/>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A102"/>
+      <c r="B102"/>
+      <c r="C102"/>
+      <c r="D102"/>
+      <c r="E102"/>
+      <c r="F102"/>
+      <c r="G102"/>
+      <c r="H102"/>
+      <c r="I102"/>
+      <c r="J102"/>
+      <c r="K102"/>
+      <c r="L102"/>
+      <c r="M102"/>
+      <c r="N102"/>
+      <c r="O102"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18"/>
-  <conditionalFormatting sqref="A1 A51:O1048576 A2:P9 D29:O29 B10:O28 A43:P43 B32 O37 L38:O42 P10:P35 P37:P42 A10:A42 O36:P36">
-    <cfRule type="cellIs" dxfId="61" priority="59" operator="equal">
+  <conditionalFormatting sqref="A1:P55">
+    <cfRule type="cellIs" dxfId="57" priority="63" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:P56 A51:O1048576">
+    <cfRule type="cellIs" dxfId="56" priority="60" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="61" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:P9 D29:O29 B10:O28 A43:P43 B32 O37 L38:O42 P10:P35 P37:P42 A10:A42 O36:P36">
-    <cfRule type="cellIs" dxfId="59" priority="62" operator="equal">
+  <conditionalFormatting sqref="A56:P56">
+    <cfRule type="cellIs" dxfId="54" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:Z1 AB1:XFD1048576 Q2:Z50 A51:Z1048576 A2:P9 D29:O29 B10:O28 A43:P43 B32 O37 L38:O42 P10:P35 P37:P42 A10:A42 O36:P36">
-    <cfRule type="beginsWith" dxfId="58" priority="57" operator="beginsWith" text="1&gt;">
+  <conditionalFormatting sqref="A1:Z1 A1:P56 Q2:Z50 AB1:XFD56 AB103:XFD1048576 L57:XFD102 A51:Z56 A103:Z1048576 A57:J102">
+    <cfRule type="beginsWith" dxfId="53" priority="58" operator="beginsWith" text="1&gt;">
       <formula>LEFT(A1,LEN("1&gt;"))="1&gt;"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="57" priority="58" operator="beginsWith" text="3&gt;">
+    <cfRule type="beginsWith" dxfId="52" priority="59" operator="beginsWith" text="3&gt;">
       <formula>LEFT(A1,LEN("3&gt;"))="3&gt;"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:XFD1048576">
+    <cfRule type="cellIs" dxfId="51" priority="57" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B35:B36">
+    <cfRule type="beginsWith" dxfId="50" priority="22" operator="beginsWith" text="1&gt;">
+      <formula>LEFT(B35,LEN("1&gt;"))="1&gt;"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="49" priority="23" operator="beginsWith" text="3&gt;">
+      <formula>LEFT(B35,LEN("3&gt;"))="3&gt;"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="24" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="47" priority="25" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="26" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B40:D40 J38 I35:I38 I40:K40 E41:O41">
+    <cfRule type="beginsWith" dxfId="45" priority="32" operator="beginsWith" text="1&gt;">
+      <formula>LEFT(B35,LEN("1&gt;"))="1&gt;"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C40">
+    <cfRule type="beginsWith" dxfId="44" priority="27" operator="beginsWith" text="1&gt;">
+      <formula>LEFT(C40,LEN("1&gt;"))="1&gt;"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="43" priority="28" operator="beginsWith" text="3&gt;">
+      <formula>LEFT(C40,LEN("3&gt;"))="3&gt;"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="29" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="41" priority="30" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="31" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C33:E33">
+    <cfRule type="beginsWith" dxfId="39" priority="7" operator="beginsWith" text="1&gt;">
+      <formula>LEFT(C33,LEN("1&gt;"))="1&gt;"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="38" priority="8" operator="beginsWith" text="3&gt;">
+      <formula>LEFT(C33,LEN("3&gt;"))="3&gt;"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="37" priority="9" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="10" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="35" priority="11" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E38">
+    <cfRule type="beginsWith" dxfId="34" priority="47" operator="beginsWith" text="1&gt;">
+      <formula>LEFT(E38,LEN("1&gt;"))="1&gt;"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="33" priority="48" operator="beginsWith" text="3&gt;">
+      <formula>LEFT(E38,LEN("3&gt;"))="3&gt;"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="49" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="31" priority="50" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="51" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G41:H41">
+    <cfRule type="beginsWith" dxfId="29" priority="37" operator="beginsWith" text="1&gt;">
+      <formula>LEFT(G41,LEN("1&gt;"))="1&gt;"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="28" priority="38" operator="beginsWith" text="3&gt;">
+      <formula>LEFT(G41,LEN("3&gt;"))="3&gt;"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="39" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="40" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="41" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H31">
+    <cfRule type="beginsWith" dxfId="24" priority="17" operator="beginsWith" text="1&gt;">
+      <formula>LEFT(H31,LEN("1&gt;"))="1&gt;"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="23" priority="18" operator="beginsWith" text="3&gt;">
+      <formula>LEFT(H31,LEN("3&gt;"))="3&gt;"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="19" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="20" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="21" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I35:I38 J38 B40:D40 I40:K40 E41:O41">
+    <cfRule type="beginsWith" dxfId="19" priority="33" operator="beginsWith" text="3&gt;">
+      <formula>LEFT(B35,LEN("3&gt;"))="3&gt;"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="34" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="35" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="36" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J38">
+    <cfRule type="beginsWith" dxfId="15" priority="2" operator="beginsWith" text="1&gt;">
+      <formula>LEFT(J38,LEN("1&gt;"))="1&gt;"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="14" priority="3" operator="beginsWith" text="3&gt;">
+      <formula>LEFT(J38,LEN("3&gt;"))="3&gt;"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="4" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="5" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="6" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="10" priority="52" operator="beginsWith" text="1&gt;">
+      <formula>LEFT(J38,LEN("1&gt;"))="1&gt;"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="9" priority="53" operator="beginsWith" text="3&gt;">
+      <formula>LEFT(J38,LEN("3&gt;"))="3&gt;"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="54" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="55" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="56" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L33:M33">
+    <cfRule type="beginsWith" dxfId="5" priority="12" operator="beginsWith" text="1&gt;">
+      <formula>LEFT(L33,LEN("1&gt;"))="1&gt;"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="4" priority="13" operator="beginsWith" text="3&gt;">
+      <formula>LEFT(L33,LEN("3&gt;"))="3&gt;"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="14" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="15" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="16" operator="equal">
+      <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB6">
-    <cfRule type="cellIs" dxfId="56" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="62" operator="equal">
       <formula>2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="55" priority="56" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J39">
-    <cfRule type="cellIs" dxfId="54" priority="53" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="54" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J39">
-    <cfRule type="cellIs" dxfId="52" priority="55" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J39">
-    <cfRule type="beginsWith" dxfId="51" priority="51" operator="beginsWith" text="1&gt;">
-      <formula>LEFT(J39,LEN("1&gt;"))="1&gt;"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="50" priority="52" operator="beginsWith" text="3&gt;">
-      <formula>LEFT(J39,LEN("3&gt;"))="3&gt;"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" dxfId="49" priority="48" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="49" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" dxfId="47" priority="50" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E39">
-    <cfRule type="beginsWith" dxfId="46" priority="46" operator="beginsWith" text="1&gt;">
-      <formula>LEFT(E39,LEN("1&gt;"))="1&gt;"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="45" priority="47" operator="beginsWith" text="3&gt;">
-      <formula>LEFT(E39,LEN("3&gt;"))="3&gt;"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G41">
-    <cfRule type="cellIs" dxfId="44" priority="43" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="44" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G41">
-    <cfRule type="cellIs" dxfId="42" priority="45" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G41">
-    <cfRule type="beginsWith" dxfId="41" priority="41" operator="beginsWith" text="1&gt;">
-      <formula>LEFT(G41,LEN("1&gt;"))="1&gt;"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="40" priority="42" operator="beginsWith" text="3&gt;">
-      <formula>LEFT(G41,LEN("3&gt;"))="3&gt;"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H41">
-    <cfRule type="cellIs" dxfId="39" priority="38" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="39" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H41">
-    <cfRule type="cellIs" dxfId="37" priority="40" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H41">
-    <cfRule type="beginsWith" dxfId="36" priority="36" operator="beginsWith" text="1&gt;">
-      <formula>LEFT(H41,LEN("1&gt;"))="1&gt;"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="35" priority="37" operator="beginsWith" text="3&gt;">
-      <formula>LEFT(H41,LEN("3&gt;"))="3&gt;"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I36:I40 B41:O41 J39">
-    <cfRule type="cellIs" dxfId="34" priority="33" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="34" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I36:I40 B41:O41 J39">
-    <cfRule type="cellIs" dxfId="32" priority="35" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I36:I40 B41:O41 J39">
-    <cfRule type="beginsWith" dxfId="31" priority="31" operator="beginsWith" text="1&gt;">
-      <formula>LEFT(B36,LEN("1&gt;"))="1&gt;"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="30" priority="32" operator="beginsWith" text="3&gt;">
-      <formula>LEFT(B36,LEN("3&gt;"))="3&gt;"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C41">
-    <cfRule type="cellIs" dxfId="29" priority="28" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="29" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C41">
-    <cfRule type="cellIs" dxfId="27" priority="30" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C41">
-    <cfRule type="beginsWith" dxfId="26" priority="26" operator="beginsWith" text="1&gt;">
-      <formula>LEFT(C41,LEN("1&gt;"))="1&gt;"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="25" priority="27" operator="beginsWith" text="3&gt;">
-      <formula>LEFT(C41,LEN("3&gt;"))="3&gt;"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B36:B37">
-    <cfRule type="cellIs" dxfId="24" priority="23" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="24" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B36:B37">
-    <cfRule type="cellIs" dxfId="22" priority="25" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B36:B37">
-    <cfRule type="beginsWith" dxfId="21" priority="21" operator="beginsWith" text="1&gt;">
-      <formula>LEFT(B36,LEN("1&gt;"))="1&gt;"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="20" priority="22" operator="beginsWith" text="3&gt;">
-      <formula>LEFT(B36,LEN("3&gt;"))="3&gt;"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H32">
-    <cfRule type="cellIs" dxfId="19" priority="18" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="19" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H32">
-    <cfRule type="cellIs" dxfId="17" priority="20" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H32">
-    <cfRule type="beginsWith" dxfId="16" priority="16" operator="beginsWith" text="1&gt;">
-      <formula>LEFT(H32,LEN("1&gt;"))="1&gt;"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="15" priority="17" operator="beginsWith" text="3&gt;">
-      <formula>LEFT(H32,LEN("3&gt;"))="3&gt;"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L34:M34">
-    <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L34:M34">
-    <cfRule type="cellIs" dxfId="12" priority="15" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L34:M34">
-    <cfRule type="beginsWith" dxfId="11" priority="11" operator="beginsWith" text="1&gt;">
-      <formula>LEFT(L34,LEN("1&gt;"))="1&gt;"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="10" priority="12" operator="beginsWith" text="3&gt;">
-      <formula>LEFT(L34,LEN("3&gt;"))="3&gt;"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C34:E34">
-    <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C34:E34">
-    <cfRule type="cellIs" dxfId="7" priority="10" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C34:E34">
-    <cfRule type="beginsWith" dxfId="6" priority="6" operator="beginsWith" text="1&gt;">
-      <formula>LEFT(C34,LEN("1&gt;"))="1&gt;"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="5" priority="7" operator="beginsWith" text="3&gt;">
-      <formula>LEFT(C34,LEN("3&gt;"))="3&gt;"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J39">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J39">
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J39">
-    <cfRule type="beginsWith" dxfId="1" priority="1" operator="beginsWith" text="1&gt;">
-      <formula>LEFT(J39,LEN("1&gt;"))="1&gt;"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="2" operator="beginsWith" text="3&gt;">
-      <formula>LEFT(J39,LEN("3&gt;"))="3&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/media/Maps/xlsx/TestMap.xlsx
+++ b/media/Maps/xlsx/TestMap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roram\OneDrive - 学校法人新潟総合学院 学校法人国際総合学園 学校法人大彦学園\ドキュメント\wiz 授業ファイル\2024年度2年授業\後期\製作\media\Maps\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7A104B1-20E3-462E-9B3C-1BA55573868C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9434A04-0AA3-46B2-A9E4-BF7D40E616C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{A4E20948-4AF6-4F97-89F2-9813C3B26678}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>8&gt;speed:1.0/start:0^0^0/end:2^0^0</t>
+    <t>s</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -707,6 +707,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -714,6 +728,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="5"/>
         </patternFill>
       </fill>
@@ -721,6 +756,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="1" tint="4.9989318521683403E-2"/>
         </patternFill>
       </fill>
@@ -728,6 +784,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -742,6 +812,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -749,6 +833,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="5"/>
         </patternFill>
       </fill>
@@ -756,6 +861,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="1" tint="4.9989318521683403E-2"/>
         </patternFill>
       </fill>
@@ -763,6 +889,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="1" tint="0.499984740745262"/>
         </patternFill>
       </fill>
@@ -770,6 +917,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -777,6 +945,34 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="1" tint="0.499984740745262"/>
         </patternFill>
       </fill>
@@ -784,6 +980,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -791,6 +1008,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -798,6 +1036,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="5"/>
         </patternFill>
       </fill>
@@ -805,6 +1064,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="1" tint="4.9989318521683403E-2"/>
         </patternFill>
       </fill>
@@ -812,6 +1092,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="1" tint="0.499984740745262"/>
         </patternFill>
       </fill>
@@ -847,6 +1148,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="1" tint="4.9989318521683403E-2"/>
         </patternFill>
       </fill>
@@ -854,6 +1162,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -861,6 +1183,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="1" tint="4.9989318521683403E-2"/>
         </patternFill>
       </fill>
@@ -903,6 +1232,41 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="5"/>
         </patternFill>
       </fill>
@@ -911,370 +1275,6 @@
       <fill>
         <patternFill>
           <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1611,7 +1611,7 @@
   <dimension ref="A1:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="N4" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="O4" s="1">
         <v>0</v>
@@ -1859,13 +1859,13 @@
         <v>0</v>
       </c>
       <c r="M5" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O5" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
         <v>2</v>
@@ -1890,7 +1890,7 @@
       <c r="F6" s="1">
         <v>0</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="1">
         <v>0</v>
       </c>
       <c r="H6" s="1">
@@ -1978,7 +1978,7 @@
       <c r="B8" s="1">
         <v>0</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D8" s="1">
@@ -2012,7 +2012,7 @@
         <v>0</v>
       </c>
       <c r="N8" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O8" s="1">
         <v>0</v>
@@ -2038,25 +2038,25 @@
         <v>2</v>
       </c>
       <c r="F9" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G9" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H9" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L9" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M9" s="1">
         <v>2</v>
@@ -2070,21 +2070,6 @@
       <c r="P9" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="P10" s="1"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="P11" s="1"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="P12" s="1"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="P13" s="1"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="P14" s="1"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.45">
       <c r="P15" s="1"/>
@@ -2218,20 +2203,20 @@
     <row r="102" customFormat="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <phoneticPr fontId="18"/>
-  <conditionalFormatting sqref="A10:P42 A1:P8">
-    <cfRule type="cellIs" dxfId="82" priority="93" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A57:O1048576 A1:P42">
+  <conditionalFormatting sqref="A15:P42 A57:O1048576 A1:P9">
+    <cfRule type="cellIs" dxfId="82" priority="90" operator="equal">
+      <formula>0</formula>
+    </cfRule>
     <cfRule type="cellIs" dxfId="81" priority="91" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="90" operator="equal">
-      <formula>0</formula>
-    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:Z1 AB1:XFD56 Q2:Z56 A57:J102 L57:XFD102 A103:Z1048576 AB103:XFD1048576 A1:P42">
+  <conditionalFormatting sqref="A15:P42 A1:P9">
+    <cfRule type="cellIs" dxfId="80" priority="93" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:Z1 AB1:XFD56 Q2:Z56 A15:P42 A57:J102 L57:XFD102 A103:Z1048576 AB103:XFD1048576 A1:P9">
     <cfRule type="beginsWith" dxfId="79" priority="88" operator="beginsWith" text="1&gt;">
       <formula>LEFT(A1,LEN("1&gt;"))="1&gt;"</formula>
     </cfRule>
@@ -2239,265 +2224,265 @@
       <formula>LEFT(A1,LEN("3&gt;"))="3&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q43:XFD56 A57:XFD1048576 A1:XFD42">
+  <conditionalFormatting sqref="A15:XFD42 Q4:XFD14 Q43:XFD56 A57:XFD1048576 A1:XFD3 A4:P9">
     <cfRule type="cellIs" dxfId="77" priority="87" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B40:D40 E41:O41 J38:J42 I40:K40 I35:I42 I1:J8">
+  <conditionalFormatting sqref="B40:D40 E41:O41 J38:J42 I40:K40 I15:J18 I35:I42 I1:J9">
     <cfRule type="beginsWith" dxfId="76" priority="62" operator="beginsWith" text="1&gt;">
       <formula>LEFT(B1,LEN("1&gt;"))="1&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C40">
-    <cfRule type="beginsWith" dxfId="75" priority="57" operator="beginsWith" text="1&gt;">
-      <formula>LEFT(C40,LEN("1&gt;"))="1&gt;"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="61" operator="equal">
+  <conditionalFormatting sqref="B9:O9">
+    <cfRule type="cellIs" dxfId="75" priority="31" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="60" operator="equal">
-      <formula>2</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C40 E1:E9">
+    <cfRule type="beginsWith" dxfId="74" priority="57" operator="beginsWith" text="1&gt;">
+      <formula>LEFT(C1,LEN("1&gt;"))="1&gt;"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="73" priority="58" operator="beginsWith" text="3&gt;">
+      <formula>LEFT(C1,LEN("3&gt;"))="3&gt;"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="72" priority="59" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="71" priority="58" operator="beginsWith" text="3&gt;">
-      <formula>LEFT(C40,LEN("3&gt;"))="3&gt;"</formula>
+    <cfRule type="cellIs" dxfId="71" priority="60" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="70" priority="61" operator="equal">
+      <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33:E33">
-    <cfRule type="beginsWith" dxfId="70" priority="37" operator="beginsWith" text="1&gt;">
+    <cfRule type="beginsWith" dxfId="69" priority="37" operator="beginsWith" text="1&gt;">
       <formula>LEFT(C33,LEN("1&gt;"))="1&gt;"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="41" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="40" operator="equal">
-      <formula>2</formula>
+    <cfRule type="beginsWith" dxfId="68" priority="38" operator="beginsWith" text="3&gt;">
+      <formula>LEFT(C33,LEN("3&gt;"))="3&gt;"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="67" priority="39" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="66" priority="38" operator="beginsWith" text="3&gt;">
-      <formula>LEFT(C33,LEN("3&gt;"))="3&gt;"</formula>
+    <cfRule type="cellIs" dxfId="66" priority="40" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="65" priority="41" operator="equal">
+      <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:E1">
-    <cfRule type="beginsWith" dxfId="65" priority="21" operator="beginsWith" text="1&gt;">
+    <cfRule type="beginsWith" dxfId="64" priority="21" operator="beginsWith" text="1&gt;">
       <formula>LEFT(D1,LEN("1&gt;"))="1&gt;"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="64" priority="22" operator="beginsWith" text="3&gt;">
+    <cfRule type="beginsWith" dxfId="63" priority="22" operator="beginsWith" text="3&gt;">
       <formula>LEFT(D1,LEN("3&gt;"))="3&gt;"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="23" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="24" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="25" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1">
-    <cfRule type="cellIs" dxfId="60" priority="18" operator="equal">
+  <conditionalFormatting sqref="E1 J15:J18 J1:J9">
+    <cfRule type="beginsWith" dxfId="59" priority="16" operator="beginsWith" text="1&gt;">
+      <formula>LEFT(E1,LEN("1&gt;"))="1&gt;"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="58" priority="17" operator="beginsWith" text="3&gt;">
+      <formula>LEFT(E1,LEN("3&gt;"))="3&gt;"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="57" priority="18" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="19" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="20" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="57" priority="26" operator="beginsWith" text="1&gt;">
+    <cfRule type="beginsWith" dxfId="54" priority="26" operator="beginsWith" text="1&gt;">
       <formula>LEFT(E1,LEN("1&gt;"))="1&gt;"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="56" priority="27" operator="beginsWith" text="3&gt;">
+    <cfRule type="beginsWith" dxfId="53" priority="27" operator="beginsWith" text="3&gt;">
       <formula>LEFT(E1,LEN("3&gt;"))="3&gt;"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="28" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="29" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="30" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="52" priority="16" operator="beginsWith" text="1&gt;">
-      <formula>LEFT(E1,LEN("1&gt;"))="1&gt;"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="51" priority="17" operator="beginsWith" text="3&gt;">
-      <formula>LEFT(E1,LEN("3&gt;"))="3&gt;"</formula>
-    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B35:B36 E38:E42 E1:E8">
-    <cfRule type="beginsWith" dxfId="50" priority="53" operator="beginsWith" text="3&gt;">
-      <formula>LEFT(B1,LEN("3&gt;"))="3&gt;"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="54" operator="equal">
+  <conditionalFormatting sqref="E15:E18 B35:B36 E38:E42">
+    <cfRule type="beginsWith" dxfId="49" priority="52" operator="beginsWith" text="1&gt;">
+      <formula>LEFT(B15,LEN("1&gt;"))="1&gt;"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="48" priority="53" operator="beginsWith" text="3&gt;">
+      <formula>LEFT(B15,LEN("3&gt;"))="3&gt;"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="47" priority="54" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="55" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="56" operator="equal">
       <formula>1</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="46" priority="52" operator="beginsWith" text="1&gt;">
-      <formula>LEFT(B1,LEN("1&gt;"))="1&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G41:H41">
-    <cfRule type="beginsWith" dxfId="45" priority="67" operator="beginsWith" text="1&gt;">
+    <cfRule type="beginsWith" dxfId="44" priority="67" operator="beginsWith" text="1&gt;">
       <formula>LEFT(G41,LEN("1&gt;"))="1&gt;"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="44" priority="68" operator="beginsWith" text="3&gt;">
+    <cfRule type="beginsWith" dxfId="43" priority="68" operator="beginsWith" text="3&gt;">
       <formula>LEFT(G41,LEN("3&gt;"))="3&gt;"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="69" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="70" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="71" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
-    <cfRule type="beginsWith" dxfId="40" priority="48" operator="beginsWith" text="3&gt;">
+    <cfRule type="beginsWith" dxfId="39" priority="47" operator="beginsWith" text="1&gt;">
+      <formula>LEFT(H31,LEN("1&gt;"))="1&gt;"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="38" priority="48" operator="beginsWith" text="3&gt;">
       <formula>LEFT(H31,LEN("3&gt;"))="3&gt;"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="49" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="50" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="51" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="36" priority="47" operator="beginsWith" text="1&gt;">
-      <formula>LEFT(H31,LEN("1&gt;"))="1&gt;"</formula>
-    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I35:I42 J38:J42 B40:D40 I40:K40 E41:O41 I1:J8">
-    <cfRule type="beginsWith" dxfId="35" priority="63" operator="beginsWith" text="3&gt;">
+  <conditionalFormatting sqref="I15:J18 I35:I42 J38:J42 B40:D40 I40:K40 E41:O41 I1:J9">
+    <cfRule type="beginsWith" dxfId="34" priority="63" operator="beginsWith" text="3&gt;">
       <formula>LEFT(B1,LEN("3&gt;"))="3&gt;"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="64" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="65" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="66" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="64" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J38:J42">
+    <cfRule type="beginsWith" dxfId="30" priority="32" operator="beginsWith" text="1&gt;">
+      <formula>LEFT(J38,LEN("1&gt;"))="1&gt;"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="29" priority="33" operator="beginsWith" text="3&gt;">
+      <formula>LEFT(J38,LEN("3&gt;"))="3&gt;"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="34" operator="equal">
       <formula>0</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J38:J42 J1:J8">
-    <cfRule type="beginsWith" dxfId="31" priority="82" operator="beginsWith" text="1&gt;">
-      <formula>LEFT(J1,LEN("1&gt;"))="1&gt;"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="35" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="36" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="25" priority="82" operator="beginsWith" text="1&gt;">
+      <formula>LEFT(J38,LEN("1&gt;"))="1&gt;"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="24" priority="83" operator="beginsWith" text="3&gt;">
+      <formula>LEFT(J38,LEN("3&gt;"))="3&gt;"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="23" priority="84" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="85" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="86" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="27" priority="32" operator="beginsWith" text="1&gt;">
-      <formula>LEFT(J1,LEN("1&gt;"))="1&gt;"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="26" priority="33" operator="beginsWith" text="3&gt;">
-      <formula>LEFT(J1,LEN("3&gt;"))="3&gt;"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="34" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="35" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="36" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="22" priority="83" operator="beginsWith" text="3&gt;">
-      <formula>LEFT(J1,LEN("3&gt;"))="3&gt;"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K6:O8 A9:P9">
-    <cfRule type="cellIs" dxfId="21" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="86" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L33:M33">
-    <cfRule type="beginsWith" dxfId="20" priority="43" operator="beginsWith" text="3&gt;">
+    <cfRule type="beginsWith" dxfId="20" priority="42" operator="beginsWith" text="1&gt;">
+      <formula>LEFT(L33,LEN("1&gt;"))="1&gt;"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="19" priority="43" operator="beginsWith" text="3&gt;">
       <formula>LEFT(L33,LEN("3&gt;"))="3&gt;"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="44" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="45" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="46" operator="equal">
       <formula>1</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="16" priority="42" operator="beginsWith" text="1&gt;">
-      <formula>LEFT(L33,LEN("1&gt;"))="1&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1:O1">
-    <cfRule type="cellIs" dxfId="15" priority="10" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="9" operator="equal">
-      <formula>2</formula>
+    <cfRule type="beginsWith" dxfId="15" priority="6" operator="beginsWith" text="1&gt;">
+      <formula>LEFT(N1,LEN("1&gt;"))="1&gt;"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="14" priority="7" operator="beginsWith" text="3&gt;">
+      <formula>LEFT(N1,LEN("3&gt;"))="3&gt;"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="13" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="12" priority="7" operator="beginsWith" text="3&gt;">
-      <formula>LEFT(N1,LEN("3&gt;"))="3&gt;"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="11" priority="6" operator="beginsWith" text="1&gt;">
-      <formula>LEFT(N1,LEN("1&gt;"))="1&gt;"</formula>
+    <cfRule type="cellIs" dxfId="12" priority="9" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
+      <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1">
-    <cfRule type="beginsWith" dxfId="10" priority="2" operator="beginsWith" text="3&gt;">
+    <cfRule type="beginsWith" dxfId="10" priority="1" operator="beginsWith" text="1&gt;">
+      <formula>LEFT(O1,LEN("1&gt;"))="1&gt;"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="9" priority="2" operator="beginsWith" text="3&gt;">
       <formula>LEFT(O1,LEN("3&gt;"))="3&gt;"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="9" priority="11" operator="beginsWith" text="1&gt;">
-      <formula>LEFT(O1,LEN("1&gt;"))="1&gt;"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="14" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="13" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="5" priority="1" operator="beginsWith" text="1&gt;">
+    <cfRule type="beginsWith" dxfId="5" priority="11" operator="beginsWith" text="1&gt;">
       <formula>LEFT(O1,LEN("1&gt;"))="1&gt;"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="4" priority="12" operator="beginsWith" text="3&gt;">
       <formula>LEFT(O1,LEN("3&gt;"))="3&gt;"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="13" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="14" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="15" operator="equal">
       <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
-      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB6">

--- a/media/Maps/xlsx/TestMap.xlsx
+++ b/media/Maps/xlsx/TestMap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roram\OneDrive - 学校法人新潟総合学院 学校法人国際総合学園 学校法人大彦学園\ドキュメント\wiz 授業ファイル\2024年度2年授業\後期\製作\media\Maps\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9434A04-0AA3-46B2-A9E4-BF7D40E616C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E38C131-F650-4D91-98AE-DF3961DB7322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{A4E20948-4AF6-4F97-89F2-9813C3B26678}"/>
   </bookViews>
@@ -696,7 +696,7 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="良い" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="83">
+  <dxfs count="82">
     <dxf>
       <fill>
         <patternFill>
@@ -1219,13 +1219,6 @@
       <fill>
         <patternFill>
           <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1610,8 +1603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F214FFB-5FC5-4EEB-876D-9E283DF04469}">
   <dimension ref="A1:P102"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1794,7 +1787,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
@@ -1841,16 +1834,16 @@
         <v>0</v>
       </c>
       <c r="G5" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H5" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J5" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K5" s="1">
         <v>0</v>
@@ -1976,19 +1969,19 @@
         <v>2</v>
       </c>
       <c r="B8" s="1">
-        <v>0</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2</v>
       </c>
       <c r="D8" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E8" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F8" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G8" s="1">
         <v>0</v>
@@ -2003,19 +1996,19 @@
         <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M8" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N8" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O8" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P8" s="1">
         <v>2</v>
@@ -2026,16 +2019,16 @@
         <v>2</v>
       </c>
       <c r="B9" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C9" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D9" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E9" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -2059,70 +2052,790 @@
         <v>0</v>
       </c>
       <c r="M9" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
         <v>2</v>
       </c>
     </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A10" s="1">
+        <v>2</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <v>0</v>
+      </c>
+      <c r="M10" s="1">
+        <v>0</v>
+      </c>
+      <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>0</v>
+      </c>
+      <c r="P10" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A11" s="1">
+        <v>2</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0</v>
+      </c>
+      <c r="M11" s="1">
+        <v>0</v>
+      </c>
+      <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>0</v>
+      </c>
+      <c r="P11" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A12" s="1">
+        <v>2</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2</v>
+      </c>
+      <c r="F12" s="1">
+        <v>2</v>
+      </c>
+      <c r="G12" s="1">
+        <v>2</v>
+      </c>
+      <c r="H12" s="1">
+        <v>2</v>
+      </c>
+      <c r="I12" s="1">
+        <v>2</v>
+      </c>
+      <c r="J12" s="1">
+        <v>2</v>
+      </c>
+      <c r="K12" s="1">
+        <v>2</v>
+      </c>
+      <c r="L12" s="1">
+        <v>2</v>
+      </c>
+      <c r="M12" s="1">
+        <v>1</v>
+      </c>
+      <c r="N12" s="1">
+        <v>1</v>
+      </c>
+      <c r="O12" s="1">
+        <v>1</v>
+      </c>
+      <c r="P12" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A13" s="1">
+        <v>2</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0</v>
+      </c>
+      <c r="L13" s="1">
+        <v>0</v>
+      </c>
+      <c r="M13" s="1">
+        <v>0</v>
+      </c>
+      <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>0</v>
+      </c>
+      <c r="P13" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A14" s="1">
+        <v>2</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0</v>
+      </c>
+      <c r="L14" s="1">
+        <v>0</v>
+      </c>
+      <c r="M14" s="1">
+        <v>0</v>
+      </c>
+      <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
+        <v>2</v>
+      </c>
+    </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="P15" s="1"/>
+      <c r="A15" s="1">
+        <v>2</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0</v>
+      </c>
+      <c r="L15" s="1">
+        <v>0</v>
+      </c>
+      <c r="M15" s="1">
+        <v>0</v>
+      </c>
+      <c r="N15" s="1">
+        <v>0</v>
+      </c>
+      <c r="O15" s="1">
+        <v>0</v>
+      </c>
+      <c r="P15" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="P16" s="1"/>
-    </row>
-    <row r="17" spans="16:16" x14ac:dyDescent="0.45">
-      <c r="P17" s="1"/>
-    </row>
-    <row r="18" spans="16:16" x14ac:dyDescent="0.45">
-      <c r="P18" s="1"/>
-    </row>
-    <row r="19" spans="16:16" x14ac:dyDescent="0.45">
-      <c r="P19" s="1"/>
-    </row>
-    <row r="20" spans="16:16" x14ac:dyDescent="0.45">
-      <c r="P20" s="1"/>
-    </row>
-    <row r="21" spans="16:16" x14ac:dyDescent="0.45">
-      <c r="P21" s="1"/>
-    </row>
-    <row r="22" spans="16:16" x14ac:dyDescent="0.45">
-      <c r="P22" s="1"/>
-    </row>
-    <row r="23" spans="16:16" x14ac:dyDescent="0.45">
-      <c r="P23" s="1"/>
-    </row>
-    <row r="24" spans="16:16" x14ac:dyDescent="0.45">
-      <c r="P24" s="1"/>
-    </row>
-    <row r="25" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="A16" s="1">
+        <v>2</v>
+      </c>
+      <c r="B16" s="1">
+        <v>2</v>
+      </c>
+      <c r="C16" s="1">
+        <v>2</v>
+      </c>
+      <c r="D16" s="1">
+        <v>2</v>
+      </c>
+      <c r="E16" s="1">
+        <v>2</v>
+      </c>
+      <c r="F16" s="1">
+        <v>2</v>
+      </c>
+      <c r="G16" s="1">
+        <v>2</v>
+      </c>
+      <c r="H16" s="1">
+        <v>2</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0</v>
+      </c>
+      <c r="L16" s="1">
+        <v>2</v>
+      </c>
+      <c r="M16" s="1">
+        <v>2</v>
+      </c>
+      <c r="N16" s="1">
+        <v>2</v>
+      </c>
+      <c r="O16" s="1">
+        <v>2</v>
+      </c>
+      <c r="P16" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A17" s="1">
+        <v>2</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0</v>
+      </c>
+      <c r="L17" s="1">
+        <v>0</v>
+      </c>
+      <c r="M17" s="1">
+        <v>0</v>
+      </c>
+      <c r="N17" s="1">
+        <v>0</v>
+      </c>
+      <c r="O17" s="1">
+        <v>0</v>
+      </c>
+      <c r="P17" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A18" s="1">
+        <v>2</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0</v>
+      </c>
+      <c r="L18" s="1">
+        <v>0</v>
+      </c>
+      <c r="M18" s="1">
+        <v>0</v>
+      </c>
+      <c r="N18" s="1">
+        <v>0</v>
+      </c>
+      <c r="O18" s="1">
+        <v>0</v>
+      </c>
+      <c r="P18" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A19" s="1">
+        <v>2</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0</v>
+      </c>
+      <c r="K19" s="1">
+        <v>0</v>
+      </c>
+      <c r="L19" s="1">
+        <v>0</v>
+      </c>
+      <c r="M19" s="1">
+        <v>0</v>
+      </c>
+      <c r="N19" s="1">
+        <v>0</v>
+      </c>
+      <c r="O19" s="1">
+        <v>0</v>
+      </c>
+      <c r="P19" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A20" s="1">
+        <v>2</v>
+      </c>
+      <c r="B20" s="1">
+        <v>2</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2</v>
+      </c>
+      <c r="D20" s="1">
+        <v>2</v>
+      </c>
+      <c r="E20" s="1">
+        <v>2</v>
+      </c>
+      <c r="F20" s="1">
+        <v>2</v>
+      </c>
+      <c r="G20" s="1">
+        <v>2</v>
+      </c>
+      <c r="H20" s="1">
+        <v>2</v>
+      </c>
+      <c r="I20" s="1">
+        <v>2</v>
+      </c>
+      <c r="J20" s="1">
+        <v>2</v>
+      </c>
+      <c r="K20" s="1">
+        <v>2</v>
+      </c>
+      <c r="L20" s="1">
+        <v>2</v>
+      </c>
+      <c r="M20" s="1">
+        <v>0</v>
+      </c>
+      <c r="N20" s="1">
+        <v>0</v>
+      </c>
+      <c r="O20" s="1">
+        <v>0</v>
+      </c>
+      <c r="P20" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A21" s="1">
+        <v>2</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0</v>
+      </c>
+      <c r="K21" s="1">
+        <v>0</v>
+      </c>
+      <c r="L21" s="1">
+        <v>0</v>
+      </c>
+      <c r="M21" s="1">
+        <v>0</v>
+      </c>
+      <c r="N21" s="1">
+        <v>0</v>
+      </c>
+      <c r="O21" s="1">
+        <v>0</v>
+      </c>
+      <c r="P21" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A22" s="1">
+        <v>2</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0</v>
+      </c>
+      <c r="J22" s="1">
+        <v>0</v>
+      </c>
+      <c r="K22" s="1">
+        <v>0</v>
+      </c>
+      <c r="L22" s="1">
+        <v>0</v>
+      </c>
+      <c r="M22" s="1">
+        <v>0</v>
+      </c>
+      <c r="N22" s="1">
+        <v>0</v>
+      </c>
+      <c r="O22" s="1">
+        <v>0</v>
+      </c>
+      <c r="P22" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A23" s="1">
+        <v>2</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0</v>
+      </c>
+      <c r="J23" s="1">
+        <v>0</v>
+      </c>
+      <c r="K23" s="1">
+        <v>0</v>
+      </c>
+      <c r="L23" s="1">
+        <v>0</v>
+      </c>
+      <c r="M23" s="1">
+        <v>0</v>
+      </c>
+      <c r="N23" s="1">
+        <v>0</v>
+      </c>
+      <c r="O23" s="1">
+        <v>0</v>
+      </c>
+      <c r="P23" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A24" s="1">
+        <v>2</v>
+      </c>
+      <c r="B24" s="1">
+        <v>2</v>
+      </c>
+      <c r="C24" s="1">
+        <v>2</v>
+      </c>
+      <c r="D24" s="1">
+        <v>2</v>
+      </c>
+      <c r="E24" s="1">
+        <v>2</v>
+      </c>
+      <c r="F24" s="1">
+        <v>2</v>
+      </c>
+      <c r="G24" s="1">
+        <v>2</v>
+      </c>
+      <c r="H24" s="1">
+        <v>2</v>
+      </c>
+      <c r="I24" s="1">
+        <v>2</v>
+      </c>
+      <c r="J24" s="1">
+        <v>2</v>
+      </c>
+      <c r="K24" s="1">
+        <v>2</v>
+      </c>
+      <c r="L24" s="1">
+        <v>2</v>
+      </c>
+      <c r="M24" s="1">
+        <v>2</v>
+      </c>
+      <c r="N24" s="1">
+        <v>2</v>
+      </c>
+      <c r="O24" s="1">
+        <v>2</v>
+      </c>
+      <c r="P24" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.45">
       <c r="P25" s="1"/>
     </row>
-    <row r="26" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.45">
       <c r="P26" s="1"/>
     </row>
-    <row r="27" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.45">
       <c r="P27" s="1"/>
     </row>
-    <row r="28" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.45">
       <c r="P28" s="1"/>
     </row>
-    <row r="29" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.45">
       <c r="P29" s="1"/>
     </row>
-    <row r="30" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.45">
       <c r="P30" s="1"/>
     </row>
-    <row r="31" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.45">
       <c r="P31" s="1"/>
     </row>
-    <row r="32" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.45">
       <c r="P32" s="1"/>
     </row>
     <row r="33" spans="16:16" x14ac:dyDescent="0.45">
@@ -2203,131 +2916,126 @@
     <row r="102" customFormat="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <phoneticPr fontId="18"/>
-  <conditionalFormatting sqref="A15:P42 A57:O1048576 A1:P9">
-    <cfRule type="cellIs" dxfId="82" priority="90" operator="equal">
+  <conditionalFormatting sqref="A57:O1048576 A1:P42">
+    <cfRule type="cellIs" dxfId="81" priority="90" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="91" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A15:P42 A1:P9">
-    <cfRule type="cellIs" dxfId="80" priority="93" operator="equal">
+  <conditionalFormatting sqref="A1:P42">
+    <cfRule type="cellIs" dxfId="79" priority="93" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:Z1 AB1:XFD56 Q2:Z56 A15:P42 A57:J102 L57:XFD102 A103:Z1048576 AB103:XFD1048576 A1:P9">
-    <cfRule type="beginsWith" dxfId="79" priority="88" operator="beginsWith" text="1&gt;">
+  <conditionalFormatting sqref="AB1:XFD56 Q2:Z56 A57:J102 L57:XFD102 A103:Z1048576 AB103:XFD1048576 A1:Z1 A2:P42">
+    <cfRule type="beginsWith" dxfId="78" priority="88" operator="beginsWith" text="1&gt;">
       <formula>LEFT(A1,LEN("1&gt;"))="1&gt;"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="78" priority="89" operator="beginsWith" text="3&gt;">
+    <cfRule type="beginsWith" dxfId="77" priority="89" operator="beginsWith" text="3&gt;">
       <formula>LEFT(A1,LEN("3&gt;"))="3&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A15:XFD42 Q4:XFD14 Q43:XFD56 A57:XFD1048576 A1:XFD3 A4:P9">
-    <cfRule type="cellIs" dxfId="77" priority="87" operator="equal">
+  <conditionalFormatting sqref="Q43:XFD56 A57:XFD1048576 A1:XFD42">
+    <cfRule type="cellIs" dxfId="76" priority="87" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B40:D40 E41:O41 J38:J42 I40:K40 I15:J18 I35:I42 I1:J9">
-    <cfRule type="beginsWith" dxfId="76" priority="62" operator="beginsWith" text="1&gt;">
+  <conditionalFormatting sqref="B40:D40 E41:O41 J38:J42 I40:K40 I35:I42 I1:J24">
+    <cfRule type="beginsWith" dxfId="75" priority="62" operator="beginsWith" text="1&gt;">
       <formula>LEFT(B1,LEN("1&gt;"))="1&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B9:O9">
-    <cfRule type="cellIs" dxfId="75" priority="31" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C40 E1:E9">
-    <cfRule type="beginsWith" dxfId="74" priority="57" operator="beginsWith" text="1&gt;">
+  <conditionalFormatting sqref="C33:E33 E1:E24">
+    <cfRule type="beginsWith" dxfId="74" priority="37" operator="beginsWith" text="1&gt;">
       <formula>LEFT(C1,LEN("1&gt;"))="1&gt;"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="73" priority="58" operator="beginsWith" text="3&gt;">
+    <cfRule type="beginsWith" dxfId="73" priority="38" operator="beginsWith" text="3&gt;">
       <formula>LEFT(C1,LEN("3&gt;"))="3&gt;"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="39" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="71" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="40" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="61" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C33:E33">
-    <cfRule type="beginsWith" dxfId="69" priority="37" operator="beginsWith" text="1&gt;">
-      <formula>LEFT(C33,LEN("1&gt;"))="1&gt;"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="68" priority="38" operator="beginsWith" text="3&gt;">
-      <formula>LEFT(C33,LEN("3&gt;"))="3&gt;"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="39" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="40" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="41" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:E1">
-    <cfRule type="beginsWith" dxfId="64" priority="21" operator="beginsWith" text="1&gt;">
+    <cfRule type="beginsWith" dxfId="69" priority="21" operator="beginsWith" text="1&gt;">
       <formula>LEFT(D1,LEN("1&gt;"))="1&gt;"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="63" priority="22" operator="beginsWith" text="3&gt;">
+    <cfRule type="beginsWith" dxfId="68" priority="22" operator="beginsWith" text="3&gt;">
       <formula>LEFT(D1,LEN("3&gt;"))="3&gt;"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="23" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="24" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="25" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1 J15:J18 J1:J9">
-    <cfRule type="beginsWith" dxfId="59" priority="16" operator="beginsWith" text="1&gt;">
+  <conditionalFormatting sqref="E1 J1:J24">
+    <cfRule type="beginsWith" dxfId="64" priority="16" operator="beginsWith" text="1&gt;">
       <formula>LEFT(E1,LEN("1&gt;"))="1&gt;"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="58" priority="17" operator="beginsWith" text="3&gt;">
+    <cfRule type="beginsWith" dxfId="63" priority="17" operator="beginsWith" text="3&gt;">
       <formula>LEFT(E1,LEN("3&gt;"))="3&gt;"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="18" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="19" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="20" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="54" priority="26" operator="beginsWith" text="1&gt;">
+    <cfRule type="beginsWith" dxfId="59" priority="26" operator="beginsWith" text="1&gt;">
       <formula>LEFT(E1,LEN("1&gt;"))="1&gt;"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="53" priority="27" operator="beginsWith" text="3&gt;">
+    <cfRule type="beginsWith" dxfId="58" priority="27" operator="beginsWith" text="3&gt;">
       <formula>LEFT(E1,LEN("3&gt;"))="3&gt;"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="28" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="29" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="30" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E15:E18 B35:B36 E38:E42">
+  <conditionalFormatting sqref="C40">
+    <cfRule type="beginsWith" dxfId="54" priority="57" operator="beginsWith" text="1&gt;">
+      <formula>LEFT(C40,LEN("1&gt;"))="1&gt;"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="53" priority="58" operator="beginsWith" text="3&gt;">
+      <formula>LEFT(C40,LEN("3&gt;"))="3&gt;"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="59" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="51" priority="60" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="50" priority="61" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B35:B36 E38:E42">
     <cfRule type="beginsWith" dxfId="49" priority="52" operator="beginsWith" text="1&gt;">
-      <formula>LEFT(B15,LEN("1&gt;"))="1&gt;"</formula>
+      <formula>LEFT(B35,LEN("1&gt;"))="1&gt;"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="48" priority="53" operator="beginsWith" text="3&gt;">
-      <formula>LEFT(B15,LEN("3&gt;"))="3&gt;"</formula>
+      <formula>LEFT(B35,LEN("3&gt;"))="3&gt;"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="47" priority="54" operator="equal">
       <formula>0</formula>
@@ -2373,7 +3081,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I15:J18 I35:I42 J38:J42 B40:D40 I40:K40 E41:O41 I1:J9">
+  <conditionalFormatting sqref="I35:I42 J38:J42 B40:D40 I40:K40 E41:O41 I1:J24">
     <cfRule type="beginsWith" dxfId="34" priority="63" operator="beginsWith" text="3&gt;">
       <formula>LEFT(B1,LEN("3&gt;"))="3&gt;"</formula>
     </cfRule>

--- a/media/Maps/xlsx/TestMap.xlsx
+++ b/media/Maps/xlsx/TestMap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roram\OneDrive - 学校法人新潟総合学院 学校法人国際総合学園 学校法人大彦学園\ドキュメント\wiz 授業ファイル\2024年度2年授業\後期\製作\media\Maps\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E38C131-F650-4D91-98AE-DF3961DB7322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17632019-4F76-4969-A45C-4DB5D83934AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{A4E20948-4AF6-4F97-89F2-9813C3B26678}"/>
   </bookViews>
@@ -33,9 +33,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="3">
   <si>
-    <t>s</t>
+    <t>3&gt;power:11/range:3</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>8&gt;speed:1.5/start:0^0^0/end:-8^0^0</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>8&gt;speed:1.0/start:0^0^0/end:0^3^0</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -696,7 +704,14 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="良い" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="82">
+  <dxfs count="87">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -707,6 +722,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="1" tint="4.9989318521683403E-2"/>
         </patternFill>
       </fill>
@@ -742,6 +778,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="1" tint="4.9989318521683403E-2"/>
         </patternFill>
       </fill>
@@ -945,6 +988,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="1" tint="4.9989318521683403E-2"/>
         </patternFill>
       </fill>
@@ -1204,28 +1254,21 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1603,8 +1646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F214FFB-5FC5-4EEB-876D-9E283DF04469}">
   <dimension ref="A1:P102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1615,1267 +1658,2641 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A1" s="1">
-        <v>2</v>
-      </c>
-      <c r="B1" s="1">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1">
-        <v>2</v>
-      </c>
-      <c r="G1" s="1">
-        <v>2</v>
-      </c>
-      <c r="H1" s="1">
-        <v>2</v>
-      </c>
-      <c r="I1" s="1">
-        <v>2</v>
-      </c>
-      <c r="J1" s="1">
-        <v>2</v>
-      </c>
-      <c r="K1" s="1">
-        <v>2</v>
-      </c>
-      <c r="L1" s="1">
-        <v>2</v>
-      </c>
-      <c r="M1" s="1">
-        <v>2</v>
-      </c>
-      <c r="N1" s="1">
-        <v>2</v>
-      </c>
-      <c r="O1" s="1">
-        <v>2</v>
-      </c>
-      <c r="P1" s="1">
+      <c r="A1">
+        <v>2</v>
+      </c>
+      <c r="B1">
+        <v>2</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <v>2</v>
+      </c>
+      <c r="F1">
+        <v>2</v>
+      </c>
+      <c r="G1">
+        <v>2</v>
+      </c>
+      <c r="H1">
+        <v>2</v>
+      </c>
+      <c r="I1">
+        <v>2</v>
+      </c>
+      <c r="J1">
+        <v>2</v>
+      </c>
+      <c r="K1">
+        <v>2</v>
+      </c>
+      <c r="L1">
+        <v>2</v>
+      </c>
+      <c r="M1">
+        <v>2</v>
+      </c>
+      <c r="N1">
+        <v>2</v>
+      </c>
+      <c r="O1">
+        <v>2</v>
+      </c>
+      <c r="P1">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A2" s="1">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0</v>
-      </c>
-      <c r="I2" s="1">
-        <v>0</v>
-      </c>
-      <c r="J2" s="1">
-        <v>0</v>
-      </c>
-      <c r="K2" s="1">
-        <v>0</v>
-      </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
-      <c r="M2" s="1">
-        <v>0</v>
-      </c>
-      <c r="N2" s="1">
-        <v>0</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0</v>
-      </c>
-      <c r="I3" s="1">
-        <v>0</v>
-      </c>
-      <c r="J3" s="1">
-        <v>0</v>
-      </c>
-      <c r="K3" s="1">
-        <v>0</v>
-      </c>
-      <c r="L3" s="1">
-        <v>0</v>
-      </c>
-      <c r="M3" s="1">
-        <v>0</v>
-      </c>
-      <c r="N3" s="1">
-        <v>0</v>
-      </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0</v>
-      </c>
-      <c r="H4" s="1">
-        <v>6</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0</v>
-      </c>
-      <c r="J4" s="1">
-        <v>0</v>
-      </c>
-      <c r="K4" s="1">
-        <v>0</v>
-      </c>
-      <c r="L4" s="1">
-        <v>0</v>
-      </c>
-      <c r="M4" s="1">
-        <v>0</v>
-      </c>
-      <c r="N4" s="1">
-        <v>0</v>
-      </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A5" s="1">
-        <v>2</v>
-      </c>
-      <c r="B5" s="1">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1">
-        <v>2</v>
-      </c>
-      <c r="H5" s="1">
-        <v>2</v>
-      </c>
-      <c r="I5" s="1">
-        <v>2</v>
-      </c>
-      <c r="J5" s="1">
-        <v>2</v>
-      </c>
-      <c r="K5" s="1">
-        <v>0</v>
-      </c>
-      <c r="L5" s="1">
-        <v>0</v>
-      </c>
-      <c r="M5" s="1">
-        <v>0</v>
-      </c>
-      <c r="N5" s="1">
-        <v>0</v>
-      </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A6" s="1">
-        <v>2</v>
-      </c>
-      <c r="B6" s="1">
-        <v>0</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1">
-        <v>0</v>
-      </c>
-      <c r="J6" s="1">
-        <v>0</v>
-      </c>
-      <c r="K6" s="1">
-        <v>0</v>
-      </c>
-      <c r="L6" s="1">
-        <v>0</v>
-      </c>
-      <c r="M6" s="1">
-        <v>0</v>
-      </c>
-      <c r="N6" s="1">
-        <v>0</v>
-      </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A7" s="1">
-        <v>2</v>
-      </c>
-      <c r="B7" s="1">
-        <v>0</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0</v>
-      </c>
-      <c r="J7" s="1">
-        <v>0</v>
-      </c>
-      <c r="K7" s="1">
-        <v>0</v>
-      </c>
-      <c r="L7" s="1">
-        <v>0</v>
-      </c>
-      <c r="M7" s="1">
-        <v>0</v>
-      </c>
-      <c r="N7" s="1">
-        <v>0</v>
-      </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A8" s="1">
-        <v>2</v>
-      </c>
-      <c r="B8" s="1">
-        <v>2</v>
-      </c>
-      <c r="C8" s="1">
-        <v>2</v>
-      </c>
-      <c r="D8" s="1">
-        <v>2</v>
-      </c>
-      <c r="E8" s="1">
-        <v>2</v>
-      </c>
-      <c r="F8" s="1">
-        <v>2</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0</v>
-      </c>
-      <c r="I8" s="1">
-        <v>0</v>
-      </c>
-      <c r="J8" s="1">
-        <v>0</v>
-      </c>
-      <c r="K8" s="1">
-        <v>2</v>
-      </c>
-      <c r="L8" s="1">
-        <v>2</v>
-      </c>
-      <c r="M8" s="1">
-        <v>2</v>
-      </c>
-      <c r="N8" s="1">
-        <v>2</v>
-      </c>
-      <c r="O8" s="1">
-        <v>2</v>
-      </c>
-      <c r="P8" s="1">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A9" s="1">
-        <v>2</v>
-      </c>
-      <c r="B9" s="1">
-        <v>0</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0</v>
-      </c>
-      <c r="I9" s="1">
-        <v>0</v>
-      </c>
-      <c r="J9" s="1">
-        <v>0</v>
-      </c>
-      <c r="K9" s="1">
-        <v>0</v>
-      </c>
-      <c r="L9" s="1">
-        <v>0</v>
-      </c>
-      <c r="M9" s="1">
-        <v>0</v>
-      </c>
-      <c r="N9" s="1">
-        <v>0</v>
-      </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>2</v>
+      </c>
+      <c r="N9">
+        <v>2</v>
+      </c>
+      <c r="O9">
+        <v>2</v>
+      </c>
+      <c r="P9">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A10" s="1">
-        <v>2</v>
-      </c>
-      <c r="B10" s="1">
-        <v>0</v>
-      </c>
-      <c r="C10" s="1">
-        <v>0</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0</v>
-      </c>
-      <c r="G10" s="1">
-        <v>0</v>
-      </c>
-      <c r="H10" s="1">
-        <v>0</v>
-      </c>
-      <c r="I10" s="1">
-        <v>0</v>
-      </c>
-      <c r="J10" s="1">
-        <v>0</v>
-      </c>
-      <c r="K10" s="1">
-        <v>0</v>
-      </c>
-      <c r="L10" s="1">
-        <v>0</v>
-      </c>
-      <c r="M10" s="1">
-        <v>0</v>
-      </c>
-      <c r="N10" s="1">
-        <v>0</v>
-      </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A11" s="1">
-        <v>2</v>
-      </c>
-      <c r="B11" s="1">
-        <v>0</v>
-      </c>
-      <c r="C11" s="1">
-        <v>0</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0</v>
-      </c>
-      <c r="G11" s="1">
-        <v>0</v>
-      </c>
-      <c r="H11" s="1">
-        <v>0</v>
-      </c>
-      <c r="I11" s="1">
-        <v>0</v>
-      </c>
-      <c r="J11" s="1">
-        <v>0</v>
-      </c>
-      <c r="K11" s="1">
-        <v>0</v>
-      </c>
-      <c r="L11" s="1">
-        <v>0</v>
-      </c>
-      <c r="M11" s="1">
-        <v>0</v>
-      </c>
-      <c r="N11" s="1">
-        <v>0</v>
-      </c>
-      <c r="O11" s="1">
-        <v>0</v>
-      </c>
-      <c r="P11" s="1">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A12" s="1">
-        <v>2</v>
-      </c>
-      <c r="B12" s="1">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>2</v>
+      </c>
+      <c r="N16">
+        <v>2</v>
+      </c>
+      <c r="O16">
+        <v>2</v>
+      </c>
+      <c r="P16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
         <v>1</v>
       </c>
-      <c r="C12" s="1">
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>2</v>
+      </c>
+      <c r="N17">
+        <v>2</v>
+      </c>
+      <c r="O17">
+        <v>2</v>
+      </c>
+      <c r="P17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>2</v>
+      </c>
+      <c r="N18">
+        <v>2</v>
+      </c>
+      <c r="O18">
+        <v>2</v>
+      </c>
+      <c r="P18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>7</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20">
+        <v>2</v>
+      </c>
+      <c r="H20">
+        <v>2</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A26">
+        <v>2</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A27">
+        <v>2</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27" t="s">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A28">
+        <v>2</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A29">
+        <v>2</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>2</v>
+      </c>
+      <c r="O29">
+        <v>2</v>
+      </c>
+      <c r="P29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A30">
+        <v>2</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A31">
+        <v>2</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A32">
+        <v>2</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A33">
+        <v>2</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>2</v>
+      </c>
+      <c r="G33">
+        <v>2</v>
+      </c>
+      <c r="H33">
+        <v>2</v>
+      </c>
+      <c r="I33">
+        <v>2</v>
+      </c>
+      <c r="J33">
+        <v>2</v>
+      </c>
+      <c r="K33">
+        <v>2</v>
+      </c>
+      <c r="L33">
+        <v>2</v>
+      </c>
+      <c r="M33">
+        <v>2</v>
+      </c>
+      <c r="N33">
+        <v>2</v>
+      </c>
+      <c r="O33">
+        <v>2</v>
+      </c>
+      <c r="P33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A34">
+        <v>2</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A35">
+        <v>2</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A36">
+        <v>2</v>
+      </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>5</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A37">
+        <v>2</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A38">
+        <v>2</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38" t="s">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38" t="s">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A39">
+        <v>2</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="1">
+      <c r="K39" t="s">
         <v>1</v>
       </c>
-      <c r="E12" s="1">
-        <v>2</v>
-      </c>
-      <c r="F12" s="1">
-        <v>2</v>
-      </c>
-      <c r="G12" s="1">
-        <v>2</v>
-      </c>
-      <c r="H12" s="1">
-        <v>2</v>
-      </c>
-      <c r="I12" s="1">
-        <v>2</v>
-      </c>
-      <c r="J12" s="1">
-        <v>2</v>
-      </c>
-      <c r="K12" s="1">
-        <v>2</v>
-      </c>
-      <c r="L12" s="1">
-        <v>2</v>
-      </c>
-      <c r="M12" s="1">
-        <v>1</v>
-      </c>
-      <c r="N12" s="1">
-        <v>1</v>
-      </c>
-      <c r="O12" s="1">
-        <v>1</v>
-      </c>
-      <c r="P12" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A13" s="1">
-        <v>2</v>
-      </c>
-      <c r="B13" s="1">
-        <v>0</v>
-      </c>
-      <c r="C13" s="1">
-        <v>0</v>
-      </c>
-      <c r="D13" s="1">
-        <v>0</v>
-      </c>
-      <c r="E13" s="1">
-        <v>0</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0</v>
-      </c>
-      <c r="G13" s="1">
-        <v>0</v>
-      </c>
-      <c r="H13" s="1">
-        <v>0</v>
-      </c>
-      <c r="I13" s="1">
-        <v>0</v>
-      </c>
-      <c r="J13" s="1">
-        <v>0</v>
-      </c>
-      <c r="K13" s="1">
-        <v>0</v>
-      </c>
-      <c r="L13" s="1">
-        <v>0</v>
-      </c>
-      <c r="M13" s="1">
-        <v>0</v>
-      </c>
-      <c r="N13" s="1">
-        <v>0</v>
-      </c>
-      <c r="O13" s="1">
-        <v>0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A14" s="1">
-        <v>2</v>
-      </c>
-      <c r="B14" s="1">
-        <v>0</v>
-      </c>
-      <c r="C14" s="1">
-        <v>0</v>
-      </c>
-      <c r="D14" s="1">
-        <v>0</v>
-      </c>
-      <c r="E14" s="1">
-        <v>0</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
-      </c>
-      <c r="H14" s="1">
-        <v>0</v>
-      </c>
-      <c r="I14" s="1">
-        <v>0</v>
-      </c>
-      <c r="J14" s="1">
-        <v>0</v>
-      </c>
-      <c r="K14" s="1">
-        <v>0</v>
-      </c>
-      <c r="L14" s="1">
-        <v>0</v>
-      </c>
-      <c r="M14" s="1">
-        <v>0</v>
-      </c>
-      <c r="N14" s="1">
-        <v>0</v>
-      </c>
-      <c r="O14" s="1">
-        <v>0</v>
-      </c>
-      <c r="P14" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A15" s="1">
-        <v>2</v>
-      </c>
-      <c r="B15" s="1">
-        <v>0</v>
-      </c>
-      <c r="C15" s="1">
-        <v>0</v>
-      </c>
-      <c r="D15" s="1">
-        <v>0</v>
-      </c>
-      <c r="E15" s="1">
-        <v>0</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0</v>
-      </c>
-      <c r="G15" s="1">
-        <v>0</v>
-      </c>
-      <c r="H15" s="1">
-        <v>0</v>
-      </c>
-      <c r="I15" s="1">
-        <v>0</v>
-      </c>
-      <c r="J15" s="1">
-        <v>0</v>
-      </c>
-      <c r="K15" s="1">
-        <v>0</v>
-      </c>
-      <c r="L15" s="1">
-        <v>0</v>
-      </c>
-      <c r="M15" s="1">
-        <v>0</v>
-      </c>
-      <c r="N15" s="1">
-        <v>0</v>
-      </c>
-      <c r="O15" s="1">
-        <v>0</v>
-      </c>
-      <c r="P15" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A16" s="1">
-        <v>2</v>
-      </c>
-      <c r="B16" s="1">
-        <v>2</v>
-      </c>
-      <c r="C16" s="1">
-        <v>2</v>
-      </c>
-      <c r="D16" s="1">
-        <v>2</v>
-      </c>
-      <c r="E16" s="1">
-        <v>2</v>
-      </c>
-      <c r="F16" s="1">
-        <v>2</v>
-      </c>
-      <c r="G16" s="1">
-        <v>2</v>
-      </c>
-      <c r="H16" s="1">
-        <v>2</v>
-      </c>
-      <c r="I16" s="1">
-        <v>0</v>
-      </c>
-      <c r="J16" s="1">
-        <v>0</v>
-      </c>
-      <c r="K16" s="1">
-        <v>0</v>
-      </c>
-      <c r="L16" s="1">
-        <v>2</v>
-      </c>
-      <c r="M16" s="1">
-        <v>2</v>
-      </c>
-      <c r="N16" s="1">
-        <v>2</v>
-      </c>
-      <c r="O16" s="1">
-        <v>2</v>
-      </c>
-      <c r="P16" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A17" s="1">
-        <v>2</v>
-      </c>
-      <c r="B17" s="1">
-        <v>0</v>
-      </c>
-      <c r="C17" s="1">
-        <v>0</v>
-      </c>
-      <c r="D17" s="1">
-        <v>0</v>
-      </c>
-      <c r="E17" s="1">
-        <v>0</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0</v>
-      </c>
-      <c r="G17" s="1">
-        <v>0</v>
-      </c>
-      <c r="H17" s="1">
-        <v>0</v>
-      </c>
-      <c r="I17" s="1">
-        <v>0</v>
-      </c>
-      <c r="J17" s="1">
-        <v>0</v>
-      </c>
-      <c r="K17" s="1">
-        <v>0</v>
-      </c>
-      <c r="L17" s="1">
-        <v>0</v>
-      </c>
-      <c r="M17" s="1">
-        <v>0</v>
-      </c>
-      <c r="N17" s="1">
-        <v>0</v>
-      </c>
-      <c r="O17" s="1">
-        <v>0</v>
-      </c>
-      <c r="P17" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A18" s="1">
-        <v>2</v>
-      </c>
-      <c r="B18" s="1">
-        <v>0</v>
-      </c>
-      <c r="C18" s="1">
-        <v>0</v>
-      </c>
-      <c r="D18" s="1">
-        <v>0</v>
-      </c>
-      <c r="E18" s="1">
-        <v>0</v>
-      </c>
-      <c r="F18" s="1">
-        <v>0</v>
-      </c>
-      <c r="G18" s="1">
-        <v>0</v>
-      </c>
-      <c r="H18" s="1">
-        <v>0</v>
-      </c>
-      <c r="I18" s="1">
-        <v>0</v>
-      </c>
-      <c r="J18" s="1">
-        <v>0</v>
-      </c>
-      <c r="K18" s="1">
-        <v>0</v>
-      </c>
-      <c r="L18" s="1">
-        <v>0</v>
-      </c>
-      <c r="M18" s="1">
-        <v>0</v>
-      </c>
-      <c r="N18" s="1">
-        <v>0</v>
-      </c>
-      <c r="O18" s="1">
-        <v>0</v>
-      </c>
-      <c r="P18" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A19" s="1">
-        <v>2</v>
-      </c>
-      <c r="B19" s="1">
-        <v>0</v>
-      </c>
-      <c r="C19" s="1">
-        <v>0</v>
-      </c>
-      <c r="D19" s="1">
-        <v>0</v>
-      </c>
-      <c r="E19" s="1">
-        <v>0</v>
-      </c>
-      <c r="F19" s="1">
-        <v>0</v>
-      </c>
-      <c r="G19" s="1">
-        <v>0</v>
-      </c>
-      <c r="H19" s="1">
-        <v>0</v>
-      </c>
-      <c r="I19" s="1">
-        <v>0</v>
-      </c>
-      <c r="J19" s="1">
-        <v>0</v>
-      </c>
-      <c r="K19" s="1">
-        <v>0</v>
-      </c>
-      <c r="L19" s="1">
-        <v>0</v>
-      </c>
-      <c r="M19" s="1">
-        <v>0</v>
-      </c>
-      <c r="N19" s="1">
-        <v>0</v>
-      </c>
-      <c r="O19" s="1">
-        <v>0</v>
-      </c>
-      <c r="P19" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A20" s="1">
-        <v>2</v>
-      </c>
-      <c r="B20" s="1">
-        <v>2</v>
-      </c>
-      <c r="C20" s="1">
-        <v>2</v>
-      </c>
-      <c r="D20" s="1">
-        <v>2</v>
-      </c>
-      <c r="E20" s="1">
-        <v>2</v>
-      </c>
-      <c r="F20" s="1">
-        <v>2</v>
-      </c>
-      <c r="G20" s="1">
-        <v>2</v>
-      </c>
-      <c r="H20" s="1">
-        <v>2</v>
-      </c>
-      <c r="I20" s="1">
-        <v>2</v>
-      </c>
-      <c r="J20" s="1">
-        <v>2</v>
-      </c>
-      <c r="K20" s="1">
-        <v>2</v>
-      </c>
-      <c r="L20" s="1">
-        <v>2</v>
-      </c>
-      <c r="M20" s="1">
-        <v>0</v>
-      </c>
-      <c r="N20" s="1">
-        <v>0</v>
-      </c>
-      <c r="O20" s="1">
-        <v>0</v>
-      </c>
-      <c r="P20" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A21" s="1">
-        <v>2</v>
-      </c>
-      <c r="B21" s="1">
-        <v>0</v>
-      </c>
-      <c r="C21" s="1">
-        <v>0</v>
-      </c>
-      <c r="D21" s="1">
-        <v>0</v>
-      </c>
-      <c r="E21" s="1">
-        <v>0</v>
-      </c>
-      <c r="F21" s="1">
-        <v>0</v>
-      </c>
-      <c r="G21" s="1">
-        <v>0</v>
-      </c>
-      <c r="H21" s="1">
-        <v>0</v>
-      </c>
-      <c r="I21" s="1">
-        <v>0</v>
-      </c>
-      <c r="J21" s="1">
-        <v>0</v>
-      </c>
-      <c r="K21" s="1">
-        <v>0</v>
-      </c>
-      <c r="L21" s="1">
-        <v>0</v>
-      </c>
-      <c r="M21" s="1">
-        <v>0</v>
-      </c>
-      <c r="N21" s="1">
-        <v>0</v>
-      </c>
-      <c r="O21" s="1">
-        <v>0</v>
-      </c>
-      <c r="P21" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A22" s="1">
-        <v>2</v>
-      </c>
-      <c r="B22" s="1">
-        <v>0</v>
-      </c>
-      <c r="C22" s="1">
-        <v>0</v>
-      </c>
-      <c r="D22" s="1">
-        <v>0</v>
-      </c>
-      <c r="E22" s="1">
-        <v>0</v>
-      </c>
-      <c r="F22" s="1">
-        <v>0</v>
-      </c>
-      <c r="G22" s="1">
-        <v>0</v>
-      </c>
-      <c r="H22" s="1">
-        <v>0</v>
-      </c>
-      <c r="I22" s="1">
-        <v>0</v>
-      </c>
-      <c r="J22" s="1">
-        <v>0</v>
-      </c>
-      <c r="K22" s="1">
-        <v>0</v>
-      </c>
-      <c r="L22" s="1">
-        <v>0</v>
-      </c>
-      <c r="M22" s="1">
-        <v>0</v>
-      </c>
-      <c r="N22" s="1">
-        <v>0</v>
-      </c>
-      <c r="O22" s="1">
-        <v>0</v>
-      </c>
-      <c r="P22" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A23" s="1">
-        <v>2</v>
-      </c>
-      <c r="B23" s="1">
-        <v>0</v>
-      </c>
-      <c r="C23" s="1">
-        <v>0</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E23" s="1">
-        <v>0</v>
-      </c>
-      <c r="F23" s="1">
-        <v>0</v>
-      </c>
-      <c r="G23" s="1">
-        <v>0</v>
-      </c>
-      <c r="H23" s="1">
-        <v>0</v>
-      </c>
-      <c r="I23" s="1">
-        <v>0</v>
-      </c>
-      <c r="J23" s="1">
-        <v>0</v>
-      </c>
-      <c r="K23" s="1">
-        <v>0</v>
-      </c>
-      <c r="L23" s="1">
-        <v>0</v>
-      </c>
-      <c r="M23" s="1">
-        <v>0</v>
-      </c>
-      <c r="N23" s="1">
-        <v>0</v>
-      </c>
-      <c r="O23" s="1">
-        <v>0</v>
-      </c>
-      <c r="P23" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A24" s="1">
-        <v>2</v>
-      </c>
-      <c r="B24" s="1">
-        <v>2</v>
-      </c>
-      <c r="C24" s="1">
-        <v>2</v>
-      </c>
-      <c r="D24" s="1">
-        <v>2</v>
-      </c>
-      <c r="E24" s="1">
-        <v>2</v>
-      </c>
-      <c r="F24" s="1">
-        <v>2</v>
-      </c>
-      <c r="G24" s="1">
-        <v>2</v>
-      </c>
-      <c r="H24" s="1">
-        <v>2</v>
-      </c>
-      <c r="I24" s="1">
-        <v>2</v>
-      </c>
-      <c r="J24" s="1">
-        <v>2</v>
-      </c>
-      <c r="K24" s="1">
-        <v>2</v>
-      </c>
-      <c r="L24" s="1">
-        <v>2</v>
-      </c>
-      <c r="M24" s="1">
-        <v>2</v>
-      </c>
-      <c r="N24" s="1">
-        <v>2</v>
-      </c>
-      <c r="O24" s="1">
-        <v>2</v>
-      </c>
-      <c r="P24" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="P25" s="1"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="P26" s="1"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="P27" s="1"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="P28" s="1"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="P29" s="1"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="P30" s="1"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="P31" s="1"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="P32" s="1"/>
-    </row>
-    <row r="33" spans="16:16" x14ac:dyDescent="0.45">
-      <c r="P33" s="1"/>
-    </row>
-    <row r="34" spans="16:16" x14ac:dyDescent="0.45">
-      <c r="P34" s="1"/>
-    </row>
-    <row r="35" spans="16:16" x14ac:dyDescent="0.45">
-      <c r="P35" s="1"/>
-    </row>
-    <row r="36" spans="16:16" x14ac:dyDescent="0.45">
-      <c r="P36" s="1"/>
-    </row>
-    <row r="37" spans="16:16" x14ac:dyDescent="0.45">
-      <c r="P37" s="1"/>
-    </row>
-    <row r="38" spans="16:16" x14ac:dyDescent="0.45">
-      <c r="P38" s="1"/>
-    </row>
-    <row r="39" spans="16:16" x14ac:dyDescent="0.45">
-      <c r="P39" s="1"/>
-    </row>
-    <row r="40" spans="16:16" x14ac:dyDescent="0.45">
-      <c r="P40" s="1"/>
-    </row>
-    <row r="41" spans="16:16" x14ac:dyDescent="0.45">
-      <c r="P41" s="1"/>
-    </row>
-    <row r="42" spans="16:16" x14ac:dyDescent="0.45">
-      <c r="P42" s="1"/>
-    </row>
-    <row r="57" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="58" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="59" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="60" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="61" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="62" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="63" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="64" customFormat="1" x14ac:dyDescent="0.45"/>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A40">
+        <v>2</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A41">
+        <v>2</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A42">
+        <v>2</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A43">
+        <v>2</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>2</v>
+      </c>
+      <c r="M43">
+        <v>2</v>
+      </c>
+      <c r="N43">
+        <v>2</v>
+      </c>
+      <c r="O43">
+        <v>2</v>
+      </c>
+      <c r="P43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A44">
+        <v>2</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A45">
+        <v>2</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A46">
+        <v>2</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46" t="s">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A47">
+        <v>2</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A48">
+        <v>2</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A49">
+        <v>2</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A50">
+        <v>2</v>
+      </c>
+      <c r="B50">
+        <v>2</v>
+      </c>
+      <c r="C50">
+        <v>2</v>
+      </c>
+      <c r="D50">
+        <v>2</v>
+      </c>
+      <c r="E50">
+        <v>2</v>
+      </c>
+      <c r="F50">
+        <v>2</v>
+      </c>
+      <c r="G50">
+        <v>2</v>
+      </c>
+      <c r="H50">
+        <v>2</v>
+      </c>
+      <c r="I50">
+        <v>2</v>
+      </c>
+      <c r="J50">
+        <v>2</v>
+      </c>
+      <c r="K50">
+        <v>2</v>
+      </c>
+      <c r="L50">
+        <v>2</v>
+      </c>
+      <c r="M50">
+        <v>2</v>
+      </c>
+      <c r="N50">
+        <v>2</v>
+      </c>
+      <c r="O50">
+        <v>2</v>
+      </c>
+      <c r="P50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A57"/>
+      <c r="B57"/>
+      <c r="C57"/>
+      <c r="D57"/>
+      <c r="E57"/>
+      <c r="F57"/>
+      <c r="G57"/>
+      <c r="H57"/>
+      <c r="I57"/>
+      <c r="J57"/>
+      <c r="K57"/>
+      <c r="L57"/>
+      <c r="M57"/>
+      <c r="N57"/>
+      <c r="O57"/>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A58"/>
+      <c r="B58"/>
+      <c r="C58"/>
+      <c r="D58"/>
+      <c r="E58"/>
+      <c r="F58"/>
+      <c r="G58"/>
+      <c r="H58"/>
+      <c r="I58"/>
+      <c r="J58"/>
+      <c r="K58"/>
+      <c r="L58"/>
+      <c r="M58"/>
+      <c r="N58"/>
+      <c r="O58"/>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A59"/>
+      <c r="B59"/>
+      <c r="C59"/>
+      <c r="D59"/>
+      <c r="E59"/>
+      <c r="F59"/>
+      <c r="G59"/>
+      <c r="H59"/>
+      <c r="I59"/>
+      <c r="J59"/>
+      <c r="K59"/>
+      <c r="L59"/>
+      <c r="M59"/>
+      <c r="N59"/>
+      <c r="O59"/>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A60"/>
+      <c r="B60"/>
+      <c r="C60"/>
+      <c r="D60"/>
+      <c r="E60"/>
+      <c r="F60"/>
+      <c r="G60"/>
+      <c r="H60"/>
+      <c r="I60"/>
+      <c r="J60"/>
+      <c r="K60"/>
+      <c r="L60"/>
+      <c r="M60"/>
+      <c r="N60"/>
+      <c r="O60"/>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A61"/>
+      <c r="B61"/>
+      <c r="C61"/>
+      <c r="D61"/>
+      <c r="E61"/>
+      <c r="F61"/>
+      <c r="G61"/>
+      <c r="H61"/>
+      <c r="I61"/>
+      <c r="J61"/>
+      <c r="K61"/>
+      <c r="L61"/>
+      <c r="M61"/>
+      <c r="N61"/>
+      <c r="O61"/>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A62"/>
+      <c r="B62"/>
+      <c r="C62"/>
+      <c r="D62"/>
+      <c r="E62"/>
+      <c r="F62"/>
+      <c r="G62"/>
+      <c r="H62"/>
+      <c r="I62"/>
+      <c r="J62"/>
+      <c r="K62"/>
+      <c r="L62"/>
+      <c r="M62"/>
+      <c r="N62"/>
+      <c r="O62"/>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A63"/>
+      <c r="B63"/>
+      <c r="C63"/>
+      <c r="D63"/>
+      <c r="E63"/>
+      <c r="F63"/>
+      <c r="G63"/>
+      <c r="H63"/>
+      <c r="I63"/>
+      <c r="J63"/>
+      <c r="K63"/>
+      <c r="L63"/>
+      <c r="M63"/>
+      <c r="N63"/>
+      <c r="O63"/>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A64"/>
+      <c r="B64"/>
+      <c r="C64"/>
+      <c r="D64"/>
+      <c r="E64"/>
+      <c r="F64"/>
+      <c r="G64"/>
+      <c r="H64"/>
+      <c r="I64"/>
+      <c r="J64"/>
+      <c r="K64"/>
+      <c r="L64"/>
+      <c r="M64"/>
+      <c r="N64"/>
+      <c r="O64"/>
+    </row>
     <row r="65" customFormat="1" x14ac:dyDescent="0.45"/>
     <row r="66" customFormat="1" x14ac:dyDescent="0.45"/>
     <row r="67" customFormat="1" x14ac:dyDescent="0.45"/>
@@ -2916,286 +4333,303 @@
     <row r="102" customFormat="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <phoneticPr fontId="18"/>
-  <conditionalFormatting sqref="A57:O1048576 A1:P42">
-    <cfRule type="cellIs" dxfId="81" priority="90" operator="equal">
+  <conditionalFormatting sqref="A57:O1048576 A1:P49">
+    <cfRule type="cellIs" dxfId="86" priority="100" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="101" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:P42">
-    <cfRule type="cellIs" dxfId="79" priority="93" operator="equal">
+  <conditionalFormatting sqref="A1:P49">
+    <cfRule type="cellIs" dxfId="84" priority="103" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB1:XFD56 Q2:Z56 A57:J102 L57:XFD102 A103:Z1048576 AB103:XFD1048576 A1:Z1 A2:P42">
-    <cfRule type="beginsWith" dxfId="78" priority="88" operator="beginsWith" text="1&gt;">
+  <conditionalFormatting sqref="A1:Z1 AB1:XFD56 Q2:Z56 A57:J102 L57:XFD102 A103:Z1048576 AB103:XFD1048576 A2:P49">
+    <cfRule type="beginsWith" dxfId="83" priority="98" operator="beginsWith" text="1&gt;">
       <formula>LEFT(A1,LEN("1&gt;"))="1&gt;"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="77" priority="89" operator="beginsWith" text="3&gt;">
+    <cfRule type="beginsWith" dxfId="82" priority="99" operator="beginsWith" text="3&gt;">
       <formula>LEFT(A1,LEN("3&gt;"))="3&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q43:XFD56 A57:XFD1048576 A1:XFD42">
-    <cfRule type="cellIs" dxfId="76" priority="87" operator="equal">
+  <conditionalFormatting sqref="Q12:XFD43 A1:XFD11 A12:P50">
+    <cfRule type="cellIs" dxfId="81" priority="97" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B40:D40 E41:O41 J38:J42 I40:K40 I35:I42 I1:J24">
-    <cfRule type="beginsWith" dxfId="75" priority="62" operator="beginsWith" text="1&gt;">
-      <formula>LEFT(B1,LEN("1&gt;"))="1&gt;"</formula>
+  <conditionalFormatting sqref="Q43:XFD56 A55:XFD1048576">
+    <cfRule type="cellIs" dxfId="80" priority="69" operator="equal">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C33:E33 E1:E24">
-    <cfRule type="beginsWith" dxfId="74" priority="37" operator="beginsWith" text="1&gt;">
+  <conditionalFormatting sqref="A55:XFD1048576 Q12:XFD54 A1:XFD11 A12:P50">
+    <cfRule type="beginsWith" dxfId="79" priority="67" operator="beginsWith" text="1&gt;">
+      <formula>LEFT(A1,LEN("1&gt;"))="1&gt;"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="78" priority="68" operator="beginsWith" text="3&gt;">
+      <formula>LEFT(A1,LEN("3&gt;"))="3&gt;"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="77" priority="70" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="76" priority="71" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C38:E38 I40:J49 J39:K39 E1:E49 I1:J38">
+    <cfRule type="beginsWith" dxfId="75" priority="47" operator="beginsWith" text="1&gt;">
       <formula>LEFT(C1,LEN("1&gt;"))="1&gt;"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="73" priority="38" operator="beginsWith" text="3&gt;">
+    <cfRule type="beginsWith" dxfId="74" priority="48" operator="beginsWith" text="3&gt;">
       <formula>LEFT(C1,LEN("3&gt;"))="3&gt;"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="49" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="71" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="50" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="51" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:E1">
-    <cfRule type="beginsWith" dxfId="69" priority="21" operator="beginsWith" text="1&gt;">
+    <cfRule type="beginsWith" dxfId="70" priority="31" operator="beginsWith" text="1&gt;">
       <formula>LEFT(D1,LEN("1&gt;"))="1&gt;"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="68" priority="22" operator="beginsWith" text="3&gt;">
+    <cfRule type="beginsWith" dxfId="69" priority="32" operator="beginsWith" text="3&gt;">
       <formula>LEFT(D1,LEN("3&gt;"))="3&gt;"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="33" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="34" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="35" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1 J1:J24">
-    <cfRule type="beginsWith" dxfId="64" priority="16" operator="beginsWith" text="1&gt;">
-      <formula>LEFT(E1,LEN("1&gt;"))="1&gt;"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="63" priority="17" operator="beginsWith" text="3&gt;">
-      <formula>LEFT(E1,LEN("3&gt;"))="3&gt;"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="18" operator="equal">
+  <conditionalFormatting sqref="E1 B23:J23 J40:J49 K39 J1:J38">
+    <cfRule type="beginsWith" dxfId="65" priority="26" operator="beginsWith" text="1&gt;">
+      <formula>LEFT(B1,LEN("1&gt;"))="1&gt;"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="64" priority="27" operator="beginsWith" text="3&gt;">
+      <formula>LEFT(B1,LEN("3&gt;"))="3&gt;"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="63" priority="28" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="29" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="30" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="59" priority="26" operator="beginsWith" text="1&gt;">
-      <formula>LEFT(E1,LEN("1&gt;"))="1&gt;"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="58" priority="27" operator="beginsWith" text="3&gt;">
-      <formula>LEFT(E1,LEN("3&gt;"))="3&gt;"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="28" operator="equal">
+    <cfRule type="beginsWith" dxfId="60" priority="36" operator="beginsWith" text="1&gt;">
+      <formula>LEFT(B1,LEN("1&gt;"))="1&gt;"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="59" priority="37" operator="beginsWith" text="3&gt;">
+      <formula>LEFT(B1,LEN("3&gt;"))="3&gt;"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="38" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="39" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="40" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C40">
-    <cfRule type="beginsWith" dxfId="54" priority="57" operator="beginsWith" text="1&gt;">
-      <formula>LEFT(C40,LEN("1&gt;"))="1&gt;"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="53" priority="58" operator="beginsWith" text="3&gt;">
-      <formula>LEFT(C40,LEN("3&gt;"))="3&gt;"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="59" operator="equal">
+  <conditionalFormatting sqref="B40:B43">
+    <cfRule type="beginsWith" dxfId="55" priority="62" operator="beginsWith" text="1&gt;">
+      <formula>LEFT(B40,LEN("1&gt;"))="1&gt;"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="54" priority="63" operator="beginsWith" text="3&gt;">
+      <formula>LEFT(B40,LEN("3&gt;"))="3&gt;"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="53" priority="64" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="65" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="66" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B35:B36 E38:E42">
-    <cfRule type="beginsWith" dxfId="49" priority="52" operator="beginsWith" text="1&gt;">
-      <formula>LEFT(B35,LEN("1&gt;"))="1&gt;"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="48" priority="53" operator="beginsWith" text="3&gt;">
-      <formula>LEFT(B35,LEN("3&gt;"))="3&gt;"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="54" operator="equal">
+  <conditionalFormatting sqref="G48:H48">
+    <cfRule type="beginsWith" dxfId="50" priority="77" operator="beginsWith" text="1&gt;">
+      <formula>LEFT(G48,LEN("1&gt;"))="1&gt;"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="49" priority="78" operator="beginsWith" text="3&gt;">
+      <formula>LEFT(G48,LEN("3&gt;"))="3&gt;"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="79" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="80" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="81" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G41:H41">
-    <cfRule type="beginsWith" dxfId="44" priority="67" operator="beginsWith" text="1&gt;">
-      <formula>LEFT(G41,LEN("1&gt;"))="1&gt;"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="43" priority="68" operator="beginsWith" text="3&gt;">
-      <formula>LEFT(G41,LEN("3&gt;"))="3&gt;"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="69" operator="equal">
+  <conditionalFormatting sqref="H36">
+    <cfRule type="beginsWith" dxfId="45" priority="57" operator="beginsWith" text="1&gt;">
+      <formula>LEFT(H36,LEN("1&gt;"))="1&gt;"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="44" priority="58" operator="beginsWith" text="3&gt;">
+      <formula>LEFT(H36,LEN("3&gt;"))="3&gt;"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="43" priority="59" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="60" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="61" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H31">
-    <cfRule type="beginsWith" dxfId="39" priority="47" operator="beginsWith" text="1&gt;">
-      <formula>LEFT(H31,LEN("1&gt;"))="1&gt;"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="38" priority="48" operator="beginsWith" text="3&gt;">
-      <formula>LEFT(H31,LEN("3&gt;"))="3&gt;"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="49" operator="equal">
+  <conditionalFormatting sqref="B23:I23 B47:D47 I47:K47 E48:O48 M49:O49">
+    <cfRule type="beginsWith" dxfId="40" priority="72" operator="beginsWith" text="1&gt;">
+      <formula>LEFT(B23,LEN("1&gt;"))="1&gt;"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="39" priority="73" operator="beginsWith" text="3&gt;">
+      <formula>LEFT(B23,LEN("3&gt;"))="3&gt;"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="74" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="75" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="76" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I35:I42 J38:J42 B40:D40 I40:K40 E41:O41 I1:J24">
-    <cfRule type="beginsWith" dxfId="34" priority="63" operator="beginsWith" text="3&gt;">
-      <formula>LEFT(B1,LEN("3&gt;"))="3&gt;"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="64" operator="equal">
+  <conditionalFormatting sqref="J45:J48">
+    <cfRule type="beginsWith" dxfId="35" priority="42" operator="beginsWith" text="1&gt;">
+      <formula>LEFT(J45,LEN("1&gt;"))="1&gt;"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="34" priority="43" operator="beginsWith" text="3&gt;">
+      <formula>LEFT(J45,LEN("3&gt;"))="3&gt;"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="44" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="45" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="46" operator="equal">
       <formula>1</formula>
     </cfRule>
+    <cfRule type="beginsWith" dxfId="30" priority="92" operator="beginsWith" text="1&gt;">
+      <formula>LEFT(J45,LEN("1&gt;"))="1&gt;"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="29" priority="93" operator="beginsWith" text="3&gt;">
+      <formula>LEFT(J45,LEN("3&gt;"))="3&gt;"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="94" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="95" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="96" operator="equal">
+      <formula>1</formula>
+    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J38:J42">
-    <cfRule type="beginsWith" dxfId="30" priority="32" operator="beginsWith" text="1&gt;">
-      <formula>LEFT(J38,LEN("1&gt;"))="1&gt;"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="29" priority="33" operator="beginsWith" text="3&gt;">
-      <formula>LEFT(J38,LEN("3&gt;"))="3&gt;"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="34" operator="equal">
+  <conditionalFormatting sqref="L38:M38">
+    <cfRule type="beginsWith" dxfId="25" priority="52" operator="beginsWith" text="1&gt;">
+      <formula>LEFT(L38,LEN("1&gt;"))="1&gt;"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="24" priority="53" operator="beginsWith" text="3&gt;">
+      <formula>LEFT(L38,LEN("3&gt;"))="3&gt;"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="23" priority="54" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="55" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="36" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="25" priority="82" operator="beginsWith" text="1&gt;">
-      <formula>LEFT(J38,LEN("1&gt;"))="1&gt;"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="24" priority="83" operator="beginsWith" text="3&gt;">
-      <formula>LEFT(J38,LEN("3&gt;"))="3&gt;"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="84" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="85" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="86" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L33:M33">
-    <cfRule type="beginsWith" dxfId="20" priority="42" operator="beginsWith" text="1&gt;">
-      <formula>LEFT(L33,LEN("1&gt;"))="1&gt;"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="19" priority="43" operator="beginsWith" text="3&gt;">
-      <formula>LEFT(L33,LEN("3&gt;"))="3&gt;"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="44" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="45" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="56" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1:O1">
-    <cfRule type="beginsWith" dxfId="15" priority="6" operator="beginsWith" text="1&gt;">
+    <cfRule type="beginsWith" dxfId="20" priority="16" operator="beginsWith" text="1&gt;">
       <formula>LEFT(N1,LEN("1&gt;"))="1&gt;"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="14" priority="7" operator="beginsWith" text="3&gt;">
+    <cfRule type="beginsWith" dxfId="19" priority="17" operator="beginsWith" text="3&gt;">
       <formula>LEFT(N1,LEN("3&gt;"))="3&gt;"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="20" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1">
-    <cfRule type="beginsWith" dxfId="10" priority="1" operator="beginsWith" text="1&gt;">
+    <cfRule type="beginsWith" dxfId="15" priority="21" operator="beginsWith" text="1&gt;">
       <formula>LEFT(O1,LEN("1&gt;"))="1&gt;"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="9" priority="2" operator="beginsWith" text="3&gt;">
+    <cfRule type="beginsWith" dxfId="14" priority="22" operator="beginsWith" text="3&gt;">
       <formula>LEFT(O1,LEN("3&gt;"))="3&gt;"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="23" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="24" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="5" priority="11" operator="beginsWith" text="1&gt;">
-      <formula>LEFT(O1,LEN("1&gt;"))="1&gt;"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="4" priority="12" operator="beginsWith" text="3&gt;">
-      <formula>LEFT(O1,LEN("3&gt;"))="3&gt;"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="13" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="14" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="25" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB6">
-    <cfRule type="cellIs" dxfId="0" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="102" operator="equal">
       <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J39">
+    <cfRule type="beginsWith" dxfId="9" priority="1" operator="beginsWith" text="1&gt;">
+      <formula>LEFT(J39,LEN("1&gt;"))="1&gt;"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="8" priority="2" operator="beginsWith" text="3&gt;">
+      <formula>LEFT(J39,LEN("3&gt;"))="3&gt;"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="4" priority="6" operator="beginsWith" text="1&gt;">
+      <formula>LEFT(J39,LEN("1&gt;"))="1&gt;"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="3" priority="7" operator="beginsWith" text="3&gt;">
+      <formula>LEFT(J39,LEN("3&gt;"))="3&gt;"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="8" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="9" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="10" operator="equal">
+      <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
